--- a/AgImpacts_Raw_Data.xlsx
+++ b/AgImpacts_Raw_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anush\Documents\MIT\TerraELO\WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A65A95-7A2E-41CC-BA62-F3A9FD5E7BC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6C61E5-12B6-4C28-910F-BAB3D0F8DEAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16780" windowHeight="5300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9734" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9734" uniqueCount="909">
   <si>
     <t>Variable Name</t>
   </si>
@@ -3476,9 +3476,6 @@
   </si>
   <si>
     <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Victoria state, Queensland state, Western Australia state and Tasmania</t>
   </si>
   <si>
     <t>Sydney, New South Wales state</t>
@@ -4876,9 +4873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CZ687"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A538" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G495" sqref="G495:H540"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H540" sqref="E495:H540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -55852,7 +55849,7 @@
       </c>
       <c r="Q360" s="19"/>
     </row>
-    <row r="361" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="361" spans="1:104" outlineLevel="1">
       <c r="B361" s="50" t="s">
         <v>487</v>
       </c>
@@ -55904,7 +55901,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="362" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="362" spans="1:104" outlineLevel="1">
       <c r="B362" s="50" t="s">
         <v>492</v>
       </c>
@@ -55958,7 +55955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="363" spans="1:104" outlineLevel="1">
       <c r="B363" s="50" t="s">
         <v>496</v>
       </c>
@@ -56012,7 +56009,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="364" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="364" spans="1:104" outlineLevel="1">
       <c r="B364" s="50" t="s">
         <v>501</v>
       </c>
@@ -56066,7 +56063,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="365" spans="1:104" outlineLevel="1">
       <c r="B365" s="50" t="s">
         <v>502</v>
       </c>
@@ -56120,7 +56117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="366" spans="1:104" outlineLevel="1">
       <c r="B366" s="50" t="s">
         <v>504</v>
       </c>
@@ -56174,7 +56171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="367" spans="1:104" outlineLevel="1">
       <c r="B367" s="50" t="s">
         <v>505</v>
       </c>
@@ -56228,7 +56225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="368" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="368" spans="1:104" outlineLevel="1">
       <c r="B368" s="50" t="s">
         <v>505</v>
       </c>
@@ -56282,7 +56279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="369" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="369" spans="2:101" outlineLevel="1">
       <c r="B369" s="50" t="s">
         <v>505</v>
       </c>
@@ -56336,7 +56333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="370" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="370" spans="2:101" outlineLevel="1">
       <c r="B370" s="50" t="s">
         <v>505</v>
       </c>
@@ -56390,7 +56387,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="371" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="371" spans="2:101" outlineLevel="1">
       <c r="B371" s="50" t="s">
         <v>508</v>
       </c>
@@ -56444,7 +56441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="372" spans="2:101" outlineLevel="1">
       <c r="B372" s="50" t="s">
         <v>509</v>
       </c>
@@ -56498,7 +56495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="373" spans="2:101" outlineLevel="1">
       <c r="B373" s="50" t="s">
         <v>509</v>
       </c>
@@ -56552,7 +56549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="374" spans="2:101" outlineLevel="1">
       <c r="B374" s="50" t="s">
         <v>509</v>
       </c>
@@ -56606,7 +56603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="375" spans="2:101" outlineLevel="1">
       <c r="B375" s="50" t="s">
         <v>509</v>
       </c>
@@ -56660,7 +56657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="376" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="376" spans="2:101" outlineLevel="1">
       <c r="B376" s="50" t="s">
         <v>509</v>
       </c>
@@ -56716,7 +56713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="377" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="377" spans="2:101" outlineLevel="1">
       <c r="B377" s="50" t="s">
         <v>509</v>
       </c>
@@ -56770,7 +56767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="378" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="378" spans="2:101" outlineLevel="1">
       <c r="B378" s="50" t="s">
         <v>511</v>
       </c>
@@ -56822,7 +56819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="379" spans="2:101" ht="24.75" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="379" spans="2:101" ht="24.75" customHeight="1" outlineLevel="1">
       <c r="B379" s="50" t="s">
         <v>514</v>
       </c>
@@ -56868,7 +56865,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="380" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="380" spans="2:101" outlineLevel="1">
       <c r="B380" s="50" t="s">
         <v>517</v>
       </c>
@@ -56914,7 +56911,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="381" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="381" spans="2:101" outlineLevel="1">
       <c r="B381" s="50" t="s">
         <v>518</v>
       </c>
@@ -56964,7 +56961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="382" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="382" spans="2:101" outlineLevel="1">
       <c r="B382" s="50" t="s">
         <v>518</v>
       </c>
@@ -57014,7 +57011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="383" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="383" spans="2:101" outlineLevel="1">
       <c r="B383" s="50" t="s">
         <v>518</v>
       </c>
@@ -57064,7 +57061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="384" spans="2:101" outlineLevel="1">
       <c r="B384" s="50" t="s">
         <v>519</v>
       </c>
@@ -57118,7 +57115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:17" hidden="1" outlineLevel="1">
+    <row r="385" spans="1:17" outlineLevel="1">
       <c r="B385" s="50" t="s">
         <v>521</v>
       </c>
@@ -57147,7 +57144,7 @@
         <v>0.36480000000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:17" ht="29" hidden="1" outlineLevel="1">
+    <row r="386" spans="1:17" ht="29" outlineLevel="1">
       <c r="B386" s="50" t="s">
         <v>521</v>
       </c>
@@ -57176,7 +57173,7 @@
         <v>0.32640000000000002</v>
       </c>
     </row>
-    <row r="387" spans="1:17" s="18" customFormat="1" collapsed="1">
+    <row r="387" spans="1:17" s="18" customFormat="1">
       <c r="A387" s="18">
         <v>6</v>
       </c>
@@ -62110,7 +62107,7 @@
         <v>734</v>
       </c>
       <c r="E495" s="105" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F495" s="105" t="s">
         <v>162</v>
@@ -62157,7 +62154,7 @@
         <v>734</v>
       </c>
       <c r="E496" s="105" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F496" s="105" t="s">
         <v>162</v>
@@ -62255,7 +62252,7 @@
         <v>734</v>
       </c>
       <c r="E498" s="105" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F498" s="105" t="s">
         <v>162</v>
@@ -62351,7 +62348,7 @@
         <v>734</v>
       </c>
       <c r="E500" s="105" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F500" s="105" t="s">
         <v>172</v>
@@ -62449,7 +62446,7 @@
         <v>734</v>
       </c>
       <c r="E502" s="105" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F502" s="106" t="s">
         <v>172</v>
@@ -62731,7 +62728,7 @@
         <v>751</v>
       </c>
       <c r="E508" s="105" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F508" s="105" t="s">
         <v>241</v>
@@ -63689,7 +63686,7 @@
         <v>734</v>
       </c>
       <c r="E528" s="105" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F528" s="105" t="s">
         <v>312</v>
@@ -63736,7 +63733,7 @@
         <v>734</v>
       </c>
       <c r="E529" s="105" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F529" s="105" t="s">
         <v>526</v>
@@ -64255,7 +64252,7 @@
         <v>734</v>
       </c>
       <c r="E540" s="105" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F540" s="105" t="s">
         <v>485</v>

--- a/AgImpacts_Raw_Data.xlsx
+++ b/AgImpacts_Raw_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anush\Documents\MIT\TerraELO\WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6C61E5-12B6-4C28-910F-BAB3D0F8DEAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEEE8C3-B7D6-4679-B669-C292B0E31E33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16780" windowHeight="5300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9734" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9444" uniqueCount="909">
   <si>
     <t>Variable Name</t>
   </si>
@@ -3506,10 +3506,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="[=0]0;0.000"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -3936,7 +3937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4199,9 +4200,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4215,6 +4213,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4871,11 +4875,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CZ687"/>
+  <dimension ref="A1:CZ686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H540" sqref="E495:H540"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A672" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P608" sqref="P608:P686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -5309,7 +5313,7 @@
       </c>
       <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="1:104" ht="29" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:104" ht="29" outlineLevel="1">
       <c r="B4" s="10" t="s">
         <v>149</v>
       </c>
@@ -5581,7 +5585,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:104" outlineLevel="1">
       <c r="B5" s="10" t="s">
         <v>155</v>
       </c>
@@ -5853,7 +5857,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:104" outlineLevel="1">
       <c r="B6" s="10" t="s">
         <v>158</v>
       </c>
@@ -5917,11 +5921,11 @@
       <c r="AD6" s="65">
         <v>0.4</v>
       </c>
-      <c r="AE6" s="104">
+      <c r="AE6" s="109">
         <v>0.6</v>
       </c>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
+      <c r="AF6" s="109"/>
+      <c r="AG6" s="109"/>
       <c r="AH6" s="67">
         <v>0.09</v>
       </c>
@@ -6109,7 +6113,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:104" ht="29" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:104" ht="29" outlineLevel="1">
       <c r="B7" s="10" t="s">
         <v>160</v>
       </c>
@@ -6381,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:104" ht="29" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:104" ht="29" outlineLevel="1">
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:104" outlineLevel="1">
       <c r="B9" s="10" t="s">
         <v>165</v>
       </c>
@@ -6925,7 +6929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:104" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="10" spans="1:104" ht="43.5" outlineLevel="1">
       <c r="B10" s="10" t="s">
         <v>149</v>
       </c>
@@ -7197,7 +7201,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:104" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="11" spans="1:104" ht="43.5" outlineLevel="1">
       <c r="B11" s="10" t="s">
         <v>170</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:104" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="12" spans="1:104" ht="43.5" outlineLevel="1">
       <c r="B12" s="10" t="s">
         <v>170</v>
       </c>
@@ -7741,7 +7745,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="13" spans="1:104" outlineLevel="1">
       <c r="B13" s="10" t="s">
         <v>155</v>
       </c>
@@ -8013,7 +8017,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="14" spans="1:104" outlineLevel="1">
       <c r="B14" s="10" t="s">
         <v>175</v>
       </c>
@@ -8285,7 +8289,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:104" ht="29" hidden="1" outlineLevel="1">
+    <row r="15" spans="1:104" ht="29" outlineLevel="1">
       <c r="B15" s="10" t="s">
         <v>149</v>
       </c>
@@ -8557,7 +8561,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:104" ht="29" hidden="1" outlineLevel="1">
+    <row r="16" spans="1:104" ht="29" outlineLevel="1">
       <c r="B16" s="10" t="s">
         <v>149</v>
       </c>
@@ -8829,7 +8833,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="17" spans="1:99" ht="29" outlineLevel="1">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
         <v>149</v>
@@ -9103,7 +9107,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="18" spans="1:99" ht="43.5" outlineLevel="1">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
         <v>179</v>
@@ -9377,7 +9381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:99" hidden="1" outlineLevel="1">
+    <row r="19" spans="1:99" outlineLevel="1">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
         <v>183</v>
@@ -9651,7 +9655,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:99" hidden="1" outlineLevel="1">
+    <row r="20" spans="1:99" outlineLevel="1">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
         <v>183</v>
@@ -9925,7 +9929,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="21" spans="1:99" ht="43.5" outlineLevel="1">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
         <v>186</v>
@@ -10199,7 +10203,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="22" spans="1:99" ht="43.5" outlineLevel="1">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
         <v>186</v>
@@ -10473,7 +10477,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="23" spans="1:99" ht="29" outlineLevel="1">
       <c r="A23" s="9"/>
       <c r="B23" s="10" t="s">
         <v>149</v>
@@ -10747,7 +10751,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="24" spans="1:99" ht="29" outlineLevel="1">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
         <v>192</v>
@@ -11021,7 +11025,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="25" spans="1:99" ht="29" outlineLevel="1">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
         <v>192</v>
@@ -11295,7 +11299,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:99" hidden="1" outlineLevel="1">
+    <row r="26" spans="1:99" outlineLevel="1">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
         <v>197</v>
@@ -11569,7 +11573,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:99" ht="58" hidden="1" outlineLevel="1">
+    <row r="27" spans="1:99" ht="58" outlineLevel="1">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
         <v>198</v>
@@ -11843,7 +11847,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="28" spans="1:99" hidden="1" outlineLevel="1">
+    <row r="28" spans="1:99" outlineLevel="1">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
         <v>155</v>
@@ -12117,7 +12121,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:99" ht="58" hidden="1" outlineLevel="1">
+    <row r="29" spans="1:99" ht="58" outlineLevel="1">
       <c r="A29" s="9"/>
       <c r="B29" s="10" t="s">
         <v>203</v>
@@ -12391,7 +12395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:99" ht="58" hidden="1" outlineLevel="1">
+    <row r="30" spans="1:99" ht="58" outlineLevel="1">
       <c r="A30" s="9"/>
       <c r="B30" s="10" t="s">
         <v>203</v>
@@ -12665,7 +12669,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="31" spans="1:99" hidden="1" outlineLevel="1">
+    <row r="31" spans="1:99" outlineLevel="1">
       <c r="A31" s="9"/>
       <c r="B31" s="10" t="s">
         <v>207</v>
@@ -12939,7 +12943,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="32" spans="1:99" ht="29" outlineLevel="1">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
         <v>208</v>
@@ -13213,7 +13217,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="33" spans="1:99" ht="43.5" outlineLevel="1">
       <c r="A33" s="9"/>
       <c r="B33" s="10" t="s">
         <v>210</v>
@@ -13487,7 +13491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="34" spans="1:99" ht="43.5" outlineLevel="1">
       <c r="A34" s="9"/>
       <c r="B34" s="10" t="s">
         <v>210</v>
@@ -13761,7 +13765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="35" spans="1:99" ht="43.5" outlineLevel="1">
       <c r="A35" s="9"/>
       <c r="B35" s="10" t="s">
         <v>210</v>
@@ -14035,7 +14039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="36" spans="1:99" ht="43.5" outlineLevel="1">
       <c r="A36" s="9"/>
       <c r="B36" s="10" t="s">
         <v>210</v>
@@ -14309,7 +14313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="37" spans="1:99" ht="43.5" outlineLevel="1">
       <c r="A37" s="9"/>
       <c r="B37" s="10" t="s">
         <v>210</v>
@@ -14583,7 +14587,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="38" spans="1:99" ht="43.5" outlineLevel="1">
       <c r="A38" s="9"/>
       <c r="B38" s="10" t="s">
         <v>210</v>
@@ -14857,7 +14861,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:99" hidden="1" outlineLevel="1">
+    <row r="39" spans="1:99" outlineLevel="1">
       <c r="A39" s="9"/>
       <c r="B39" s="10" t="s">
         <v>217</v>
@@ -15131,7 +15135,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="40" spans="1:99" ht="43.5" outlineLevel="1">
       <c r="A40" s="9"/>
       <c r="B40" s="10" t="s">
         <v>218</v>
@@ -15405,7 +15409,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="41" spans="1:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="41" spans="1:99" ht="43.5" outlineLevel="1">
       <c r="A41" s="9"/>
       <c r="B41" s="10" t="s">
         <v>218</v>
@@ -15679,7 +15683,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="42" spans="1:99" ht="58" hidden="1" outlineLevel="1">
+    <row r="42" spans="1:99" ht="58" outlineLevel="1">
       <c r="A42" s="9"/>
       <c r="B42" s="10" t="s">
         <v>218</v>
@@ -15953,7 +15957,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="43" spans="1:99" ht="72.5" hidden="1" outlineLevel="1">
+    <row r="43" spans="1:99" ht="72.5" outlineLevel="1">
       <c r="A43" s="9"/>
       <c r="B43" s="10" t="s">
         <v>218</v>
@@ -16227,7 +16231,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="44" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="44" spans="1:99" ht="29" outlineLevel="1">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
         <v>149</v>
@@ -16501,7 +16505,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="45" spans="1:99" ht="29" outlineLevel="1">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
         <v>149</v>
@@ -16775,7 +16779,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="46" spans="1:99" ht="29" outlineLevel="1">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>149</v>
@@ -17049,7 +17053,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:99" ht="72.5" hidden="1" outlineLevel="1">
+    <row r="47" spans="1:99" ht="72.5" outlineLevel="1">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
         <v>229</v>
@@ -17323,7 +17327,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:99" hidden="1" outlineLevel="1">
+    <row r="48" spans="1:99" outlineLevel="1">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
         <v>232</v>
@@ -17597,7 +17601,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="49" spans="1:99" ht="29" outlineLevel="1">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
         <v>149</v>
@@ -17871,7 +17875,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="50" spans="1:99" ht="29" outlineLevel="1">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
         <v>149</v>
@@ -18145,7 +18149,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="51" spans="1:99" ht="29" outlineLevel="1">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
         <v>149</v>
@@ -18419,7 +18423,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:99" hidden="1" outlineLevel="1">
+    <row r="52" spans="1:99" outlineLevel="1">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
         <v>155</v>
@@ -18693,7 +18697,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="53" spans="1:99" ht="43.5" outlineLevel="1">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
         <v>239</v>
@@ -18741,10 +18745,10 @@
       <c r="Q53" s="103">
         <v>913</v>
       </c>
-      <c r="Y53" s="104">
+      <c r="Y53" s="109">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z53" s="104"/>
+      <c r="Z53" s="109"/>
       <c r="AA53" s="65">
         <v>0</v>
       </c>
@@ -18965,7 +18969,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="54" spans="1:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="54" spans="1:99" ht="43.5" outlineLevel="1">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
         <v>239</v>
@@ -19013,10 +19017,10 @@
       <c r="Q54" s="103">
         <v>983</v>
       </c>
-      <c r="Y54" s="104">
+      <c r="Y54" s="109">
         <v>1.2</v>
       </c>
-      <c r="Z54" s="104"/>
+      <c r="Z54" s="109"/>
       <c r="AA54" s="65">
         <v>0.1</v>
       </c>
@@ -19237,7 +19241,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="55" spans="1:99" hidden="1" outlineLevel="1">
+    <row r="55" spans="1:99" outlineLevel="1">
       <c r="A55" s="9"/>
       <c r="B55" s="10" t="s">
         <v>245</v>
@@ -19285,10 +19289,10 @@
       <c r="Q55" s="103">
         <v>813</v>
       </c>
-      <c r="Y55" s="104">
+      <c r="Y55" s="109">
         <v>1.4</v>
       </c>
-      <c r="Z55" s="104"/>
+      <c r="Z55" s="109"/>
       <c r="AA55" s="65">
         <v>0.1</v>
       </c>
@@ -19509,7 +19513,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:99" ht="87" hidden="1" outlineLevel="1">
+    <row r="56" spans="1:99" ht="87" outlineLevel="1">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="s">
         <v>247</v>
@@ -19557,10 +19561,10 @@
       <c r="Q56" s="103">
         <v>794</v>
       </c>
-      <c r="Y56" s="104">
+      <c r="Y56" s="109">
         <v>1.4</v>
       </c>
-      <c r="Z56" s="104"/>
+      <c r="Z56" s="109"/>
       <c r="AA56" s="65">
         <v>0.2</v>
       </c>
@@ -19775,7 +19779,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="57" spans="1:99" ht="29" outlineLevel="1">
       <c r="A57" s="9"/>
       <c r="B57" s="10" t="s">
         <v>247</v>
@@ -19823,10 +19827,10 @@
       <c r="Q57" s="63">
         <v>2069</v>
       </c>
-      <c r="Y57" s="104">
+      <c r="Y57" s="109">
         <v>1.4</v>
       </c>
-      <c r="Z57" s="104"/>
+      <c r="Z57" s="109"/>
       <c r="AA57" s="65">
         <v>0.2</v>
       </c>
@@ -20041,7 +20045,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="58" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="58" spans="1:99" ht="29" outlineLevel="1">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
         <v>247</v>
@@ -20089,10 +20093,10 @@
       <c r="Q58" s="63">
         <v>1385</v>
       </c>
-      <c r="Y58" s="104">
+      <c r="Y58" s="109">
         <v>1.5</v>
       </c>
-      <c r="Z58" s="104"/>
+      <c r="Z58" s="109"/>
       <c r="AA58" s="65">
         <v>0</v>
       </c>
@@ -20307,7 +20311,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="59" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="59" spans="1:99" ht="29" outlineLevel="1">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
         <v>247</v>
@@ -20355,10 +20359,10 @@
       <c r="Q59" s="103">
         <v>660</v>
       </c>
-      <c r="Y59" s="104">
+      <c r="Y59" s="109">
         <v>1.5</v>
       </c>
-      <c r="Z59" s="104"/>
+      <c r="Z59" s="109"/>
       <c r="AA59" s="65">
         <v>0.5</v>
       </c>
@@ -20573,7 +20577,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="60" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="60" spans="1:99" ht="29" outlineLevel="1">
       <c r="B60" s="10" t="s">
         <v>247</v>
       </c>
@@ -20619,10 +20623,10 @@
       <c r="Q60" s="103">
         <v>723</v>
       </c>
-      <c r="Y60" s="104">
+      <c r="Y60" s="109">
         <v>1.4</v>
       </c>
-      <c r="Z60" s="104"/>
+      <c r="Z60" s="109"/>
       <c r="AA60" s="65">
         <v>0</v>
       </c>
@@ -20837,7 +20841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:99" ht="72.5" hidden="1" outlineLevel="1">
+    <row r="61" spans="1:99" ht="72.5" outlineLevel="1">
       <c r="B61" s="10" t="s">
         <v>247</v>
       </c>
@@ -20883,10 +20887,10 @@
       <c r="Q61" s="103">
         <v>0</v>
       </c>
-      <c r="Y61" s="104">
+      <c r="Y61" s="109">
         <v>1.6</v>
       </c>
-      <c r="Z61" s="104"/>
+      <c r="Z61" s="109"/>
       <c r="AA61" s="65">
         <v>0.7</v>
       </c>
@@ -21101,7 +21105,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="62" spans="1:99" ht="29" outlineLevel="1">
       <c r="B62" s="10" t="s">
         <v>258</v>
       </c>
@@ -21147,10 +21151,10 @@
       <c r="Q62" s="103">
         <v>0</v>
       </c>
-      <c r="Y62" s="104">
+      <c r="Y62" s="109">
         <v>1.4</v>
       </c>
-      <c r="Z62" s="104"/>
+      <c r="Z62" s="109"/>
       <c r="AA62" s="65">
         <v>0.1</v>
       </c>
@@ -21371,7 +21375,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="63" spans="1:99" ht="29" outlineLevel="1">
       <c r="B63" s="10" t="s">
         <v>261</v>
       </c>
@@ -21643,7 +21647,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="64" spans="1:99" hidden="1" outlineLevel="1">
+    <row r="64" spans="1:99" outlineLevel="1">
       <c r="B64" s="10" t="s">
         <v>175</v>
       </c>
@@ -21915,7 +21919,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="65" spans="2:99" ht="29" outlineLevel="1">
       <c r="B65" s="10" t="s">
         <v>149</v>
       </c>
@@ -22187,7 +22191,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="2:99" hidden="1" outlineLevel="1">
+    <row r="66" spans="2:99" outlineLevel="1">
       <c r="B66" s="10" t="s">
         <v>175</v>
       </c>
@@ -22459,7 +22463,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="2:99" hidden="1" outlineLevel="1">
+    <row r="67" spans="2:99" outlineLevel="1">
       <c r="B67" s="10" t="s">
         <v>175</v>
       </c>
@@ -22731,7 +22735,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="2:99" hidden="1" outlineLevel="1">
+    <row r="68" spans="2:99" outlineLevel="1">
       <c r="B68" s="10" t="s">
         <v>155</v>
       </c>
@@ -23003,7 +23007,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="69" spans="2:99" ht="29" outlineLevel="1">
       <c r="B69" s="10" t="s">
         <v>149</v>
       </c>
@@ -23275,7 +23279,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="70" spans="2:99" ht="29" outlineLevel="1">
       <c r="B70" s="10" t="s">
         <v>268</v>
       </c>
@@ -23547,7 +23551,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="71" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="71" spans="2:99" ht="29" outlineLevel="1">
       <c r="B71" s="10" t="s">
         <v>272</v>
       </c>
@@ -23819,7 +23823,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="72" spans="2:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="72" spans="2:99" ht="43.5" outlineLevel="1">
       <c r="B72" s="10" t="s">
         <v>276</v>
       </c>
@@ -24091,7 +24095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="73" spans="2:99" ht="29" outlineLevel="1">
       <c r="B73" s="10" t="s">
         <v>276</v>
       </c>
@@ -24363,7 +24367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="74" spans="2:99" ht="29" outlineLevel="1">
       <c r="B74" s="10" t="s">
         <v>276</v>
       </c>
@@ -24635,7 +24639,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="75" spans="2:99" ht="29" outlineLevel="1">
       <c r="B75" s="10" t="s">
         <v>276</v>
       </c>
@@ -24907,7 +24911,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="76" spans="2:99" ht="29" outlineLevel="1">
       <c r="B76" s="10" t="s">
         <v>276</v>
       </c>
@@ -25179,7 +25183,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="77" spans="2:99" ht="29" outlineLevel="1">
       <c r="B77" s="10" t="s">
         <v>149</v>
       </c>
@@ -25451,7 +25455,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="78" spans="2:99" ht="29" outlineLevel="1">
       <c r="B78" s="10" t="s">
         <v>149</v>
       </c>
@@ -25723,7 +25727,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="79" spans="2:99" ht="29" outlineLevel="1">
       <c r="B79" s="10" t="s">
         <v>149</v>
       </c>
@@ -25995,7 +25999,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="80" spans="2:99" ht="29" outlineLevel="1">
       <c r="B80" s="10" t="s">
         <v>149</v>
       </c>
@@ -26267,7 +26271,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="81" spans="2:99" ht="29" outlineLevel="1">
       <c r="B81" s="10" t="s">
         <v>149</v>
       </c>
@@ -26539,7 +26543,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="2:99" ht="58" hidden="1" outlineLevel="1">
+    <row r="82" spans="2:99" ht="58" outlineLevel="1">
       <c r="B82" s="10" t="s">
         <v>289</v>
       </c>
@@ -26811,7 +26815,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="83" spans="2:99" ht="87" hidden="1" outlineLevel="1">
+    <row r="83" spans="2:99" ht="87" outlineLevel="1">
       <c r="B83" s="10" t="s">
         <v>289</v>
       </c>
@@ -27083,7 +27087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:99" hidden="1" outlineLevel="1">
+    <row r="84" spans="2:99" outlineLevel="1">
       <c r="B84" s="10" t="s">
         <v>155</v>
       </c>
@@ -27355,7 +27359,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="85" spans="2:99" ht="29" outlineLevel="1">
       <c r="B85" s="10" t="s">
         <v>149</v>
       </c>
@@ -27627,7 +27631,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="86" spans="2:99" ht="29" outlineLevel="1">
       <c r="B86" s="10" t="s">
         <v>149</v>
       </c>
@@ -27899,7 +27903,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="87" spans="2:99" ht="29" outlineLevel="1">
       <c r="B87" s="10" t="s">
         <v>149</v>
       </c>
@@ -28171,7 +28175,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="2:99" hidden="1" outlineLevel="1">
+    <row r="88" spans="2:99" outlineLevel="1">
       <c r="B88" s="10" t="s">
         <v>155</v>
       </c>
@@ -28443,7 +28447,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="89" spans="2:99" ht="29" outlineLevel="1">
       <c r="B89" s="10" t="s">
         <v>149</v>
       </c>
@@ -28715,7 +28719,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="2:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="90" spans="2:99" ht="43.5" outlineLevel="1">
       <c r="B90" s="10" t="s">
         <v>299</v>
       </c>
@@ -28987,7 +28991,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="91" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="91" spans="2:99" ht="29" outlineLevel="1">
       <c r="B91" s="10" t="s">
         <v>149</v>
       </c>
@@ -29259,7 +29263,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="92" spans="2:99" ht="29" outlineLevel="1">
       <c r="B92" s="10" t="s">
         <v>149</v>
       </c>
@@ -29531,7 +29535,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="2:99" hidden="1" outlineLevel="1">
+    <row r="93" spans="2:99" outlineLevel="1">
       <c r="B93" s="10" t="s">
         <v>158</v>
       </c>
@@ -29595,11 +29599,11 @@
       <c r="AD93" s="65">
         <v>0</v>
       </c>
-      <c r="AE93" s="104">
+      <c r="AE93" s="109">
         <v>0.5</v>
       </c>
-      <c r="AF93" s="104"/>
-      <c r="AG93" s="104"/>
+      <c r="AF93" s="109"/>
+      <c r="AG93" s="109"/>
       <c r="AH93" s="67">
         <v>0.09</v>
       </c>
@@ -29787,7 +29791,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="94" spans="2:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="94" spans="2:99" ht="43.5" outlineLevel="1">
       <c r="B94" s="10" t="s">
         <v>158</v>
       </c>
@@ -29851,11 +29855,11 @@
       <c r="AD94" s="65">
         <v>0</v>
       </c>
-      <c r="AE94" s="104">
+      <c r="AE94" s="109">
         <v>0.6</v>
       </c>
-      <c r="AF94" s="104"/>
-      <c r="AG94" s="104"/>
+      <c r="AF94" s="109"/>
+      <c r="AG94" s="109"/>
       <c r="AH94" s="67">
         <v>0.09</v>
       </c>
@@ -30043,7 +30047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="2:99" hidden="1" outlineLevel="1">
+    <row r="95" spans="2:99" outlineLevel="1">
       <c r="B95" s="10" t="s">
         <v>158</v>
       </c>
@@ -30107,11 +30111,11 @@
       <c r="AD95" s="65">
         <v>0</v>
       </c>
-      <c r="AE95" s="104">
+      <c r="AE95" s="109">
         <v>0.5</v>
       </c>
-      <c r="AF95" s="104"/>
-      <c r="AG95" s="104"/>
+      <c r="AF95" s="109"/>
+      <c r="AG95" s="109"/>
       <c r="AH95" s="67">
         <v>0.09</v>
       </c>
@@ -30299,7 +30303,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="2:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="96" spans="2:99" ht="43.5" outlineLevel="1">
       <c r="B96" s="10" t="s">
         <v>158</v>
       </c>
@@ -30571,7 +30575,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="2:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="97" spans="2:99" ht="43.5" outlineLevel="1">
       <c r="B97" s="10" t="s">
         <v>158</v>
       </c>
@@ -30843,7 +30847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="98" spans="2:99" ht="29" outlineLevel="1">
       <c r="B98" s="10" t="s">
         <v>149</v>
       </c>
@@ -31115,7 +31119,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="99" spans="2:99" ht="29" outlineLevel="1">
       <c r="B99" s="10" t="s">
         <v>149</v>
       </c>
@@ -31387,7 +31391,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="100" spans="2:99" ht="29" outlineLevel="1">
       <c r="B100" s="10" t="s">
         <v>149</v>
       </c>
@@ -31659,7 +31663,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="101" spans="2:99" ht="29" outlineLevel="1">
       <c r="B101" s="10" t="s">
         <v>149</v>
       </c>
@@ -31931,7 +31935,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="102" spans="2:99" ht="29" outlineLevel="1">
       <c r="B102" s="10" t="s">
         <v>149</v>
       </c>
@@ -32203,7 +32207,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="103" spans="2:99" ht="29" outlineLevel="1">
       <c r="B103" s="10" t="s">
         <v>149</v>
       </c>
@@ -32475,7 +32479,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="104" spans="2:99" ht="29" outlineLevel="1">
       <c r="B104" s="10" t="s">
         <v>149</v>
       </c>
@@ -32747,7 +32751,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="105" spans="2:99" ht="29" outlineLevel="1">
       <c r="B105" s="10" t="s">
         <v>149</v>
       </c>
@@ -33019,7 +33023,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="106" spans="2:99" ht="29" outlineLevel="1">
       <c r="B106" s="10" t="s">
         <v>149</v>
       </c>
@@ -33291,7 +33295,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="107" spans="2:99" ht="29" outlineLevel="1">
       <c r="B107" s="10" t="s">
         <v>149</v>
       </c>
@@ -33563,7 +33567,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="108" spans="2:99" hidden="1" outlineLevel="1">
+    <row r="108" spans="2:99" outlineLevel="1">
       <c r="B108" s="10" t="s">
         <v>155</v>
       </c>
@@ -33835,7 +33839,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="109" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="109" spans="2:99" ht="29" outlineLevel="1">
       <c r="B109" s="10" t="s">
         <v>149</v>
       </c>
@@ -34107,7 +34111,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="110" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="110" spans="2:99" ht="29" outlineLevel="1">
       <c r="B110" s="11" t="s">
         <v>321</v>
       </c>
@@ -34153,10 +34157,10 @@
       <c r="Q110" s="103">
         <v>0</v>
       </c>
-      <c r="Y110" s="104">
+      <c r="Y110" s="109">
         <v>1.4</v>
       </c>
-      <c r="Z110" s="104"/>
+      <c r="Z110" s="109"/>
       <c r="AA110" s="65">
         <v>0.1</v>
       </c>
@@ -34377,7 +34381,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="111" spans="2:99" ht="29" outlineLevel="1">
       <c r="B111" s="11" t="s">
         <v>321</v>
       </c>
@@ -34423,10 +34427,10 @@
       <c r="Q111" s="103">
         <v>0</v>
       </c>
-      <c r="Y111" s="104">
+      <c r="Y111" s="109">
         <v>1.6</v>
       </c>
-      <c r="Z111" s="104"/>
+      <c r="Z111" s="109"/>
       <c r="AA111" s="65">
         <v>0.1</v>
       </c>
@@ -34647,7 +34651,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="2:99" hidden="1" outlineLevel="1">
+    <row r="112" spans="2:99" outlineLevel="1">
       <c r="B112" s="11" t="s">
         <v>321</v>
       </c>
@@ -34693,10 +34697,10 @@
       <c r="Q112" s="103">
         <v>0</v>
       </c>
-      <c r="Y112" s="104">
+      <c r="Y112" s="109">
         <v>1.7</v>
       </c>
-      <c r="Z112" s="104"/>
+      <c r="Z112" s="109"/>
       <c r="AA112" s="65">
         <v>0.1</v>
       </c>
@@ -34917,7 +34921,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="113" spans="2:99" ht="29" outlineLevel="1">
       <c r="B113" s="11" t="s">
         <v>321</v>
       </c>
@@ -34963,10 +34967,10 @@
       <c r="Q113" s="103">
         <v>0</v>
       </c>
-      <c r="Y113" s="104">
+      <c r="Y113" s="109">
         <v>1.3</v>
       </c>
-      <c r="Z113" s="104"/>
+      <c r="Z113" s="109"/>
       <c r="AA113" s="65">
         <v>0.1</v>
       </c>
@@ -35187,7 +35191,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="114" spans="2:99" ht="29" outlineLevel="1">
       <c r="B114" s="11" t="s">
         <v>321</v>
       </c>
@@ -35233,10 +35237,10 @@
       <c r="Q114" s="103">
         <v>0</v>
       </c>
-      <c r="Y114" s="104">
+      <c r="Y114" s="109">
         <v>1.6</v>
       </c>
-      <c r="Z114" s="104"/>
+      <c r="Z114" s="109"/>
       <c r="AA114" s="65">
         <v>0.1</v>
       </c>
@@ -35457,7 +35461,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="115" spans="2:99" ht="29" outlineLevel="1">
       <c r="B115" s="10" t="s">
         <v>149</v>
       </c>
@@ -35729,7 +35733,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="116" spans="2:99" ht="58" hidden="1" outlineLevel="1">
+    <row r="116" spans="2:99" ht="58" outlineLevel="1">
       <c r="B116" s="10" t="s">
         <v>328</v>
       </c>
@@ -36001,7 +36005,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="117" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="117" spans="2:99" ht="29" outlineLevel="1">
       <c r="B117" s="10" t="s">
         <v>149</v>
       </c>
@@ -36273,7 +36277,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="118" spans="2:99" ht="29" outlineLevel="1">
       <c r="B118" s="10" t="s">
         <v>149</v>
       </c>
@@ -36545,7 +36549,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="119" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="119" spans="2:99" ht="29" outlineLevel="1">
       <c r="B119" s="10" t="s">
         <v>149</v>
       </c>
@@ -36817,7 +36821,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="2:99" hidden="1" outlineLevel="1">
+    <row r="120" spans="2:99" outlineLevel="1">
       <c r="B120" s="10" t="s">
         <v>335</v>
       </c>
@@ -36863,10 +36867,10 @@
       <c r="Q120" s="103">
         <v>0</v>
       </c>
-      <c r="Y120" s="104">
+      <c r="Y120" s="109">
         <v>1.6</v>
       </c>
-      <c r="Z120" s="104"/>
+      <c r="Z120" s="109"/>
       <c r="AA120" s="65">
         <v>0.2</v>
       </c>
@@ -37087,7 +37091,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="2:99" hidden="1" outlineLevel="1">
+    <row r="121" spans="2:99" outlineLevel="1">
       <c r="B121" s="10" t="s">
         <v>335</v>
       </c>
@@ -37133,10 +37137,10 @@
       <c r="Q121" s="103">
         <v>0</v>
       </c>
-      <c r="Y121" s="104">
+      <c r="Y121" s="109">
         <v>4.5</v>
       </c>
-      <c r="Z121" s="104"/>
+      <c r="Z121" s="109"/>
       <c r="AA121" s="65">
         <v>0.5</v>
       </c>
@@ -37357,7 +37361,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="2:99" hidden="1" outlineLevel="1">
+    <row r="122" spans="2:99" outlineLevel="1">
       <c r="B122" s="10" t="s">
         <v>337</v>
       </c>
@@ -37629,7 +37633,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="123" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="123" spans="2:99" ht="29" outlineLevel="1">
       <c r="B123" s="10" t="s">
         <v>149</v>
       </c>
@@ -37901,7 +37905,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="124" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="124" spans="2:99" ht="29" outlineLevel="1">
       <c r="B124" s="10" t="s">
         <v>155</v>
       </c>
@@ -38173,7 +38177,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="125" spans="2:99" ht="101.5" hidden="1" outlineLevel="1">
+    <row r="125" spans="2:99" ht="101.5" outlineLevel="1">
       <c r="B125" s="10" t="s">
         <v>339</v>
       </c>
@@ -38219,10 +38223,10 @@
       <c r="Q125" s="103">
         <v>0</v>
       </c>
-      <c r="Y125" s="104">
+      <c r="Y125" s="109">
         <v>4.8</v>
       </c>
-      <c r="Z125" s="104"/>
+      <c r="Z125" s="109"/>
       <c r="AA125" s="65">
         <v>0.5</v>
       </c>
@@ -38443,7 +38447,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="2:99" ht="101.5" hidden="1" outlineLevel="1">
+    <row r="126" spans="2:99" ht="101.5" outlineLevel="1">
       <c r="B126" s="10" t="s">
         <v>339</v>
       </c>
@@ -38489,10 +38493,10 @@
       <c r="Q126" s="103">
         <v>0</v>
       </c>
-      <c r="Y126" s="104">
+      <c r="Y126" s="109">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z126" s="104"/>
+      <c r="Z126" s="109"/>
       <c r="AA126" s="65">
         <v>0.5</v>
       </c>
@@ -38713,7 +38717,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="2:99" ht="101.5" hidden="1" outlineLevel="1">
+    <row r="127" spans="2:99" ht="101.5" outlineLevel="1">
       <c r="B127" s="10" t="s">
         <v>339</v>
       </c>
@@ -38759,10 +38763,10 @@
       <c r="Q127" s="103">
         <v>0</v>
       </c>
-      <c r="Y127" s="104">
+      <c r="Y127" s="109">
         <v>2.6</v>
       </c>
-      <c r="Z127" s="104"/>
+      <c r="Z127" s="109"/>
       <c r="AA127" s="65">
         <v>0.3</v>
       </c>
@@ -38983,7 +38987,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="2:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="128" spans="2:99" ht="43.5" outlineLevel="1">
       <c r="B128" s="10" t="s">
         <v>344</v>
       </c>
@@ -39255,7 +39259,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="2:99" ht="58" hidden="1" outlineLevel="1">
+    <row r="129" spans="2:99" ht="58" outlineLevel="1">
       <c r="B129" s="10" t="s">
         <v>344</v>
       </c>
@@ -39527,7 +39531,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="130" spans="2:99" ht="87" hidden="1" outlineLevel="1">
+    <row r="130" spans="2:99" ht="87" outlineLevel="1">
       <c r="B130" s="10" t="s">
         <v>344</v>
       </c>
@@ -39799,7 +39803,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="131" spans="2:99" ht="72.5" hidden="1" outlineLevel="1">
+    <row r="131" spans="2:99" ht="72.5" outlineLevel="1">
       <c r="B131" s="10" t="s">
         <v>344</v>
       </c>
@@ -40071,7 +40075,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="2:99" ht="101.5" hidden="1" outlineLevel="1">
+    <row r="132" spans="2:99" ht="101.5" outlineLevel="1">
       <c r="B132" s="10" t="s">
         <v>351</v>
       </c>
@@ -40343,7 +40347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:99" ht="87" hidden="1" outlineLevel="1">
+    <row r="133" spans="2:99" ht="87" outlineLevel="1">
       <c r="B133" s="10" t="s">
         <v>351</v>
       </c>
@@ -40615,7 +40619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="134" spans="2:99" ht="29" outlineLevel="1">
       <c r="B134" s="10" t="s">
         <v>356</v>
       </c>
@@ -40887,7 +40891,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="135" spans="2:99" ht="87" hidden="1" outlineLevel="1">
+    <row r="135" spans="2:99" ht="87" outlineLevel="1">
       <c r="B135" s="10" t="s">
         <v>358</v>
       </c>
@@ -41159,7 +41163,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="136" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="136" spans="2:99" ht="29" outlineLevel="1">
       <c r="B136" s="10" t="s">
         <v>155</v>
       </c>
@@ -41431,7 +41435,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="2:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="137" spans="2:99" ht="29" outlineLevel="1">
       <c r="B137" s="10" t="s">
         <v>360</v>
       </c>
@@ -41703,7 +41707,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="2:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="138" spans="2:99" ht="43.5" outlineLevel="1">
       <c r="B138" s="10" t="s">
         <v>361</v>
       </c>
@@ -41975,7 +41979,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="139" spans="2:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="139" spans="2:99" ht="43.5" outlineLevel="1">
       <c r="B139" s="10" t="s">
         <v>361</v>
       </c>
@@ -42247,7 +42251,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="140" spans="2:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="140" spans="2:99" ht="43.5" outlineLevel="1">
       <c r="B140" s="10" t="s">
         <v>361</v>
       </c>
@@ -42519,7 +42523,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="141" spans="2:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="141" spans="2:99" ht="43.5" outlineLevel="1">
       <c r="B141" s="10" t="s">
         <v>361</v>
       </c>
@@ -42791,7 +42795,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="142" spans="2:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="142" spans="2:99" ht="43.5" outlineLevel="1">
       <c r="B142" s="10" t="s">
         <v>361</v>
       </c>
@@ -43063,7 +43067,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="143" spans="2:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="143" spans="2:99" ht="43.5" outlineLevel="1">
       <c r="B143" s="10" t="s">
         <v>361</v>
       </c>
@@ -43335,7 +43339,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="144" spans="2:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="144" spans="2:99" ht="43.5" outlineLevel="1">
       <c r="B144" s="10" t="s">
         <v>361</v>
       </c>
@@ -43607,7 +43611,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="145" spans="1:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="145" spans="1:99" ht="43.5" outlineLevel="1">
       <c r="B145" s="10" t="s">
         <v>361</v>
       </c>
@@ -43879,7 +43883,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="146" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="146" spans="1:99" ht="29" outlineLevel="1">
       <c r="B146" s="10" t="s">
         <v>372</v>
       </c>
@@ -44151,7 +44155,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:99" ht="101.5" hidden="1" outlineLevel="1">
+    <row r="147" spans="1:99" ht="101.5" outlineLevel="1">
       <c r="B147" s="10" t="s">
         <v>373</v>
       </c>
@@ -44423,7 +44427,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="148" spans="1:99" ht="101.5" hidden="1" outlineLevel="1">
+    <row r="148" spans="1:99" ht="101.5" outlineLevel="1">
       <c r="B148" s="10" t="s">
         <v>373</v>
       </c>
@@ -44695,7 +44699,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:99" ht="101.5" hidden="1" outlineLevel="1">
+    <row r="149" spans="1:99" ht="101.5" outlineLevel="1">
       <c r="B149" s="10" t="s">
         <v>373</v>
       </c>
@@ -44967,7 +44971,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="1:99" ht="101.5" hidden="1" outlineLevel="1">
+    <row r="150" spans="1:99" ht="101.5" outlineLevel="1">
       <c r="B150" s="10" t="s">
         <v>373</v>
       </c>
@@ -45239,7 +45243,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="151" spans="1:99" ht="29" outlineLevel="1">
       <c r="B151" s="10" t="s">
         <v>175</v>
       </c>
@@ -45511,7 +45515,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="152" spans="1:99" ht="29" outlineLevel="1">
       <c r="B152" s="10" t="s">
         <v>149</v>
       </c>
@@ -45783,7 +45787,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:99" ht="43.5" hidden="1" outlineLevel="1">
+    <row r="153" spans="1:99" ht="43.5" outlineLevel="1">
       <c r="B153" s="10" t="s">
         <v>149</v>
       </c>
@@ -46055,7 +46059,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="154" spans="1:99" ht="29" outlineLevel="1">
       <c r="B154" s="10" t="s">
         <v>149</v>
       </c>
@@ -46327,7 +46331,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="1:99" ht="29" hidden="1" outlineLevel="1">
+    <row r="155" spans="1:99" ht="29" outlineLevel="1">
       <c r="B155" s="10" t="s">
         <v>149</v>
       </c>
@@ -46599,7 +46603,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="1:99" s="18" customFormat="1" collapsed="1">
+    <row r="156" spans="1:99" s="18" customFormat="1">
       <c r="A156" s="18">
         <v>2</v>
       </c>
@@ -54852,6 +54856,12 @@
       <c r="L332" s="103">
         <v>4.7272215790000001</v>
       </c>
+      <c r="M332" s="110">
+        <v>5.2733166743245789E-2</v>
+      </c>
+      <c r="N332">
+        <v>4.1134309437803447E-2</v>
+      </c>
       <c r="O332" s="103">
         <v>8.3956951909999997</v>
       </c>
@@ -54888,6 +54898,12 @@
       <c r="L333" s="103">
         <v>7.3698298009999998</v>
       </c>
+      <c r="M333" s="110">
+        <v>6.9969314966612864E-2</v>
+      </c>
+      <c r="N333">
+        <v>4.5552102487212906E-2</v>
+      </c>
       <c r="O333" s="103">
         <v>11.87623247</v>
       </c>
@@ -54924,6 +54940,12 @@
       <c r="L334" s="103">
         <v>15.63563381</v>
       </c>
+      <c r="M334" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N334" t="s">
+        <v>151</v>
+      </c>
       <c r="O334" s="103">
         <v>15.84131518</v>
       </c>
@@ -54960,6 +54982,12 @@
       <c r="L335" s="103">
         <v>9.8507274060000007</v>
       </c>
+      <c r="M335" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N335" t="s">
+        <v>151</v>
+      </c>
       <c r="O335" s="103">
         <v>20.449086260000001</v>
       </c>
@@ -54996,6 +55024,12 @@
       <c r="L336" s="103">
         <v>11.391451099999999</v>
       </c>
+      <c r="M336" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N336" t="s">
+        <v>151</v>
+      </c>
       <c r="O336" s="103">
         <v>20.89266731</v>
       </c>
@@ -55032,6 +55066,12 @@
       <c r="L337" s="103">
         <v>7.116595877</v>
       </c>
+      <c r="M337" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N337" t="s">
+        <v>151</v>
+      </c>
       <c r="O337" s="103">
         <v>23.009009389999999</v>
       </c>
@@ -55068,6 +55108,12 @@
       <c r="L338" s="103">
         <v>7.2999221480000003</v>
       </c>
+      <c r="M338" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N338" t="s">
+        <v>151</v>
+      </c>
       <c r="O338" s="103">
         <v>21.327287779999999</v>
       </c>
@@ -55104,6 +55150,12 @@
       <c r="L339" s="103">
         <v>7.5910880670000003</v>
       </c>
+      <c r="M339" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N339" t="s">
+        <v>151</v>
+      </c>
       <c r="O339" s="103">
         <v>16.221133600000002</v>
       </c>
@@ -55140,6 +55192,12 @@
       <c r="L340" s="103">
         <v>7.3327835820000002</v>
       </c>
+      <c r="M340" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N340" t="s">
+        <v>151</v>
+      </c>
       <c r="O340" s="103">
         <v>13.955464389999999</v>
       </c>
@@ -55176,6 +55234,12 @@
       <c r="L341" s="103">
         <v>6.1013049710000002</v>
       </c>
+      <c r="M341" s="110">
+        <v>3.335126396093549E-2</v>
+      </c>
+      <c r="N341">
+        <v>0.19238892763533821</v>
+      </c>
       <c r="O341" s="103">
         <v>22.067078070000001</v>
       </c>
@@ -55212,6 +55276,12 @@
       <c r="L342" s="103">
         <v>7.1268176560000001</v>
       </c>
+      <c r="M342" s="110">
+        <v>0.1271124152309239</v>
+      </c>
+      <c r="N342">
+        <v>0.17796219969941454</v>
+      </c>
       <c r="O342" s="103">
         <v>16.048784049999998</v>
       </c>
@@ -55248,6 +55318,12 @@
       <c r="L343" s="103">
         <v>8.6294449409999991</v>
       </c>
+      <c r="M343" s="110">
+        <v>5.8547852670870641E-2</v>
+      </c>
+      <c r="N343">
+        <v>0.14317290679511929</v>
+      </c>
       <c r="O343" s="103">
         <v>15.131710679999999</v>
       </c>
@@ -55284,6 +55360,12 @@
       <c r="L344" s="103">
         <v>9.7323077690000002</v>
       </c>
+      <c r="M344" s="110">
+        <v>7.3794323465712602E-2</v>
+      </c>
+      <c r="N344">
+        <v>0.11248490328469495</v>
+      </c>
       <c r="O344" s="103">
         <v>10.699189369999999</v>
       </c>
@@ -55320,6 +55402,12 @@
       <c r="L345" s="103">
         <v>84.586191769999999</v>
       </c>
+      <c r="M345" s="110">
+        <v>0.10504899754763238</v>
+      </c>
+      <c r="N345">
+        <v>0.26879594981794847</v>
+      </c>
       <c r="O345" s="103">
         <v>40.054500249999997</v>
       </c>
@@ -55356,6 +55444,12 @@
       <c r="L346" s="103">
         <v>29.29055477</v>
       </c>
+      <c r="M346" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N346" t="s">
+        <v>151</v>
+      </c>
       <c r="O346" s="103">
         <v>230.07215650000001</v>
       </c>
@@ -55392,6 +55486,12 @@
       <c r="L347" s="103">
         <v>30.110837620000002</v>
       </c>
+      <c r="M347" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N347" t="s">
+        <v>151</v>
+      </c>
       <c r="O347" s="103">
         <v>194.13876350000001</v>
       </c>
@@ -55428,6 +55528,12 @@
       <c r="L348" s="103">
         <v>30.962440829999998</v>
       </c>
+      <c r="M348" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N348" t="s">
+        <v>151</v>
+      </c>
       <c r="O348" s="103">
         <v>177.8695361</v>
       </c>
@@ -55464,6 +55570,12 @@
       <c r="L349" s="103">
         <v>21.226498039999999</v>
       </c>
+      <c r="M349" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N349" t="s">
+        <v>151</v>
+      </c>
       <c r="O349" s="103">
         <v>97.021360630000004</v>
       </c>
@@ -55500,6 +55612,12 @@
       <c r="L350" s="103">
         <v>37.929915739999998</v>
       </c>
+      <c r="M350" s="110">
+        <v>4.639795268985502E-2</v>
+      </c>
+      <c r="N350">
+        <v>2.2744050923821743E-2</v>
+      </c>
       <c r="O350" s="103">
         <v>22.534520029999999</v>
       </c>
@@ -55536,6 +55654,12 @@
       <c r="L351" s="103">
         <v>31.37697227</v>
       </c>
+      <c r="M351" s="110">
+        <v>0.18156474534191583</v>
+      </c>
+      <c r="N351">
+        <v>5.9911709395132726E-2</v>
+      </c>
       <c r="O351" s="103">
         <v>16.54878815</v>
       </c>
@@ -55572,6 +55696,12 @@
       <c r="L352" s="103">
         <v>34.38806271</v>
       </c>
+      <c r="M352" s="110">
+        <v>3.7765621376225654E-2</v>
+      </c>
+      <c r="N352">
+        <v>1.5575616117599568E-2</v>
+      </c>
       <c r="O352" s="103">
         <v>19.256771659999998</v>
       </c>
@@ -55608,6 +55738,12 @@
       <c r="L353" s="103">
         <v>29.127982060000001</v>
       </c>
+      <c r="M353" s="110">
+        <v>5.3353929584189816E-2</v>
+      </c>
+      <c r="N353">
+        <v>2.0333589697112367E-2</v>
+      </c>
       <c r="O353" s="103">
         <v>14.91721748</v>
       </c>
@@ -55644,6 +55780,12 @@
       <c r="L354" s="103">
         <v>64.067553469999993</v>
       </c>
+      <c r="M354" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N354" t="s">
+        <v>151</v>
+      </c>
       <c r="O354" s="103">
         <v>34.960344769999999</v>
       </c>
@@ -55680,6 +55822,12 @@
       <c r="L355" s="103">
         <v>20.473838099999998</v>
       </c>
+      <c r="M355" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N355" t="s">
+        <v>151</v>
+      </c>
       <c r="O355" s="103">
         <v>28.717001920000001</v>
       </c>
@@ -55716,6 +55864,12 @@
       <c r="L356" s="103">
         <v>19.092370240000001</v>
       </c>
+      <c r="M356" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N356" t="s">
+        <v>151</v>
+      </c>
       <c r="O356" s="103">
         <v>15.42060672</v>
       </c>
@@ -55752,6 +55906,12 @@
       <c r="L357" s="103">
         <v>33.398073429999997</v>
       </c>
+      <c r="M357" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N357" t="s">
+        <v>151</v>
+      </c>
       <c r="O357" s="103">
         <v>22.14926942</v>
       </c>
@@ -55788,6 +55948,12 @@
       <c r="L358" s="103">
         <v>28.487531000000001</v>
       </c>
+      <c r="M358" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N358" t="s">
+        <v>151</v>
+      </c>
       <c r="O358" s="103">
         <v>11.45971836</v>
       </c>
@@ -55824,6 +55990,12 @@
       <c r="L359" s="103">
         <v>6.5092380829999996</v>
       </c>
+      <c r="M359" s="110">
+        <v>8.7638196588390158E-2</v>
+      </c>
+      <c r="N359">
+        <v>4.9995593522596402E-2</v>
+      </c>
       <c r="O359" s="103">
         <v>9.5840552490000004</v>
       </c>
@@ -55849,7 +56021,7 @@
       </c>
       <c r="Q360" s="19"/>
     </row>
-    <row r="361" spans="1:104" outlineLevel="1">
+    <row r="361" spans="1:104" hidden="1" outlineLevel="1">
       <c r="B361" s="50" t="s">
         <v>487</v>
       </c>
@@ -55901,7 +56073,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="362" spans="1:104" outlineLevel="1">
+    <row r="362" spans="1:104" hidden="1" outlineLevel="1">
       <c r="B362" s="50" t="s">
         <v>492</v>
       </c>
@@ -55933,7 +56105,7 @@
         <v>6.4099999999999999E-3</v>
       </c>
       <c r="O362" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="P362" s="74">
         <v>33.299999999999997</v>
@@ -55955,7 +56127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:104" outlineLevel="1">
+    <row r="363" spans="1:104" hidden="1" outlineLevel="1">
       <c r="B363" s="50" t="s">
         <v>496</v>
       </c>
@@ -55981,16 +56153,16 @@
         <v>7.9</v>
       </c>
       <c r="M363" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="N363" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="O363" s="74">
         <v>0.56899999999999995</v>
       </c>
       <c r="P363" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="R363" s="74" t="s">
         <v>495</v>
@@ -56009,7 +56181,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="364" spans="1:104" outlineLevel="1">
+    <row r="364" spans="1:104" hidden="1" outlineLevel="1">
       <c r="B364" s="50" t="s">
         <v>501</v>
       </c>
@@ -56035,16 +56207,16 @@
         <v>7.4</v>
       </c>
       <c r="M364" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="N364" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="O364" s="74">
         <v>0.26619999999999999</v>
       </c>
       <c r="P364" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="R364" s="74" t="s">
         <v>495</v>
@@ -56063,7 +56235,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:104" outlineLevel="1">
+    <row r="365" spans="1:104" hidden="1" outlineLevel="1">
       <c r="B365" s="50" t="s">
         <v>502</v>
       </c>
@@ -56095,10 +56267,10 @@
         <v>2.23E-2</v>
       </c>
       <c r="O365" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="P365" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="R365" s="74" t="s">
         <v>495</v>
@@ -56117,7 +56289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:104" outlineLevel="1">
+    <row r="366" spans="1:104" hidden="1" outlineLevel="1">
       <c r="B366" s="50" t="s">
         <v>504</v>
       </c>
@@ -56149,10 +56321,10 @@
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="O366" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="P366" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="R366" s="74" t="s">
         <v>495</v>
@@ -56171,7 +56343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:104" outlineLevel="1">
+    <row r="367" spans="1:104" hidden="1" outlineLevel="1">
       <c r="B367" s="50" t="s">
         <v>505</v>
       </c>
@@ -56203,7 +56375,7 @@
         <v>2.4500000000000001E-2</v>
       </c>
       <c r="O367" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="P367" s="75">
         <v>85.1</v>
@@ -56225,7 +56397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="368" spans="1:104" outlineLevel="1">
+    <row r="368" spans="1:104" hidden="1" outlineLevel="1">
       <c r="B368" s="50" t="s">
         <v>505</v>
       </c>
@@ -56257,7 +56429,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="O368" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="P368" s="75">
         <v>90.2</v>
@@ -56279,7 +56451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="369" spans="2:101" outlineLevel="1">
+    <row r="369" spans="2:101" hidden="1" outlineLevel="1">
       <c r="B369" s="50" t="s">
         <v>505</v>
       </c>
@@ -56311,7 +56483,7 @@
         <v>1.8400000000000001E-3</v>
       </c>
       <c r="O369" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="P369" s="75">
         <v>11.2</v>
@@ -56333,7 +56505,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="370" spans="2:101" outlineLevel="1">
+    <row r="370" spans="2:101" hidden="1" outlineLevel="1">
       <c r="B370" s="50" t="s">
         <v>505</v>
       </c>
@@ -56365,7 +56537,7 @@
         <v>3.0700000000000002E-2</v>
       </c>
       <c r="O370" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="P370" s="75">
         <v>105.5</v>
@@ -56387,7 +56559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="371" spans="2:101" outlineLevel="1">
+    <row r="371" spans="2:101" hidden="1" outlineLevel="1">
       <c r="B371" s="50" t="s">
         <v>508</v>
       </c>
@@ -56419,10 +56591,10 @@
         <v>7.7099999999999998E-3</v>
       </c>
       <c r="O371" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="P371" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="R371" s="75">
         <v>6.13E-3</v>
@@ -56441,7 +56613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="2:101" outlineLevel="1">
+    <row r="372" spans="2:101" hidden="1" outlineLevel="1">
       <c r="B372" s="50" t="s">
         <v>509</v>
       </c>
@@ -56476,7 +56648,7 @@
         <v>0.1</v>
       </c>
       <c r="P372" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="R372" s="74" t="s">
         <v>495</v>
@@ -56495,7 +56667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="2:101" outlineLevel="1">
+    <row r="373" spans="2:101" hidden="1" outlineLevel="1">
       <c r="B373" s="50" t="s">
         <v>509</v>
       </c>
@@ -56530,7 +56702,7 @@
         <v>0.1</v>
       </c>
       <c r="P373" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="R373" s="74" t="s">
         <v>495</v>
@@ -56549,7 +56721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="2:101" outlineLevel="1">
+    <row r="374" spans="2:101" hidden="1" outlineLevel="1">
       <c r="B374" s="50" t="s">
         <v>509</v>
       </c>
@@ -56584,7 +56756,7 @@
         <v>0.1</v>
       </c>
       <c r="P374" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="R374" s="74" t="s">
         <v>495</v>
@@ -56603,7 +56775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="2:101" outlineLevel="1">
+    <row r="375" spans="2:101" hidden="1" outlineLevel="1">
       <c r="B375" s="50" t="s">
         <v>509</v>
       </c>
@@ -56638,7 +56810,7 @@
         <v>0.16669999999999999</v>
       </c>
       <c r="P375" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="R375" s="74" t="s">
         <v>495</v>
@@ -56657,7 +56829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="376" spans="2:101" outlineLevel="1">
+    <row r="376" spans="2:101" hidden="1" outlineLevel="1">
       <c r="B376" s="50" t="s">
         <v>509</v>
       </c>
@@ -56692,7 +56864,7 @@
         <v>0.16669999999999999</v>
       </c>
       <c r="P376" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="R376" s="74" t="s">
         <v>495</v>
@@ -56713,7 +56885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="377" spans="2:101" outlineLevel="1">
+    <row r="377" spans="2:101" hidden="1" outlineLevel="1">
       <c r="B377" s="50" t="s">
         <v>509</v>
       </c>
@@ -56748,7 +56920,7 @@
         <v>0.16669999999999999</v>
       </c>
       <c r="P377" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="R377" s="74" t="s">
         <v>495</v>
@@ -56767,7 +56939,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="378" spans="2:101" outlineLevel="1">
+    <row r="378" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
       <c r="B378" s="50" t="s">
         <v>511</v>
       </c>
@@ -56796,7 +56968,7 @@
         <v>0.13099</v>
       </c>
       <c r="N378" s="74" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="O378" s="75">
         <v>5.4989999999999997E-2</v>
@@ -56819,7 +56991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="379" spans="2:101" ht="24.75" customHeight="1" outlineLevel="1">
+    <row r="379" spans="2:101" ht="24.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="B379" s="50" t="s">
         <v>514</v>
       </c>
@@ -56847,7 +57019,9 @@
       <c r="M379" s="103">
         <v>0.17455000000000001</v>
       </c>
-      <c r="N379" s="103"/>
+      <c r="N379" s="74" t="s">
+        <v>151</v>
+      </c>
       <c r="O379" s="103">
         <v>0.1188</v>
       </c>
@@ -56865,7 +57039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="380" spans="2:101" outlineLevel="1">
+    <row r="380" spans="2:101" hidden="1" outlineLevel="1">
       <c r="B380" s="50" t="s">
         <v>517</v>
       </c>
@@ -56911,7 +57085,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="381" spans="2:101" outlineLevel="1">
+    <row r="381" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
       <c r="B381" s="50" t="s">
         <v>518</v>
       </c>
@@ -56945,7 +57119,9 @@
       <c r="O381" s="103">
         <v>0.32400000000000001</v>
       </c>
-      <c r="P381" s="103"/>
+      <c r="P381" s="74" t="s">
+        <v>151</v>
+      </c>
       <c r="R381" s="103">
         <v>1.01E-2</v>
       </c>
@@ -56961,7 +57137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="382" spans="2:101" outlineLevel="1">
+    <row r="382" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
       <c r="B382" s="50" t="s">
         <v>518</v>
       </c>
@@ -56995,7 +57171,9 @@
       <c r="O382" s="103">
         <v>0.32400000000000001</v>
       </c>
-      <c r="P382" s="103"/>
+      <c r="P382" s="74" t="s">
+        <v>151</v>
+      </c>
       <c r="R382" s="103">
         <v>6.3E-3</v>
       </c>
@@ -57011,7 +57189,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="383" spans="2:101" outlineLevel="1">
+    <row r="383" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
       <c r="B383" s="50" t="s">
         <v>518</v>
       </c>
@@ -57045,7 +57223,9 @@
       <c r="O383" s="103">
         <v>0.32400000000000001</v>
       </c>
-      <c r="P383" s="103"/>
+      <c r="P383" s="74" t="s">
+        <v>151</v>
+      </c>
       <c r="R383" s="103">
         <v>7.6E-3</v>
       </c>
@@ -57061,7 +57241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="2:101" outlineLevel="1">
+    <row r="384" spans="2:101" hidden="1" outlineLevel="1">
       <c r="B384" s="50" t="s">
         <v>519</v>
       </c>
@@ -57115,7 +57295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:17" outlineLevel="1">
+    <row r="385" spans="1:17" ht="15" hidden="1" outlineLevel="1" thickBot="1">
       <c r="B385" s="50" t="s">
         <v>521</v>
       </c>
@@ -57143,8 +57323,17 @@
       <c r="M385" s="103">
         <v>0.36480000000000001</v>
       </c>
+      <c r="N385" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="O385" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="P385" s="74" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="386" spans="1:17" ht="29" outlineLevel="1">
+    <row r="386" spans="1:17" ht="29.5" hidden="1" outlineLevel="1" thickBot="1">
       <c r="B386" s="50" t="s">
         <v>521</v>
       </c>
@@ -57172,8 +57361,17 @@
       <c r="M386" s="103">
         <v>0.32640000000000002</v>
       </c>
+      <c r="N386" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="O386" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="P386" s="74" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="387" spans="1:17" s="18" customFormat="1">
+    <row r="387" spans="1:17" s="18" customFormat="1" collapsed="1">
       <c r="A387" s="18">
         <v>6</v>
       </c>
@@ -62099,23 +62297,23 @@
       </c>
       <c r="Q494" s="19"/>
     </row>
-    <row r="495" spans="1:17" outlineLevel="1">
+    <row r="495" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B495" s="10" t="s">
         <v>733</v>
       </c>
       <c r="C495" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E495" s="105" t="s">
+      <c r="E495" s="104" t="s">
         <v>903</v>
       </c>
-      <c r="F495" s="105" t="s">
+      <c r="F495" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="G495" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H495" s="107" t="s">
+      <c r="G495" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H495" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I495" s="42" t="s">
@@ -62146,24 +62344,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="496" spans="1:17" ht="29" outlineLevel="1">
+    <row r="496" spans="1:17" ht="29" hidden="1" outlineLevel="1">
       <c r="B496" s="10" t="s">
         <v>735</v>
       </c>
       <c r="C496" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E496" s="105" t="s">
+      <c r="E496" s="104" t="s">
         <v>901</v>
       </c>
-      <c r="F496" s="105" t="s">
+      <c r="F496" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="G496" s="107">
+      <c r="G496" s="106">
         <f>-33.8</f>
         <v>-33.799999999999997</v>
       </c>
-      <c r="H496" s="108">
+      <c r="H496" s="107">
         <f>150.9</f>
         <v>150.9</v>
       </c>
@@ -62195,24 +62393,24 @@
         <v>6151</v>
       </c>
     </row>
-    <row r="497" spans="2:17" ht="72.5" outlineLevel="1">
+    <row r="497" spans="2:17" ht="72.5" hidden="1" outlineLevel="1">
       <c r="B497" s="10" t="s">
         <v>737</v>
       </c>
       <c r="C497" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E497" s="105" t="s">
+      <c r="E497" s="104" t="s">
         <v>555</v>
       </c>
-      <c r="F497" s="105" t="s">
+      <c r="F497" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="G497" s="107">
+      <c r="G497" s="106">
         <f>-21.5</f>
         <v>-21.5</v>
       </c>
-      <c r="H497" s="107">
+      <c r="H497" s="106">
         <f>146.1</f>
         <v>146.1</v>
       </c>
@@ -62244,24 +62442,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="498" spans="2:17" ht="72.5" outlineLevel="1">
+    <row r="498" spans="2:17" ht="72.5" hidden="1" outlineLevel="1">
       <c r="B498" s="10" t="s">
         <v>737</v>
       </c>
       <c r="C498" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E498" s="105" t="s">
+      <c r="E498" s="104" t="s">
         <v>902</v>
       </c>
-      <c r="F498" s="105" t="s">
+      <c r="F498" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="G498" s="107">
+      <c r="G498" s="106">
         <f>-30.4</f>
         <v>-30.4</v>
       </c>
-      <c r="H498" s="107">
+      <c r="H498" s="106">
         <f>134.7</f>
         <v>134.69999999999999</v>
       </c>
@@ -62293,23 +62491,23 @@
         <v>151</v>
       </c>
     </row>
-    <row r="499" spans="2:17" outlineLevel="1">
+    <row r="499" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B499" s="10" t="s">
         <v>737</v>
       </c>
       <c r="C499" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E499" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F499" s="105" t="s">
+      <c r="E499" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F499" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="G499" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H499" s="108" t="s">
+      <c r="G499" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H499" s="107" t="s">
         <v>151</v>
       </c>
       <c r="I499" s="42" t="s">
@@ -62340,24 +62538,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="500" spans="2:17" outlineLevel="1">
+    <row r="500" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B500" s="10" t="s">
         <v>740</v>
       </c>
       <c r="C500" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E500" s="105" t="s">
+      <c r="E500" s="104" t="s">
         <v>903</v>
       </c>
-      <c r="F500" s="105" t="s">
+      <c r="F500" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="G500" s="107">
+      <c r="G500" s="106">
         <f>-14.1</f>
         <v>-14.1</v>
       </c>
-      <c r="H500" s="107">
+      <c r="H500" s="106">
         <f>-54.9</f>
         <v>-54.9</v>
       </c>
@@ -62389,24 +62587,24 @@
         <v>331</v>
       </c>
     </row>
-    <row r="501" spans="2:17" outlineLevel="1">
+    <row r="501" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B501" s="10" t="s">
         <v>740</v>
       </c>
       <c r="C501" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E501" s="105" t="s">
+      <c r="E501" s="104" t="s">
         <v>585</v>
       </c>
-      <c r="F501" s="105" t="s">
+      <c r="F501" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="G501" s="107">
+      <c r="G501" s="106">
         <f>-29.4</f>
         <v>-29.4</v>
       </c>
-      <c r="H501" s="107">
+      <c r="H501" s="106">
         <f>-53.2</f>
         <v>-53.2</v>
       </c>
@@ -62438,23 +62636,23 @@
         <v>219</v>
       </c>
     </row>
-    <row r="502" spans="2:17" ht="29" outlineLevel="1">
+    <row r="502" spans="2:17" ht="29" hidden="1" outlineLevel="1">
       <c r="B502" s="10" t="s">
         <v>743</v>
       </c>
       <c r="C502" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E502" s="105" t="s">
+      <c r="E502" s="104" t="s">
         <v>904</v>
       </c>
-      <c r="F502" s="106" t="s">
+      <c r="F502" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="G502" s="107">
+      <c r="G502" s="106">
         <v>-27.167000000000002</v>
       </c>
-      <c r="H502" s="107">
+      <c r="H502" s="106">
         <v>-50.66</v>
       </c>
       <c r="I502" s="42" t="s">
@@ -62485,23 +62683,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="503" spans="2:17" outlineLevel="1">
+    <row r="503" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B503" s="10" t="s">
         <v>598</v>
       </c>
       <c r="C503" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E503" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F503" s="105" t="s">
+      <c r="E503" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F503" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="G503" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H503" s="107" t="s">
+      <c r="G503" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H503" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I503" s="42" t="s">
@@ -62532,23 +62730,23 @@
         <v>151</v>
       </c>
     </row>
-    <row r="504" spans="2:17" outlineLevel="1">
+    <row r="504" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B504" s="10" t="s">
         <v>745</v>
       </c>
       <c r="C504" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E504" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F504" s="105" t="s">
+      <c r="E504" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F504" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="G504" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H504" s="107" t="s">
+      <c r="G504" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H504" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I504" s="42" t="s">
@@ -62579,23 +62777,23 @@
         <v>151</v>
       </c>
     </row>
-    <row r="505" spans="2:17" outlineLevel="1">
+    <row r="505" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B505" s="10" t="s">
         <v>745</v>
       </c>
       <c r="C505" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E505" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F505" s="105" t="s">
+      <c r="E505" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F505" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="G505" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H505" s="107" t="s">
+      <c r="G505" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H505" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I505" s="42" t="s">
@@ -62626,23 +62824,23 @@
         <v>151</v>
       </c>
     </row>
-    <row r="506" spans="2:17" outlineLevel="1">
+    <row r="506" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B506" s="10" t="s">
         <v>745</v>
       </c>
       <c r="C506" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="E506" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F506" s="105" t="s">
+      <c r="E506" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F506" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="G506" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H506" s="107" t="s">
+      <c r="G506" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H506" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I506" s="42" t="s">
@@ -62673,23 +62871,23 @@
         <v>151</v>
       </c>
     </row>
-    <row r="507" spans="2:17" outlineLevel="1">
+    <row r="507" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B507" s="10" t="s">
         <v>749</v>
       </c>
       <c r="C507" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E507" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F507" s="105" t="s">
+      <c r="E507" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F507" s="104" t="s">
         <v>899</v>
       </c>
-      <c r="G507" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H507" s="107" t="s">
+      <c r="G507" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H507" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I507" s="42" t="s">
@@ -62720,24 +62918,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="508" spans="2:17" ht="29" outlineLevel="1">
+    <row r="508" spans="2:17" ht="29" hidden="1" outlineLevel="1">
       <c r="B508" s="10" t="s">
         <v>750</v>
       </c>
       <c r="C508" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="E508" s="105" t="s">
+      <c r="E508" s="104" t="s">
         <v>905</v>
       </c>
-      <c r="F508" s="105" t="s">
+      <c r="F508" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G508" s="107">
+      <c r="G508" s="106">
         <f>45.1</f>
         <v>45.1</v>
       </c>
-      <c r="H508" s="107">
+      <c r="H508" s="106">
         <f>0.8</f>
         <v>0.8</v>
       </c>
@@ -62769,24 +62967,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="509" spans="2:17" ht="43.5" outlineLevel="1">
+    <row r="509" spans="2:17" ht="43.5" hidden="1" outlineLevel="1">
       <c r="B509" s="10" t="s">
         <v>753</v>
       </c>
       <c r="C509" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E509" s="105" t="s">
+      <c r="E509" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="F509" s="105" t="s">
+      <c r="F509" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G509" s="109">
+      <c r="G509" s="108">
         <f>48</f>
         <v>48</v>
       </c>
-      <c r="H509" s="109">
+      <c r="H509" s="108">
         <f>-3</f>
         <v>-3</v>
       </c>
@@ -62818,24 +63016,24 @@
         <v>22063</v>
       </c>
     </row>
-    <row r="510" spans="2:17" ht="58" outlineLevel="1">
+    <row r="510" spans="2:17" ht="58" hidden="1" outlineLevel="1">
       <c r="B510" s="10" t="s">
         <v>753</v>
       </c>
       <c r="C510" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E510" s="105" t="s">
+      <c r="E510" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="F510" s="105" t="s">
+      <c r="F510" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G510" s="109">
+      <c r="G510" s="108">
         <f>48</f>
         <v>48</v>
       </c>
-      <c r="H510" s="109">
+      <c r="H510" s="108">
         <f>-3</f>
         <v>-3</v>
       </c>
@@ -62867,24 +63065,24 @@
         <v>17429</v>
       </c>
     </row>
-    <row r="511" spans="2:17" ht="58" outlineLevel="1">
+    <row r="511" spans="2:17" ht="58" hidden="1" outlineLevel="1">
       <c r="B511" s="10" t="s">
         <v>753</v>
       </c>
       <c r="C511" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E511" s="105" t="s">
+      <c r="E511" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="F511" s="105" t="s">
+      <c r="F511" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G511" s="109">
+      <c r="G511" s="108">
         <f>48</f>
         <v>48</v>
       </c>
-      <c r="H511" s="109">
+      <c r="H511" s="108">
         <f>-3</f>
         <v>-3</v>
       </c>
@@ -62916,24 +63114,24 @@
         <v>21540</v>
       </c>
     </row>
-    <row r="512" spans="2:17" ht="58" outlineLevel="1">
+    <row r="512" spans="2:17" ht="58" hidden="1" outlineLevel="1">
       <c r="B512" s="10" t="s">
         <v>753</v>
       </c>
       <c r="C512" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E512" s="105" t="s">
+      <c r="E512" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="F512" s="105" t="s">
+      <c r="F512" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G512" s="109">
+      <c r="G512" s="108">
         <f>48</f>
         <v>48</v>
       </c>
-      <c r="H512" s="109">
+      <c r="H512" s="108">
         <f>-3</f>
         <v>-3</v>
       </c>
@@ -62965,23 +63163,23 @@
         <v>30826</v>
       </c>
     </row>
-    <row r="513" spans="2:17" outlineLevel="1">
+    <row r="513" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B513" s="10" t="s">
         <v>245</v>
       </c>
       <c r="C513" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E513" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F513" s="105" t="s">
+      <c r="E513" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F513" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G513" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="H513" s="109" t="s">
+      <c r="G513" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="H513" s="108" t="s">
         <v>151</v>
       </c>
       <c r="I513" s="42" t="s">
@@ -63012,23 +63210,23 @@
         <v>29652</v>
       </c>
     </row>
-    <row r="514" spans="2:17" outlineLevel="1">
+    <row r="514" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B514" s="10" t="s">
         <v>245</v>
       </c>
       <c r="C514" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E514" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F514" s="105" t="s">
+      <c r="E514" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F514" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G514" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="H514" s="109" t="s">
+      <c r="G514" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="H514" s="108" t="s">
         <v>151</v>
       </c>
       <c r="I514" s="42" t="s">
@@ -63059,23 +63257,23 @@
         <v>20399</v>
       </c>
     </row>
-    <row r="515" spans="2:17" outlineLevel="1">
+    <row r="515" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B515" s="10" t="s">
         <v>245</v>
       </c>
       <c r="C515" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E515" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F515" s="105" t="s">
+      <c r="E515" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F515" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G515" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="H515" s="109" t="s">
+      <c r="G515" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="H515" s="108" t="s">
         <v>151</v>
       </c>
       <c r="I515" s="42" t="s">
@@ -63106,23 +63304,23 @@
         <v>149221</v>
       </c>
     </row>
-    <row r="516" spans="2:17" outlineLevel="1">
+    <row r="516" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B516" s="10" t="s">
         <v>245</v>
       </c>
       <c r="C516" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="E516" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F516" s="105" t="s">
+      <c r="E516" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F516" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G516" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="H516" s="109" t="s">
+      <c r="G516" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="H516" s="108" t="s">
         <v>151</v>
       </c>
       <c r="I516" s="42" t="s">
@@ -63153,23 +63351,23 @@
         <v>37231</v>
       </c>
     </row>
-    <row r="517" spans="2:17" outlineLevel="1">
+    <row r="517" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B517" s="10" t="s">
         <v>245</v>
       </c>
       <c r="C517" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="E517" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F517" s="105" t="s">
+      <c r="E517" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F517" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G517" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="H517" s="109" t="s">
+      <c r="G517" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="H517" s="108" t="s">
         <v>151</v>
       </c>
       <c r="I517" s="42" t="s">
@@ -63200,23 +63398,23 @@
         <v>50515</v>
       </c>
     </row>
-    <row r="518" spans="2:17" outlineLevel="1">
+    <row r="518" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B518" s="10" t="s">
         <v>245</v>
       </c>
       <c r="C518" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="E518" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F518" s="105" t="s">
+      <c r="E518" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F518" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G518" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="H518" s="109" t="s">
+      <c r="G518" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="H518" s="108" t="s">
         <v>151</v>
       </c>
       <c r="I518" s="42" t="s">
@@ -63247,24 +63445,24 @@
         <v>68992</v>
       </c>
     </row>
-    <row r="519" spans="2:17" outlineLevel="1">
+    <row r="519" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B519" s="10" t="s">
         <v>740</v>
       </c>
       <c r="C519" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E519" s="105" t="s">
+      <c r="E519" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="F519" s="105" t="s">
+      <c r="F519" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G519" s="109">
+      <c r="G519" s="108">
         <f>48</f>
         <v>48</v>
       </c>
-      <c r="H519" s="109">
+      <c r="H519" s="108">
         <f>-3</f>
         <v>-3</v>
       </c>
@@ -63296,24 +63494,24 @@
         <v>13383</v>
       </c>
     </row>
-    <row r="520" spans="2:17" ht="29" outlineLevel="1">
+    <row r="520" spans="2:17" ht="29" hidden="1" outlineLevel="1">
       <c r="B520" s="10" t="s">
         <v>740</v>
       </c>
       <c r="C520" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E520" s="105" t="s">
+      <c r="E520" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="F520" s="105" t="s">
+      <c r="F520" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G520" s="107">
+      <c r="G520" s="106">
         <f>44</f>
         <v>44</v>
       </c>
-      <c r="H520" s="107">
+      <c r="H520" s="106">
         <f>-0.5</f>
         <v>-0.5</v>
       </c>
@@ -63345,24 +63543,24 @@
         <v>21311</v>
       </c>
     </row>
-    <row r="521" spans="2:17" outlineLevel="1">
+    <row r="521" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B521" s="10" t="s">
         <v>766</v>
       </c>
       <c r="C521" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E521" s="105" t="s">
+      <c r="E521" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="F521" s="105" t="s">
+      <c r="F521" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G521" s="107">
+      <c r="G521" s="106">
         <f>47.5</f>
         <v>47.5</v>
       </c>
-      <c r="H521" s="107">
+      <c r="H521" s="106">
         <f>-0.85</f>
         <v>-0.85</v>
       </c>
@@ -63394,24 +63592,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="522" spans="2:17" outlineLevel="1">
+    <row r="522" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B522" s="10" t="s">
         <v>766</v>
       </c>
       <c r="C522" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E522" s="105" t="s">
+      <c r="E522" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="F522" s="105" t="s">
+      <c r="F522" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G522" s="107">
+      <c r="G522" s="106">
         <f>44</f>
         <v>44</v>
       </c>
-      <c r="H522" s="107">
+      <c r="H522" s="106">
         <f>-0.5</f>
         <v>-0.5</v>
       </c>
@@ -63443,23 +63641,23 @@
         <v>151</v>
       </c>
     </row>
-    <row r="523" spans="2:17" ht="29" outlineLevel="1">
+    <row r="523" spans="2:17" ht="29" hidden="1" outlineLevel="1">
       <c r="B523" s="10" t="s">
         <v>768</v>
       </c>
       <c r="C523" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E523" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F523" s="105" t="s">
+      <c r="E523" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F523" s="104" t="s">
         <v>399</v>
       </c>
-      <c r="G523" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H523" s="107" t="s">
+      <c r="G523" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H523" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I523" s="42" t="s">
@@ -63490,23 +63688,23 @@
         <v>8976</v>
       </c>
     </row>
-    <row r="524" spans="2:17" ht="29" outlineLevel="1">
+    <row r="524" spans="2:17" ht="29" hidden="1" outlineLevel="1">
       <c r="B524" s="10" t="s">
         <v>768</v>
       </c>
       <c r="C524" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E524" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F524" s="105" t="s">
+      <c r="E524" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F524" s="104" t="s">
         <v>399</v>
       </c>
-      <c r="G524" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H524" s="107" t="s">
+      <c r="G524" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H524" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I524" s="42" t="s">
@@ -63537,23 +63735,23 @@
         <v>9570</v>
       </c>
     </row>
-    <row r="525" spans="2:17" outlineLevel="1">
+    <row r="525" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B525" s="10" t="s">
         <v>561</v>
       </c>
       <c r="C525" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E525" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F525" s="105" t="s">
+      <c r="E525" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F525" s="104" t="s">
         <v>900</v>
       </c>
-      <c r="G525" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H525" s="107" t="s">
+      <c r="G525" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H525" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I525" s="42" t="s">
@@ -63584,23 +63782,23 @@
         <v>151</v>
       </c>
     </row>
-    <row r="526" spans="2:17" outlineLevel="1">
+    <row r="526" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B526" s="24" t="s">
         <v>771</v>
       </c>
       <c r="C526" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E526" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F526" s="105" t="s">
+      <c r="E526" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F526" s="104" t="s">
         <v>900</v>
       </c>
-      <c r="G526" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H526" s="107" t="s">
+      <c r="G526" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H526" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I526" s="42" t="s">
@@ -63631,23 +63829,23 @@
         <v>151</v>
       </c>
     </row>
-    <row r="527" spans="2:17" outlineLevel="1">
+    <row r="527" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B527" s="10" t="s">
         <v>772</v>
       </c>
       <c r="C527" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E527" s="105" t="s">
+      <c r="E527" s="104" t="s">
         <v>585</v>
       </c>
-      <c r="F527" s="105" t="s">
+      <c r="F527" s="104" t="s">
         <v>801</v>
       </c>
-      <c r="G527" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H527" s="107" t="s">
+      <c r="G527" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H527" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I527" s="42" t="s">
@@ -63678,23 +63876,23 @@
         <v>151</v>
       </c>
     </row>
-    <row r="528" spans="2:17" outlineLevel="1">
+    <row r="528" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B528" s="10" t="s">
         <v>773</v>
       </c>
       <c r="C528" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E528" s="105" t="s">
+      <c r="E528" s="104" t="s">
         <v>906</v>
       </c>
-      <c r="F528" s="105" t="s">
+      <c r="F528" s="104" t="s">
         <v>312</v>
       </c>
-      <c r="G528" s="107">
+      <c r="G528" s="106">
         <v>50.9</v>
       </c>
-      <c r="H528" s="107">
+      <c r="H528" s="106">
         <v>40.24</v>
       </c>
       <c r="I528" s="42" t="s">
@@ -63725,24 +63923,24 @@
         <v>33136</v>
       </c>
     </row>
-    <row r="529" spans="1:17" ht="43.5" outlineLevel="1">
+    <row r="529" spans="1:17" ht="43.5" hidden="1" outlineLevel="1">
       <c r="B529" s="10" t="s">
         <v>774</v>
       </c>
       <c r="C529" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E529" s="105" t="s">
+      <c r="E529" s="104" t="s">
         <v>907</v>
       </c>
-      <c r="F529" s="105" t="s">
+      <c r="F529" s="104" t="s">
         <v>526</v>
       </c>
-      <c r="G529" s="107">
+      <c r="G529" s="106">
         <f>ROUND(58.824232,3)</f>
         <v>58.823999999999998</v>
       </c>
-      <c r="H529" s="107">
+      <c r="H529" s="106">
         <f>ROUND(16.534329,3)</f>
         <v>16.533999999999999</v>
       </c>
@@ -63774,23 +63972,23 @@
         <v>52606</v>
       </c>
     </row>
-    <row r="530" spans="1:17" outlineLevel="1">
+    <row r="530" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B530" s="10" t="s">
         <v>559</v>
       </c>
       <c r="C530" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E530" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F530" s="105" t="s">
+      <c r="E530" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F530" s="104" t="s">
         <v>323</v>
       </c>
-      <c r="G530" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H530" s="107" t="s">
+      <c r="G530" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H530" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I530" s="42" t="s">
@@ -63821,23 +64019,23 @@
         <v>151</v>
       </c>
     </row>
-    <row r="531" spans="1:17" ht="29" outlineLevel="1">
+    <row r="531" spans="1:17" ht="29" hidden="1" outlineLevel="1">
       <c r="B531" s="10" t="s">
         <v>559</v>
       </c>
       <c r="C531" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E531" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F531" s="105" t="s">
+      <c r="E531" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F531" s="104" t="s">
         <v>323</v>
       </c>
-      <c r="G531" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H531" s="107" t="s">
+      <c r="G531" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H531" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I531" s="42" t="s">
@@ -63868,23 +64066,23 @@
         <v>151</v>
       </c>
     </row>
-    <row r="532" spans="1:17" outlineLevel="1">
+    <row r="532" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B532" s="10" t="s">
         <v>559</v>
       </c>
       <c r="C532" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E532" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F532" s="105" t="s">
+      <c r="E532" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F532" s="104" t="s">
         <v>323</v>
       </c>
-      <c r="G532" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H532" s="107" t="s">
+      <c r="G532" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H532" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I532" s="42" t="s">
@@ -63915,23 +64113,23 @@
         <v>151</v>
       </c>
     </row>
-    <row r="533" spans="1:17" outlineLevel="1">
+    <row r="533" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B533" s="10" t="s">
         <v>778</v>
       </c>
       <c r="C533" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E533" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F533" s="105" t="s">
+      <c r="E533" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F533" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="G533" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H533" s="107" t="s">
+      <c r="G533" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H533" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I533" s="42" t="s">
@@ -63962,23 +64160,23 @@
         <v>66435</v>
       </c>
     </row>
-    <row r="534" spans="1:17" outlineLevel="1">
+    <row r="534" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B534" s="10" t="s">
         <v>778</v>
       </c>
       <c r="C534" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E534" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F534" s="105" t="s">
+      <c r="E534" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F534" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="G534" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H534" s="107" t="s">
+      <c r="G534" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H534" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I534" s="42" t="s">
@@ -64009,23 +64207,23 @@
         <v>75382</v>
       </c>
     </row>
-    <row r="535" spans="1:17" outlineLevel="1">
+    <row r="535" spans="1:17" hidden="1" outlineLevel="1">
       <c r="B535" s="10" t="s">
         <v>778</v>
       </c>
       <c r="C535" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E535" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F535" s="105" t="s">
+      <c r="E535" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F535" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="G535" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H535" s="107" t="s">
+      <c r="G535" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H535" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I535" s="42" t="s">
@@ -64056,23 +64254,23 @@
         <v>171337</v>
       </c>
     </row>
-    <row r="536" spans="1:17" ht="58" outlineLevel="1">
+    <row r="536" spans="1:17" ht="58" hidden="1" outlineLevel="1">
       <c r="B536" s="10" t="s">
         <v>779</v>
       </c>
       <c r="C536" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="E536" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F536" s="105" t="s">
+      <c r="E536" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F536" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="G536" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H536" s="107" t="s">
+      <c r="G536" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H536" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I536" s="42" t="s">
@@ -64103,23 +64301,23 @@
         <v>214879</v>
       </c>
     </row>
-    <row r="537" spans="1:17" ht="58" outlineLevel="1">
+    <row r="537" spans="1:17" ht="58" hidden="1" outlineLevel="1">
       <c r="B537" s="10" t="s">
         <v>779</v>
       </c>
       <c r="C537" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="E537" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F537" s="105" t="s">
+      <c r="E537" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F537" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="G537" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H537" s="107" t="s">
+      <c r="G537" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H537" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I537" s="42" t="s">
@@ -64150,23 +64348,23 @@
         <v>194101</v>
       </c>
     </row>
-    <row r="538" spans="1:17" ht="43.5" outlineLevel="1">
+    <row r="538" spans="1:17" ht="43.5" hidden="1" outlineLevel="1">
       <c r="B538" s="10" t="s">
         <v>779</v>
       </c>
       <c r="C538" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="E538" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F538" s="105" t="s">
+      <c r="E538" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F538" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="G538" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H538" s="107" t="s">
+      <c r="G538" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H538" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I538" s="42" t="s">
@@ -64197,23 +64395,23 @@
         <v>214878</v>
       </c>
     </row>
-    <row r="539" spans="1:17" ht="43.5" outlineLevel="1">
+    <row r="539" spans="1:17" ht="43.5" hidden="1" outlineLevel="1">
       <c r="B539" s="10" t="s">
         <v>779</v>
       </c>
       <c r="C539" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="E539" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="F539" s="105" t="s">
+      <c r="E539" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F539" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="G539" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H539" s="107" t="s">
+      <c r="G539" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="H539" s="106" t="s">
         <v>151</v>
       </c>
       <c r="I539" s="42" t="s">
@@ -64244,24 +64442,24 @@
         <v>180242</v>
       </c>
     </row>
-    <row r="540" spans="1:17" ht="58" outlineLevel="1">
+    <row r="540" spans="1:17" ht="58" hidden="1" outlineLevel="1">
       <c r="B540" s="10" t="s">
         <v>784</v>
       </c>
       <c r="C540" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E540" s="105" t="s">
+      <c r="E540" s="104" t="s">
         <v>908</v>
       </c>
-      <c r="F540" s="105" t="s">
+      <c r="F540" s="104" t="s">
         <v>485</v>
       </c>
-      <c r="G540" s="107">
+      <c r="G540" s="106">
         <f>ROUND(AVERAGE(10.22,10.11,10.34),3)</f>
         <v>10.223000000000001</v>
       </c>
-      <c r="H540" s="107">
+      <c r="H540" s="106">
         <f>ROUND(AVERAGE(105.6,105.95,106.03),3)</f>
         <v>105.86</v>
       </c>
@@ -64293,7 +64491,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="541" spans="1:17" s="18" customFormat="1">
+    <row r="541" spans="1:17" s="18" customFormat="1" collapsed="1">
       <c r="A541" s="18">
         <v>8</v>
       </c>
@@ -65636,7 +65834,7 @@
       </c>
       <c r="Q576" s="19"/>
     </row>
-    <row r="577" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="577" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B577" s="30" t="s">
         <v>835</v>
       </c>
@@ -65704,7 +65902,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="578" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="578" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B578" s="30" t="s">
         <v>835</v>
       </c>
@@ -65772,7 +65970,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="579" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="579" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B579" s="30" t="s">
         <v>835</v>
       </c>
@@ -65840,7 +66038,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="580" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="580" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B580" s="30" t="s">
         <v>835</v>
       </c>
@@ -65908,7 +66106,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="581" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="581" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B581" s="30" t="s">
         <v>835</v>
       </c>
@@ -65976,7 +66174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="582" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="582" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B582" s="30" t="s">
         <v>835</v>
       </c>
@@ -66044,7 +66242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="583" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="583" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B583" s="30" t="s">
         <v>843</v>
       </c>
@@ -66112,7 +66310,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="584" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="584" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B584" s="30" t="s">
         <v>843</v>
       </c>
@@ -66180,7 +66378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="585" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="585" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B585" s="30" t="s">
         <v>843</v>
       </c>
@@ -66248,7 +66446,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="586" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="586" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B586" s="30" t="s">
         <v>843</v>
       </c>
@@ -66316,7 +66514,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="587" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="587" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B587" s="30" t="s">
         <v>846</v>
       </c>
@@ -66384,7 +66582,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="588" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="588" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B588" s="30" t="s">
         <v>846</v>
       </c>
@@ -66452,7 +66650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="589" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="589" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B589" s="30" t="s">
         <v>835</v>
       </c>
@@ -66520,7 +66718,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="590" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="590" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B590" s="30" t="s">
         <v>835</v>
       </c>
@@ -66588,7 +66786,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="591" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="591" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B591" s="30" t="s">
         <v>835</v>
       </c>
@@ -66656,7 +66854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="592" spans="2:24" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="592" spans="2:24" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B592" s="30" t="s">
         <v>835</v>
       </c>
@@ -66724,7 +66922,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="593" spans="1:25" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="593" spans="1:25" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B593" s="30" t="s">
         <v>835</v>
       </c>
@@ -66792,7 +66990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="594" spans="1:25" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="594" spans="1:25" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B594" s="30" t="s">
         <v>835</v>
       </c>
@@ -66860,7 +67058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="595" spans="1:25" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="595" spans="1:25" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B595" s="30" t="s">
         <v>835</v>
       </c>
@@ -66928,7 +67126,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="596" spans="1:25" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="596" spans="1:25" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B596" s="30" t="s">
         <v>848</v>
       </c>
@@ -66996,7 +67194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="597" spans="1:25" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="597" spans="1:25" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B597" s="30" t="s">
         <v>848</v>
       </c>
@@ -67064,7 +67262,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="598" spans="1:25" s="43" customFormat="1" ht="13" hidden="1" outlineLevel="1">
+    <row r="598" spans="1:25" s="43" customFormat="1" ht="13" outlineLevel="1">
       <c r="B598" s="30" t="s">
         <v>850</v>
       </c>
@@ -67132,7 +67330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="599" spans="1:25" s="18" customFormat="1" collapsed="1">
+    <row r="599" spans="1:25" s="18" customFormat="1">
       <c r="A599" s="31">
         <v>10</v>
       </c>
@@ -67141,7 +67339,7 @@
       </c>
       <c r="Q599" s="19"/>
     </row>
-    <row r="600" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="600" spans="1:25" outlineLevel="1">
       <c r="A600" s="9"/>
       <c r="B600" s="32" t="s">
         <v>853</v>
@@ -67172,17 +67370,17 @@
       <c r="L600" s="32">
         <v>2.17</v>
       </c>
-      <c r="M600" s="36" t="s">
-        <v>151</v>
+      <c r="M600" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N600" s="32">
         <v>1.4E-3</v>
       </c>
-      <c r="O600" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P600" s="36" t="s">
-        <v>151</v>
+      <c r="O600" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P600" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q600" s="36" t="s">
         <v>151</v>
@@ -67210,7 +67408,7 @@
       </c>
       <c r="Y600" s="48"/>
     </row>
-    <row r="601" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="601" spans="1:25" outlineLevel="1">
       <c r="A601" s="9"/>
       <c r="B601" s="32" t="s">
         <v>853</v>
@@ -67243,17 +67441,17 @@
       <c r="L601" s="32">
         <v>2.6669999999999998</v>
       </c>
-      <c r="M601" s="36" t="s">
-        <v>151</v>
+      <c r="M601" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N601" s="32">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="O601" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P601" s="36" t="s">
-        <v>151</v>
+      <c r="O601" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P601" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q601" s="36" t="s">
         <v>151</v>
@@ -67281,7 +67479,7 @@
       </c>
       <c r="Y601" s="48"/>
     </row>
-    <row r="602" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="602" spans="1:25" outlineLevel="1">
       <c r="A602" s="9"/>
       <c r="B602" s="32" t="s">
         <v>853</v>
@@ -67314,17 +67512,17 @@
       <c r="L602" s="32">
         <v>2.7160000000000002</v>
       </c>
-      <c r="M602" s="36" t="s">
-        <v>151</v>
+      <c r="M602" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N602" s="32">
         <v>1.8E-3</v>
       </c>
-      <c r="O602" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P602" s="36" t="s">
-        <v>151</v>
+      <c r="O602" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P602" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q602" s="36" t="s">
         <v>151</v>
@@ -67352,7 +67550,7 @@
       </c>
       <c r="Y602" s="48"/>
     </row>
-    <row r="603" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="603" spans="1:25" outlineLevel="1">
       <c r="A603" s="9"/>
       <c r="B603" s="32" t="s">
         <v>853</v>
@@ -67385,17 +67583,17 @@
       <c r="L603" s="32">
         <v>2.7629999999999999</v>
       </c>
-      <c r="M603" s="36" t="s">
-        <v>151</v>
+      <c r="M603" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N603" s="32">
         <v>1.8E-3</v>
       </c>
-      <c r="O603" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P603" s="36" t="s">
-        <v>151</v>
+      <c r="O603" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P603" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q603" s="36" t="s">
         <v>151</v>
@@ -67423,7 +67621,7 @@
       </c>
       <c r="Y603" s="48"/>
     </row>
-    <row r="604" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="604" spans="1:25" outlineLevel="1">
       <c r="A604" s="9"/>
       <c r="B604" s="32" t="s">
         <v>853</v>
@@ -67453,17 +67651,17 @@
       <c r="K604" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="L604" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="M604" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N604" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O604" s="36" t="s">
-        <v>151</v>
+      <c r="L604" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M604" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N604" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O604" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="P604" s="32">
         <v>3.1167484779999999</v>
@@ -67494,7 +67692,7 @@
       </c>
       <c r="Y604" s="48"/>
     </row>
-    <row r="605" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="605" spans="1:25" outlineLevel="1">
       <c r="A605" s="9"/>
       <c r="B605" s="32" t="s">
         <v>853</v>
@@ -67524,17 +67722,17 @@
       <c r="K605" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="L605" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="M605" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N605" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O605" s="36" t="s">
-        <v>151</v>
+      <c r="L605" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M605" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N605" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O605" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="P605" s="32">
         <v>3.2159289260000001</v>
@@ -67565,7 +67763,7 @@
       </c>
       <c r="Y605" s="48"/>
     </row>
-    <row r="606" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="606" spans="1:25" outlineLevel="1">
       <c r="A606" s="9"/>
       <c r="B606" s="32" t="s">
         <v>853</v>
@@ -67595,17 +67793,17 @@
       <c r="K606" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="L606" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="M606" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N606" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O606" s="36" t="s">
-        <v>151</v>
+      <c r="L606" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M606" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N606" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O606" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="P606" s="32">
         <v>3.1168090880000001</v>
@@ -67636,7 +67834,7 @@
       </c>
       <c r="Y606" s="48"/>
     </row>
-    <row r="607" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="607" spans="1:25" outlineLevel="1">
       <c r="A607" s="9"/>
       <c r="B607" s="32" t="s">
         <v>853</v>
@@ -67666,17 +67864,17 @@
       <c r="K607" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="L607" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="M607" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N607" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O607" s="36" t="s">
-        <v>151</v>
+      <c r="L607" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M607" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N607" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O607" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="P607" s="32">
         <v>3.1165987980000001</v>
@@ -67707,7 +67905,7 @@
       </c>
       <c r="Y607" s="48"/>
     </row>
-    <row r="608" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="608" spans="1:25" outlineLevel="1">
       <c r="A608" s="9"/>
       <c r="B608" s="32" t="s">
         <v>860</v>
@@ -67746,11 +67944,11 @@
       <c r="N608" s="32">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="O608" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P608" s="36" t="s">
-        <v>151</v>
+      <c r="O608" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P608" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q608" s="36" t="s">
         <v>151</v>
@@ -67778,7 +67976,7 @@
       </c>
       <c r="Y608" s="48"/>
     </row>
-    <row r="609" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="609" spans="1:25" outlineLevel="1">
       <c r="A609" s="9"/>
       <c r="B609" s="32" t="s">
         <v>860</v>
@@ -67817,11 +68015,11 @@
       <c r="N609" s="32">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O609" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P609" s="36" t="s">
-        <v>151</v>
+      <c r="O609" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P609" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q609" s="36" t="s">
         <v>151</v>
@@ -67849,7 +68047,7 @@
       </c>
       <c r="Y609" s="48"/>
     </row>
-    <row r="610" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="610" spans="1:25" outlineLevel="1">
       <c r="A610" s="9"/>
       <c r="B610" s="32" t="s">
         <v>860</v>
@@ -67888,11 +68086,11 @@
       <c r="N610" s="32">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="O610" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P610" s="36" t="s">
-        <v>151</v>
+      <c r="O610" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P610" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q610" s="36" t="s">
         <v>151</v>
@@ -67920,7 +68118,7 @@
       </c>
       <c r="Y610" s="48"/>
     </row>
-    <row r="611" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="611" spans="1:25" outlineLevel="1">
       <c r="A611" s="9"/>
       <c r="B611" s="32" t="s">
         <v>865</v>
@@ -67953,17 +68151,17 @@
       <c r="L611" s="32">
         <v>1.0602</v>
       </c>
-      <c r="M611" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N611" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O611" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P611" s="36" t="s">
-        <v>151</v>
+      <c r="M611" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N611" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O611" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P611" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q611" s="36" t="s">
         <v>151</v>
@@ -67991,7 +68189,7 @@
       </c>
       <c r="Y611" s="48"/>
     </row>
-    <row r="612" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="612" spans="1:25" outlineLevel="1">
       <c r="A612" s="9"/>
       <c r="B612" s="32" t="s">
         <v>865</v>
@@ -68024,17 +68222,17 @@
       <c r="L612" s="32">
         <v>1.3609</v>
       </c>
-      <c r="M612" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N612" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O612" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P612" s="36" t="s">
-        <v>151</v>
+      <c r="M612" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N612" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O612" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P612" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q612" s="36" t="s">
         <v>151</v>
@@ -68062,7 +68260,7 @@
       </c>
       <c r="Y612" s="48"/>
     </row>
-    <row r="613" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="613" spans="1:25" outlineLevel="1">
       <c r="A613" s="9"/>
       <c r="B613" s="32" t="s">
         <v>865</v>
@@ -68095,17 +68293,17 @@
       <c r="L613" s="32">
         <v>1.3794999999999999</v>
       </c>
-      <c r="M613" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N613" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O613" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P613" s="36" t="s">
-        <v>151</v>
+      <c r="M613" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N613" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O613" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P613" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q613" s="36" t="s">
         <v>151</v>
@@ -68133,7 +68331,7 @@
       </c>
       <c r="Y613" s="48"/>
     </row>
-    <row r="614" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="614" spans="1:25" outlineLevel="1">
       <c r="A614" s="9"/>
       <c r="B614" s="32" t="s">
         <v>865</v>
@@ -68166,17 +68364,17 @@
       <c r="L614" s="32">
         <v>1.3112999999999999</v>
       </c>
-      <c r="M614" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N614" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O614" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P614" s="36" t="s">
-        <v>151</v>
+      <c r="M614" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N614" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O614" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P614" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q614" s="36" t="s">
         <v>151</v>
@@ -68204,7 +68402,7 @@
       </c>
       <c r="Y614" s="48"/>
     </row>
-    <row r="615" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="615" spans="1:25" outlineLevel="1">
       <c r="A615" s="9"/>
       <c r="B615" s="32" t="s">
         <v>865</v>
@@ -68237,17 +68435,17 @@
       <c r="L615" s="32">
         <v>0.93310000000000004</v>
       </c>
-      <c r="M615" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N615" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O615" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P615" s="36" t="s">
-        <v>151</v>
+      <c r="M615" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N615" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O615" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P615" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q615" s="36" t="s">
         <v>151</v>
@@ -68275,7 +68473,7 @@
       </c>
       <c r="Y615" s="48"/>
     </row>
-    <row r="616" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="616" spans="1:25" outlineLevel="1">
       <c r="A616" s="9"/>
       <c r="B616" s="32" t="s">
         <v>865</v>
@@ -68308,17 +68506,17 @@
       <c r="L616" s="32">
         <v>1.4446000000000001</v>
       </c>
-      <c r="M616" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N616" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O616" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P616" s="36" t="s">
-        <v>151</v>
+      <c r="M616" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N616" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O616" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P616" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q616" s="36" t="s">
         <v>151</v>
@@ -68346,7 +68544,7 @@
       </c>
       <c r="Y616" s="48"/>
     </row>
-    <row r="617" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="617" spans="1:25" outlineLevel="1">
       <c r="A617" s="9"/>
       <c r="B617" s="32" t="s">
         <v>865</v>
@@ -68379,17 +68577,17 @@
       <c r="L617" s="32">
         <v>1.4229000000000001</v>
       </c>
-      <c r="M617" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N617" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O617" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P617" s="36" t="s">
-        <v>151</v>
+      <c r="M617" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N617" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O617" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P617" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q617" s="36" t="s">
         <v>151</v>
@@ -68417,7 +68615,7 @@
       </c>
       <c r="Y617" s="48"/>
     </row>
-    <row r="618" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="618" spans="1:25" outlineLevel="1">
       <c r="A618" s="9"/>
       <c r="B618" s="32" t="s">
         <v>865</v>
@@ -68450,17 +68648,17 @@
       <c r="L618" s="32">
         <v>1.3702000000000001</v>
       </c>
-      <c r="M618" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N618" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O618" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P618" s="36" t="s">
-        <v>151</v>
+      <c r="M618" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N618" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O618" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P618" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q618" s="36" t="s">
         <v>151</v>
@@ -68488,7 +68686,7 @@
       </c>
       <c r="Y618" s="48"/>
     </row>
-    <row r="619" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="619" spans="1:25" outlineLevel="1">
       <c r="A619" s="9"/>
       <c r="B619" s="32" t="s">
         <v>865</v>
@@ -68521,17 +68719,17 @@
       <c r="L619" s="32">
         <v>1.0013000000000001</v>
       </c>
-      <c r="M619" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N619" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O619" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P619" s="36" t="s">
-        <v>151</v>
+      <c r="M619" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N619" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O619" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P619" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q619" s="36" t="s">
         <v>151</v>
@@ -68559,7 +68757,7 @@
       </c>
       <c r="Y619" s="48"/>
     </row>
-    <row r="620" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="620" spans="1:25" outlineLevel="1">
       <c r="A620" s="9"/>
       <c r="B620" s="32" t="s">
         <v>865</v>
@@ -68592,17 +68790,17 @@
       <c r="L620" s="32">
         <v>1.4601</v>
       </c>
-      <c r="M620" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N620" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O620" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P620" s="36" t="s">
-        <v>151</v>
+      <c r="M620" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N620" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O620" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P620" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q620" s="36" t="s">
         <v>151</v>
@@ -68630,7 +68828,7 @@
       </c>
       <c r="Y620" s="48"/>
     </row>
-    <row r="621" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="621" spans="1:25" outlineLevel="1">
       <c r="A621" s="9"/>
       <c r="B621" s="32" t="s">
         <v>865</v>
@@ -68663,17 +68861,17 @@
       <c r="L621" s="32">
         <v>1.0819000000000001</v>
       </c>
-      <c r="M621" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N621" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O621" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P621" s="36" t="s">
-        <v>151</v>
+      <c r="M621" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N621" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O621" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P621" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q621" s="36" t="s">
         <v>151</v>
@@ -68701,7 +68899,7 @@
       </c>
       <c r="Y621" s="48"/>
     </row>
-    <row r="622" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="622" spans="1:25" outlineLevel="1">
       <c r="A622" s="9"/>
       <c r="B622" s="32" t="s">
         <v>865</v>
@@ -68734,17 +68932,17 @@
       <c r="L622" s="32">
         <v>1.1222000000000001</v>
       </c>
-      <c r="M622" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N622" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O622" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P622" s="36" t="s">
-        <v>151</v>
+      <c r="M622" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N622" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O622" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P622" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q622" s="36" t="s">
         <v>151</v>
@@ -68772,7 +68970,7 @@
       </c>
       <c r="Y622" s="48"/>
     </row>
-    <row r="623" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="623" spans="1:25" outlineLevel="1">
       <c r="A623" s="9"/>
       <c r="B623" s="32" t="s">
         <v>870</v>
@@ -68805,17 +69003,17 @@
       <c r="L623" s="32">
         <v>1.0602</v>
       </c>
-      <c r="M623" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N623" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O623" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P623" s="36" t="s">
-        <v>151</v>
+      <c r="M623" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N623" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O623" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P623" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q623" s="36" t="s">
         <v>151</v>
@@ -68843,7 +69041,7 @@
       </c>
       <c r="Y623" s="48"/>
     </row>
-    <row r="624" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="624" spans="1:25" outlineLevel="1">
       <c r="A624" s="9"/>
       <c r="B624" s="32" t="s">
         <v>870</v>
@@ -68876,17 +69074,17 @@
       <c r="L624" s="32">
         <v>2.7404000000000002</v>
       </c>
-      <c r="M624" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N624" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O624" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P624" s="36" t="s">
-        <v>151</v>
+      <c r="M624" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N624" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O624" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P624" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q624" s="36" t="s">
         <v>151</v>
@@ -68914,7 +69112,7 @@
       </c>
       <c r="Y624" s="48"/>
     </row>
-    <row r="625" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="625" spans="1:25" outlineLevel="1">
       <c r="A625" s="9"/>
       <c r="B625" s="32" t="s">
         <v>870</v>
@@ -68947,17 +69145,17 @@
       <c r="L625" s="32">
         <v>3.4317000000000002</v>
       </c>
-      <c r="M625" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N625" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O625" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P625" s="36" t="s">
-        <v>151</v>
+      <c r="M625" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N625" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O625" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P625" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q625" s="36" t="s">
         <v>151</v>
@@ -68985,7 +69183,7 @@
       </c>
       <c r="Y625" s="48"/>
     </row>
-    <row r="626" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="626" spans="1:25" outlineLevel="1">
       <c r="A626" s="9"/>
       <c r="B626" s="32" t="s">
         <v>870</v>
@@ -69018,17 +69216,17 @@
       <c r="L626" s="32">
         <v>4.6035000000000004</v>
       </c>
-      <c r="M626" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N626" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O626" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P626" s="36" t="s">
-        <v>151</v>
+      <c r="M626" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N626" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O626" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P626" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q626" s="36" t="s">
         <v>151</v>
@@ -69056,7 +69254,7 @@
       </c>
       <c r="Y626" s="48"/>
     </row>
-    <row r="627" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="627" spans="1:25" outlineLevel="1">
       <c r="A627" s="9"/>
       <c r="B627" s="32" t="s">
         <v>870</v>
@@ -69089,17 +69287,17 @@
       <c r="L627" s="32">
         <v>1.3609</v>
       </c>
-      <c r="M627" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N627" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O627" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P627" s="36" t="s">
-        <v>151</v>
+      <c r="M627" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N627" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O627" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P627" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q627" s="36" t="s">
         <v>151</v>
@@ -69127,7 +69325,7 @@
       </c>
       <c r="Y627" s="48"/>
     </row>
-    <row r="628" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="628" spans="1:25" outlineLevel="1">
       <c r="A628" s="9"/>
       <c r="B628" s="32" t="s">
         <v>870</v>
@@ -69160,17 +69358,17 @@
       <c r="L628" s="32">
         <v>3.4317000000000002</v>
       </c>
-      <c r="M628" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N628" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O628" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P628" s="36" t="s">
-        <v>151</v>
+      <c r="M628" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N628" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O628" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P628" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q628" s="36" t="s">
         <v>151</v>
@@ -69198,7 +69396,7 @@
       </c>
       <c r="Y628" s="48"/>
     </row>
-    <row r="629" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="629" spans="1:25" outlineLevel="1">
       <c r="A629" s="9"/>
       <c r="B629" s="32" t="s">
         <v>870</v>
@@ -69231,17 +69429,17 @@
       <c r="L629" s="32">
         <v>4.6035000000000004</v>
       </c>
-      <c r="M629" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N629" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O629" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P629" s="36" t="s">
-        <v>151</v>
+      <c r="M629" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N629" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O629" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P629" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q629" s="36" t="s">
         <v>151</v>
@@ -69269,7 +69467,7 @@
       </c>
       <c r="Y629" s="48"/>
     </row>
-    <row r="630" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="630" spans="1:25" outlineLevel="1">
       <c r="A630" s="9"/>
       <c r="B630" s="32" t="s">
         <v>870</v>
@@ -69302,17 +69500,17 @@
       <c r="L630" s="32">
         <v>3.4317000000000002</v>
       </c>
-      <c r="M630" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N630" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O630" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P630" s="36" t="s">
-        <v>151</v>
+      <c r="M630" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N630" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O630" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P630" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q630" s="36" t="s">
         <v>151</v>
@@ -69340,7 +69538,7 @@
       </c>
       <c r="Y630" s="48"/>
     </row>
-    <row r="631" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="631" spans="1:25" outlineLevel="1">
       <c r="A631" s="9"/>
       <c r="B631" s="32" t="s">
         <v>870</v>
@@ -69373,17 +69571,17 @@
       <c r="L631" s="32">
         <v>4.6035000000000004</v>
       </c>
-      <c r="M631" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N631" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O631" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P631" s="36" t="s">
-        <v>151</v>
+      <c r="M631" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N631" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O631" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P631" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q631" s="36" t="s">
         <v>151</v>
@@ -69411,7 +69609,7 @@
       </c>
       <c r="Y631" s="48"/>
     </row>
-    <row r="632" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="632" spans="1:25" outlineLevel="1">
       <c r="A632" s="9"/>
       <c r="B632" s="32" t="s">
         <v>870</v>
@@ -69444,17 +69642,17 @@
       <c r="L632" s="32">
         <v>1.3794999999999999</v>
       </c>
-      <c r="M632" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N632" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O632" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P632" s="36" t="s">
-        <v>151</v>
+      <c r="M632" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N632" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O632" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P632" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q632" s="36" t="s">
         <v>151</v>
@@ -69482,7 +69680,7 @@
       </c>
       <c r="Y632" s="48"/>
     </row>
-    <row r="633" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="633" spans="1:25" outlineLevel="1">
       <c r="A633" s="9"/>
       <c r="B633" s="32" t="s">
         <v>870</v>
@@ -69515,17 +69713,17 @@
       <c r="L633" s="32">
         <v>3.4317000000000002</v>
       </c>
-      <c r="M633" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N633" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O633" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P633" s="36" t="s">
-        <v>151</v>
+      <c r="M633" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N633" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O633" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P633" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q633" s="36" t="s">
         <v>151</v>
@@ -69553,7 +69751,7 @@
       </c>
       <c r="Y633" s="48"/>
     </row>
-    <row r="634" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="634" spans="1:25" outlineLevel="1">
       <c r="A634" s="9"/>
       <c r="B634" s="32" t="s">
         <v>870</v>
@@ -69586,17 +69784,17 @@
       <c r="L634" s="32">
         <v>1.3112999999999999</v>
       </c>
-      <c r="M634" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N634" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O634" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P634" s="36" t="s">
-        <v>151</v>
+      <c r="M634" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N634" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O634" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P634" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q634" s="36" t="s">
         <v>151</v>
@@ -69624,7 +69822,7 @@
       </c>
       <c r="Y634" s="48"/>
     </row>
-    <row r="635" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="635" spans="1:25" outlineLevel="1">
       <c r="A635" s="9"/>
       <c r="B635" s="32" t="s">
         <v>870</v>
@@ -69657,17 +69855,17 @@
       <c r="L635" s="32">
         <v>0.93310000000000004</v>
       </c>
-      <c r="M635" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N635" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O635" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P635" s="36" t="s">
-        <v>151</v>
+      <c r="M635" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N635" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O635" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P635" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q635" s="36" t="s">
         <v>151</v>
@@ -69695,7 +69893,7 @@
       </c>
       <c r="Y635" s="48"/>
     </row>
-    <row r="636" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="636" spans="1:25" outlineLevel="1">
       <c r="A636" s="9"/>
       <c r="B636" s="32" t="s">
         <v>870</v>
@@ -69728,17 +69926,17 @@
       <c r="L636" s="32">
         <v>2.7993000000000001</v>
       </c>
-      <c r="M636" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N636" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O636" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P636" s="36" t="s">
-        <v>151</v>
+      <c r="M636" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N636" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O636" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P636" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q636" s="36" t="s">
         <v>151</v>
@@ -69766,7 +69964,7 @@
       </c>
       <c r="Y636" s="48"/>
     </row>
-    <row r="637" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="637" spans="1:25" outlineLevel="1">
       <c r="A637" s="9"/>
       <c r="B637" s="32" t="s">
         <v>870</v>
@@ -69799,17 +69997,17 @@
       <c r="L637" s="32">
         <v>1.4446000000000001</v>
       </c>
-      <c r="M637" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N637" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O637" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P637" s="36" t="s">
-        <v>151</v>
+      <c r="M637" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N637" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O637" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P637" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q637" s="36" t="s">
         <v>151</v>
@@ -69837,7 +70035,7 @@
       </c>
       <c r="Y637" s="48"/>
     </row>
-    <row r="638" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="638" spans="1:25" outlineLevel="1">
       <c r="A638" s="9"/>
       <c r="B638" s="32" t="s">
         <v>870</v>
@@ -69870,17 +70068,17 @@
       <c r="L638" s="32">
         <v>1.4229000000000001</v>
       </c>
-      <c r="M638" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N638" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O638" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P638" s="36" t="s">
-        <v>151</v>
+      <c r="M638" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N638" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O638" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P638" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q638" s="36" t="s">
         <v>151</v>
@@ -69908,7 +70106,7 @@
       </c>
       <c r="Y638" s="48"/>
     </row>
-    <row r="639" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="639" spans="1:25" outlineLevel="1">
       <c r="A639" s="9"/>
       <c r="B639" s="32" t="s">
         <v>870</v>
@@ -69941,17 +70139,17 @@
       <c r="L639" s="32">
         <v>1.3702000000000001</v>
       </c>
-      <c r="M639" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N639" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O639" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P639" s="36" t="s">
-        <v>151</v>
+      <c r="M639" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N639" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O639" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P639" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q639" s="36" t="s">
         <v>151</v>
@@ -69979,7 +70177,7 @@
       </c>
       <c r="Y639" s="48"/>
     </row>
-    <row r="640" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="640" spans="1:25" outlineLevel="1">
       <c r="A640" s="9"/>
       <c r="B640" s="32" t="s">
         <v>870</v>
@@ -70012,17 +70210,17 @@
       <c r="L640" s="32">
         <v>1.0013000000000001</v>
       </c>
-      <c r="M640" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N640" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O640" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P640" s="36" t="s">
-        <v>151</v>
+      <c r="M640" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N640" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O640" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P640" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q640" s="36" t="s">
         <v>151</v>
@@ -70050,7 +70248,7 @@
       </c>
       <c r="Y640" s="48"/>
     </row>
-    <row r="641" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="641" spans="1:25" outlineLevel="1">
       <c r="A641" s="9"/>
       <c r="B641" s="32" t="s">
         <v>870</v>
@@ -70083,17 +70281,17 @@
       <c r="L641" s="32">
         <v>3.5185</v>
       </c>
-      <c r="M641" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N641" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O641" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P641" s="36" t="s">
-        <v>151</v>
+      <c r="M641" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N641" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O641" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P641" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q641" s="36" t="s">
         <v>151</v>
@@ -70121,7 +70319,7 @@
       </c>
       <c r="Y641" s="48"/>
     </row>
-    <row r="642" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="642" spans="1:25" outlineLevel="1">
       <c r="A642" s="9"/>
       <c r="B642" s="32" t="s">
         <v>870</v>
@@ -70154,17 +70352,17 @@
       <c r="L642" s="32">
         <v>1.4601</v>
       </c>
-      <c r="M642" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N642" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O642" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P642" s="36" t="s">
-        <v>151</v>
+      <c r="M642" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N642" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O642" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P642" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q642" s="36" t="s">
         <v>151</v>
@@ -70192,7 +70390,7 @@
       </c>
       <c r="Y642" s="48"/>
     </row>
-    <row r="643" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="643" spans="1:25" outlineLevel="1">
       <c r="A643" s="9"/>
       <c r="B643" s="32" t="s">
         <v>870</v>
@@ -70225,17 +70423,17 @@
       <c r="L643" s="32">
         <v>1.0819000000000001</v>
       </c>
-      <c r="M643" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N643" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O643" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P643" s="36" t="s">
-        <v>151</v>
+      <c r="M643" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N643" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O643" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P643" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q643" s="36" t="s">
         <v>151</v>
@@ -70263,7 +70461,7 @@
       </c>
       <c r="Y643" s="48"/>
     </row>
-    <row r="644" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="644" spans="1:25" outlineLevel="1">
       <c r="A644" s="9"/>
       <c r="B644" s="32" t="s">
         <v>870</v>
@@ -70296,17 +70494,17 @@
       <c r="L644" s="32">
         <v>1.1222000000000001</v>
       </c>
-      <c r="M644" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N644" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O644" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P644" s="36" t="s">
-        <v>151</v>
+      <c r="M644" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N644" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O644" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P644" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q644" s="36" t="s">
         <v>151</v>
@@ -70334,7 +70532,7 @@
       </c>
       <c r="Y644" s="48"/>
     </row>
-    <row r="645" spans="1:25" ht="29" hidden="1" outlineLevel="1">
+    <row r="645" spans="1:25" ht="29" outlineLevel="1">
       <c r="A645" s="9"/>
       <c r="B645" s="32" t="s">
         <v>875</v>
@@ -70367,17 +70565,17 @@
       <c r="L645" s="32">
         <v>1.02</v>
       </c>
-      <c r="M645" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N645" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O645" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P645" s="36" t="s">
-        <v>151</v>
+      <c r="M645" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N645" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O645" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P645" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q645" s="36" t="s">
         <v>151</v>
@@ -70405,7 +70603,7 @@
       </c>
       <c r="Y645" s="48"/>
     </row>
-    <row r="646" spans="1:25" ht="29" hidden="1" outlineLevel="1">
+    <row r="646" spans="1:25" ht="29" outlineLevel="1">
       <c r="A646" s="9"/>
       <c r="B646" s="32" t="s">
         <v>875</v>
@@ -70438,17 +70636,17 @@
       <c r="L646" s="32">
         <v>0.26</v>
       </c>
-      <c r="M646" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N646" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O646" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P646" s="36" t="s">
-        <v>151</v>
+      <c r="M646" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N646" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O646" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P646" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q646" s="36" t="s">
         <v>151</v>
@@ -70476,7 +70674,7 @@
       </c>
       <c r="Y646" s="48"/>
     </row>
-    <row r="647" spans="1:25" ht="29" hidden="1" outlineLevel="1">
+    <row r="647" spans="1:25" ht="29" outlineLevel="1">
       <c r="A647" s="9"/>
       <c r="B647" s="32" t="s">
         <v>875</v>
@@ -70509,17 +70707,17 @@
       <c r="L647" s="32">
         <v>0.42</v>
       </c>
-      <c r="M647" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N647" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O647" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P647" s="36" t="s">
-        <v>151</v>
+      <c r="M647" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N647" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O647" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P647" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q647" s="36" t="s">
         <v>151</v>
@@ -70547,7 +70745,7 @@
       </c>
       <c r="Y647" s="48"/>
     </row>
-    <row r="648" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="648" spans="1:25" outlineLevel="1">
       <c r="A648" s="9"/>
       <c r="B648" s="32" t="s">
         <v>875</v>
@@ -70580,17 +70778,17 @@
       <c r="L648" s="32">
         <v>0.54</v>
       </c>
-      <c r="M648" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N648" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O648" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P648" s="36" t="s">
-        <v>151</v>
+      <c r="M648" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N648" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O648" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P648" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q648" s="36" t="s">
         <v>151</v>
@@ -70618,7 +70816,7 @@
       </c>
       <c r="Y648" s="48"/>
     </row>
-    <row r="649" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="649" spans="1:25" outlineLevel="1">
       <c r="A649" s="9"/>
       <c r="B649" s="32" t="s">
         <v>875</v>
@@ -70651,17 +70849,17 @@
       <c r="L649" s="32">
         <v>0.12</v>
       </c>
-      <c r="M649" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N649" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O649" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P649" s="36" t="s">
-        <v>151</v>
+      <c r="M649" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N649" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O649" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P649" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q649" s="36" t="s">
         <v>151</v>
@@ -70689,7 +70887,7 @@
       </c>
       <c r="Y649" s="48"/>
     </row>
-    <row r="650" spans="1:25" ht="29" hidden="1" outlineLevel="1">
+    <row r="650" spans="1:25" ht="29" outlineLevel="1">
       <c r="A650" s="9"/>
       <c r="B650" s="32" t="s">
         <v>875</v>
@@ -70722,17 +70920,17 @@
       <c r="L650" s="32">
         <v>0.57999999999999996</v>
       </c>
-      <c r="M650" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N650" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O650" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P650" s="36" t="s">
-        <v>151</v>
+      <c r="M650" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N650" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O650" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P650" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q650" s="36" t="s">
         <v>151</v>
@@ -70760,7 +70958,7 @@
       </c>
       <c r="Y650" s="48"/>
     </row>
-    <row r="651" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="651" spans="1:25" outlineLevel="1">
       <c r="A651" s="9"/>
       <c r="B651" s="32" t="s">
         <v>875</v>
@@ -70793,17 +70991,17 @@
       <c r="L651" s="32">
         <v>0.48</v>
       </c>
-      <c r="M651" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N651" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O651" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P651" s="36" t="s">
-        <v>151</v>
+      <c r="M651" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N651" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O651" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P651" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q651" s="36" t="s">
         <v>151</v>
@@ -70831,7 +71029,7 @@
       </c>
       <c r="Y651" s="48"/>
     </row>
-    <row r="652" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="652" spans="1:25" outlineLevel="1">
       <c r="A652" s="9"/>
       <c r="B652" s="32" t="s">
         <v>875</v>
@@ -70864,17 +71062,17 @@
       <c r="L652" s="32">
         <v>0.46</v>
       </c>
-      <c r="M652" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N652" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O652" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P652" s="36" t="s">
-        <v>151</v>
+      <c r="M652" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N652" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O652" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P652" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q652" s="36" t="s">
         <v>151</v>
@@ -70902,7 +71100,7 @@
       </c>
       <c r="Y652" s="48"/>
     </row>
-    <row r="653" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="653" spans="1:25" outlineLevel="1">
       <c r="A653" s="9"/>
       <c r="B653" s="32" t="s">
         <v>875</v>
@@ -70935,17 +71133,17 @@
       <c r="L653" s="32">
         <v>0.87</v>
       </c>
-      <c r="M653" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N653" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O653" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P653" s="36" t="s">
-        <v>151</v>
+      <c r="M653" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N653" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O653" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P653" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q653" s="36" t="s">
         <v>151</v>
@@ -70973,7 +71171,7 @@
       </c>
       <c r="Y653" s="48"/>
     </row>
-    <row r="654" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="654" spans="1:25" outlineLevel="1">
       <c r="A654" s="9"/>
       <c r="B654" s="32" t="s">
         <v>875</v>
@@ -71006,17 +71204,17 @@
       <c r="L654" s="32">
         <v>0.41</v>
       </c>
-      <c r="M654" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N654" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O654" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P654" s="36" t="s">
-        <v>151</v>
+      <c r="M654" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N654" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O654" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P654" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q654" s="36" t="s">
         <v>151</v>
@@ -71044,7 +71242,7 @@
       </c>
       <c r="Y654" s="48"/>
     </row>
-    <row r="655" spans="1:25" ht="29" hidden="1" outlineLevel="1">
+    <row r="655" spans="1:25" ht="29" outlineLevel="1">
       <c r="A655" s="9"/>
       <c r="B655" s="32" t="s">
         <v>875</v>
@@ -71077,17 +71275,17 @@
       <c r="L655" s="32">
         <v>1.53</v>
       </c>
-      <c r="M655" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N655" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O655" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P655" s="36" t="s">
-        <v>151</v>
+      <c r="M655" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N655" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O655" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P655" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q655" s="36" t="s">
         <v>151</v>
@@ -71115,7 +71313,7 @@
       </c>
       <c r="Y655" s="48"/>
     </row>
-    <row r="656" spans="1:25" ht="29" hidden="1" outlineLevel="1">
+    <row r="656" spans="1:25" ht="29" outlineLevel="1">
       <c r="A656" s="9"/>
       <c r="B656" s="32" t="s">
         <v>875</v>
@@ -71148,17 +71346,17 @@
       <c r="L656" s="32">
         <v>1.25</v>
       </c>
-      <c r="M656" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N656" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O656" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P656" s="36" t="s">
-        <v>151</v>
+      <c r="M656" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N656" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O656" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P656" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q656" s="36" t="s">
         <v>151</v>
@@ -71186,7 +71384,7 @@
       </c>
       <c r="Y656" s="48"/>
     </row>
-    <row r="657" spans="1:25" ht="29" hidden="1" outlineLevel="1">
+    <row r="657" spans="1:25" ht="29" outlineLevel="1">
       <c r="A657" s="9"/>
       <c r="B657" s="32" t="s">
         <v>875</v>
@@ -71219,17 +71417,17 @@
       <c r="L657" s="32">
         <v>1.71</v>
       </c>
-      <c r="M657" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N657" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O657" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P657" s="36" t="s">
-        <v>151</v>
+      <c r="M657" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N657" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O657" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P657" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q657" s="36" t="s">
         <v>151</v>
@@ -71257,7 +71455,7 @@
       </c>
       <c r="Y657" s="48"/>
     </row>
-    <row r="658" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="658" spans="1:25" outlineLevel="1">
       <c r="A658" s="9"/>
       <c r="B658" s="32" t="s">
         <v>875</v>
@@ -71290,17 +71488,17 @@
       <c r="L658" s="32">
         <v>1.63</v>
       </c>
-      <c r="M658" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N658" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O658" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P658" s="36" t="s">
-        <v>151</v>
+      <c r="M658" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N658" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O658" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P658" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q658" s="36" t="s">
         <v>151</v>
@@ -71328,7 +71526,7 @@
       </c>
       <c r="Y658" s="48"/>
     </row>
-    <row r="659" spans="1:25" ht="29" hidden="1" outlineLevel="1">
+    <row r="659" spans="1:25" ht="29" outlineLevel="1">
       <c r="A659" s="9"/>
       <c r="B659" s="32" t="s">
         <v>875</v>
@@ -71361,17 +71559,17 @@
       <c r="L659" s="32">
         <v>0.23</v>
       </c>
-      <c r="M659" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N659" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O659" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P659" s="36" t="s">
-        <v>151</v>
+      <c r="M659" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N659" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O659" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P659" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q659" s="36" t="s">
         <v>151</v>
@@ -71399,7 +71597,7 @@
       </c>
       <c r="Y659" s="48"/>
     </row>
-    <row r="660" spans="1:25" ht="29" hidden="1" outlineLevel="1">
+    <row r="660" spans="1:25" ht="29" outlineLevel="1">
       <c r="A660" s="9"/>
       <c r="B660" s="32" t="s">
         <v>875</v>
@@ -71432,17 +71630,17 @@
       <c r="L660" s="32">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M660" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N660" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O660" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P660" s="36" t="s">
-        <v>151</v>
+      <c r="M660" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N660" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O660" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P660" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q660" s="36" t="s">
         <v>151</v>
@@ -71470,7 +71668,7 @@
       </c>
       <c r="Y660" s="48"/>
     </row>
-    <row r="661" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="661" spans="1:25" outlineLevel="1">
       <c r="A661" s="9"/>
       <c r="B661" s="32" t="s">
         <v>875</v>
@@ -71503,17 +71701,17 @@
       <c r="L661" s="32">
         <v>0.35</v>
       </c>
-      <c r="M661" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N661" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O661" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P661" s="36" t="s">
-        <v>151</v>
+      <c r="M661" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N661" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O661" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P661" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q661" s="36" t="s">
         <v>151</v>
@@ -71541,7 +71739,7 @@
       </c>
       <c r="Y661" s="48"/>
     </row>
-    <row r="662" spans="1:25" ht="29" hidden="1" outlineLevel="1">
+    <row r="662" spans="1:25" ht="29" outlineLevel="1">
       <c r="A662" s="9"/>
       <c r="B662" s="32" t="s">
         <v>875</v>
@@ -71574,17 +71772,17 @@
       <c r="L662" s="32">
         <v>0.22</v>
       </c>
-      <c r="M662" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N662" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O662" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P662" s="36" t="s">
-        <v>151</v>
+      <c r="M662" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N662" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O662" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P662" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q662" s="36" t="s">
         <v>151</v>
@@ -71612,7 +71810,7 @@
       </c>
       <c r="Y662" s="48"/>
     </row>
-    <row r="663" spans="1:25" ht="29" hidden="1" outlineLevel="1">
+    <row r="663" spans="1:25" ht="29" outlineLevel="1">
       <c r="A663" s="9"/>
       <c r="B663" s="32" t="s">
         <v>875</v>
@@ -71645,17 +71843,17 @@
       <c r="L663" s="32">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M663" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N663" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O663" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P663" s="36" t="s">
-        <v>151</v>
+      <c r="M663" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N663" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O663" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P663" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q663" s="36" t="s">
         <v>151</v>
@@ -71683,7 +71881,7 @@
       </c>
       <c r="Y663" s="48"/>
     </row>
-    <row r="664" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="664" spans="1:25" outlineLevel="1">
       <c r="A664" s="9"/>
       <c r="B664" s="32" t="s">
         <v>875</v>
@@ -71716,17 +71914,17 @@
       <c r="L664" s="32">
         <v>0.54</v>
       </c>
-      <c r="M664" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N664" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O664" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P664" s="36" t="s">
-        <v>151</v>
+      <c r="M664" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N664" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O664" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P664" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q664" s="36" t="s">
         <v>151</v>
@@ -71754,7 +71952,7 @@
       </c>
       <c r="Y664" s="48"/>
     </row>
-    <row r="665" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="665" spans="1:25" outlineLevel="1">
       <c r="A665" s="9"/>
       <c r="B665" s="32" t="s">
         <v>890</v>
@@ -71787,17 +71985,17 @@
       <c r="L665" s="32">
         <v>1.2625</v>
       </c>
-      <c r="M665" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N665" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O665" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P665" s="36" t="s">
-        <v>151</v>
+      <c r="M665" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N665" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O665" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P665" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q665" s="36" t="s">
         <v>151</v>
@@ -71825,7 +72023,7 @@
       </c>
       <c r="Y665" s="48"/>
     </row>
-    <row r="666" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="666" spans="1:25" outlineLevel="1">
       <c r="A666" s="9"/>
       <c r="B666" s="32" t="s">
         <v>890</v>
@@ -71858,17 +72056,17 @@
       <c r="L666" s="32">
         <v>1.68</v>
       </c>
-      <c r="M666" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N666" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O666" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P666" s="36" t="s">
-        <v>151</v>
+      <c r="M666" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N666" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O666" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P666" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q666" s="36" t="s">
         <v>151</v>
@@ -71896,7 +72094,7 @@
       </c>
       <c r="Y666" s="48"/>
     </row>
-    <row r="667" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="667" spans="1:25" outlineLevel="1">
       <c r="A667" s="9"/>
       <c r="B667" s="32" t="s">
         <v>890</v>
@@ -71929,17 +72127,17 @@
       <c r="L667" s="32">
         <v>6.92</v>
       </c>
-      <c r="M667" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N667" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O667" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P667" s="36" t="s">
-        <v>151</v>
+      <c r="M667" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N667" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O667" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P667" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q667" s="36" t="s">
         <v>151</v>
@@ -71967,7 +72165,7 @@
       </c>
       <c r="Y667" s="48"/>
     </row>
-    <row r="668" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="668" spans="1:25" outlineLevel="1">
       <c r="A668" s="9"/>
       <c r="B668" s="32" t="s">
         <v>890</v>
@@ -72000,17 +72198,17 @@
       <c r="L668" s="32">
         <v>8.18</v>
       </c>
-      <c r="M668" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N668" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O668" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P668" s="36" t="s">
-        <v>151</v>
+      <c r="M668" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N668" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O668" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P668" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q668" s="36" t="s">
         <v>151</v>
@@ -72038,7 +72236,7 @@
       </c>
       <c r="Y668" s="48"/>
     </row>
-    <row r="669" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="669" spans="1:25" outlineLevel="1">
       <c r="A669" s="9"/>
       <c r="B669" s="32" t="s">
         <v>890</v>
@@ -72071,17 +72269,17 @@
       <c r="L669" s="32">
         <v>6.7525000000000004</v>
       </c>
-      <c r="M669" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N669" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O669" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P669" s="36" t="s">
-        <v>151</v>
+      <c r="M669" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N669" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O669" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P669" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q669" s="36" t="s">
         <v>151</v>
@@ -72109,7 +72307,7 @@
       </c>
       <c r="Y669" s="48"/>
     </row>
-    <row r="670" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="670" spans="1:25" outlineLevel="1">
       <c r="A670" s="9"/>
       <c r="B670" s="32" t="s">
         <v>890</v>
@@ -72142,17 +72340,17 @@
       <c r="L670" s="32">
         <v>7.17</v>
       </c>
-      <c r="M670" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N670" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O670" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P670" s="36" t="s">
-        <v>151</v>
+      <c r="M670" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N670" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O670" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P670" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q670" s="36" t="s">
         <v>151</v>
@@ -72180,7 +72378,7 @@
       </c>
       <c r="Y670" s="48"/>
     </row>
-    <row r="671" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="671" spans="1:25" outlineLevel="1">
       <c r="A671" s="9"/>
       <c r="B671" s="32" t="s">
         <v>890</v>
@@ -72213,17 +72411,17 @@
       <c r="L671" s="32">
         <v>10.51</v>
       </c>
-      <c r="M671" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N671" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O671" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P671" s="36" t="s">
-        <v>151</v>
+      <c r="M671" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N671" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O671" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P671" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q671" s="36" t="s">
         <v>151</v>
@@ -72251,7 +72449,7 @@
       </c>
       <c r="Y671" s="48"/>
     </row>
-    <row r="672" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="672" spans="1:25" outlineLevel="1">
       <c r="A672" s="9"/>
       <c r="B672" s="32" t="s">
         <v>890</v>
@@ -72284,17 +72482,17 @@
       <c r="L672" s="32">
         <v>11.77</v>
       </c>
-      <c r="M672" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N672" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O672" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P672" s="36" t="s">
-        <v>151</v>
+      <c r="M672" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N672" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O672" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P672" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q672" s="36" t="s">
         <v>151</v>
@@ -72322,7 +72520,7 @@
       </c>
       <c r="Y672" s="48"/>
     </row>
-    <row r="673" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="673" spans="1:25" outlineLevel="1">
       <c r="A673" s="9"/>
       <c r="B673" s="32" t="s">
         <v>890</v>
@@ -72355,17 +72553,17 @@
       <c r="L673" s="32">
         <v>2.2225000000000001</v>
       </c>
-      <c r="M673" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N673" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O673" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P673" s="36" t="s">
-        <v>151</v>
+      <c r="M673" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N673" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O673" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P673" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q673" s="36" t="s">
         <v>151</v>
@@ -72393,7 +72591,7 @@
       </c>
       <c r="Y673" s="48"/>
     </row>
-    <row r="674" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="674" spans="1:25" outlineLevel="1">
       <c r="A674" s="9"/>
       <c r="B674" s="32" t="s">
         <v>890</v>
@@ -72426,17 +72624,17 @@
       <c r="L674" s="32">
         <v>2.64</v>
       </c>
-      <c r="M674" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N674" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O674" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P674" s="36" t="s">
-        <v>151</v>
+      <c r="M674" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N674" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O674" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P674" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q674" s="36" t="s">
         <v>151</v>
@@ -72464,7 +72662,7 @@
       </c>
       <c r="Y674" s="48"/>
     </row>
-    <row r="675" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="675" spans="1:25" outlineLevel="1">
       <c r="A675" s="9"/>
       <c r="B675" s="32" t="s">
         <v>890</v>
@@ -72497,17 +72695,17 @@
       <c r="L675" s="32">
         <v>6.35</v>
       </c>
-      <c r="M675" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N675" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O675" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P675" s="36" t="s">
-        <v>151</v>
+      <c r="M675" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N675" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O675" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P675" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q675" s="36" t="s">
         <v>151</v>
@@ -72535,7 +72733,7 @@
       </c>
       <c r="Y675" s="48"/>
     </row>
-    <row r="676" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="676" spans="1:25" outlineLevel="1">
       <c r="A676" s="9"/>
       <c r="B676" s="32" t="s">
         <v>890</v>
@@ -72568,17 +72766,17 @@
       <c r="L676" s="32">
         <v>7.61</v>
       </c>
-      <c r="M676" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N676" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O676" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P676" s="36" t="s">
-        <v>151</v>
+      <c r="M676" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N676" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O676" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P676" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q676" s="36" t="s">
         <v>151</v>
@@ -72606,7 +72804,7 @@
       </c>
       <c r="Y676" s="48"/>
     </row>
-    <row r="677" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="677" spans="1:25" outlineLevel="1">
       <c r="A677" s="9"/>
       <c r="B677" s="32" t="s">
         <v>890</v>
@@ -72639,17 +72837,17 @@
       <c r="L677" s="32">
         <v>3.3725000000000001</v>
       </c>
-      <c r="M677" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N677" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O677" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P677" s="36" t="s">
-        <v>151</v>
+      <c r="M677" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N677" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O677" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P677" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q677" s="36" t="s">
         <v>151</v>
@@ -72677,7 +72875,7 @@
       </c>
       <c r="Y677" s="48"/>
     </row>
-    <row r="678" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="678" spans="1:25" outlineLevel="1">
       <c r="A678" s="9"/>
       <c r="B678" s="32" t="s">
         <v>890</v>
@@ -72710,17 +72908,17 @@
       <c r="L678" s="32">
         <v>3.79</v>
       </c>
-      <c r="M678" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N678" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O678" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P678" s="36" t="s">
-        <v>151</v>
+      <c r="M678" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N678" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O678" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P678" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q678" s="36" t="s">
         <v>151</v>
@@ -72748,7 +72946,7 @@
       </c>
       <c r="Y678" s="48"/>
     </row>
-    <row r="679" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="679" spans="1:25" outlineLevel="1">
       <c r="A679" s="9"/>
       <c r="B679" s="32" t="s">
         <v>890</v>
@@ -72781,17 +72979,17 @@
       <c r="L679" s="32">
         <v>5.9</v>
       </c>
-      <c r="M679" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N679" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O679" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P679" s="36" t="s">
-        <v>151</v>
+      <c r="M679" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N679" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O679" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P679" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q679" s="36" t="s">
         <v>151</v>
@@ -72819,7 +73017,7 @@
       </c>
       <c r="Y679" s="48"/>
     </row>
-    <row r="680" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="680" spans="1:25" outlineLevel="1">
       <c r="A680" s="9"/>
       <c r="B680" s="32" t="s">
         <v>890</v>
@@ -72852,17 +73050,17 @@
       <c r="L680" s="32">
         <v>7.16</v>
       </c>
-      <c r="M680" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N680" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O680" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P680" s="36" t="s">
-        <v>151</v>
+      <c r="M680" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N680" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O680" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P680" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q680" s="36" t="s">
         <v>151</v>
@@ -72890,7 +73088,7 @@
       </c>
       <c r="Y680" s="48"/>
     </row>
-    <row r="681" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="681" spans="1:25" outlineLevel="1">
       <c r="A681" s="9"/>
       <c r="B681" s="32" t="s">
         <v>894</v>
@@ -72923,17 +73121,17 @@
       <c r="L681" s="32">
         <v>4.5901639339999996</v>
       </c>
-      <c r="M681" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N681" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O681" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P681" s="36" t="s">
-        <v>151</v>
+      <c r="M681" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N681" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O681" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P681" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q681" s="36" t="s">
         <v>151</v>
@@ -72961,7 +73159,7 @@
       </c>
       <c r="Y681" s="48"/>
     </row>
-    <row r="682" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="682" spans="1:25" outlineLevel="1">
       <c r="A682" s="9"/>
       <c r="B682" s="32" t="s">
         <v>894</v>
@@ -72994,17 +73192,17 @@
       <c r="L682" s="32">
         <v>4.9538461539999998</v>
       </c>
-      <c r="M682" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N682" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O682" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P682" s="36" t="s">
-        <v>151</v>
+      <c r="M682" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N682" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O682" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P682" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q682" s="36" t="s">
         <v>151</v>
@@ -73032,7 +73230,7 @@
       </c>
       <c r="Y682" s="48"/>
     </row>
-    <row r="683" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="683" spans="1:25" outlineLevel="1">
       <c r="A683" s="9"/>
       <c r="B683" s="32" t="s">
         <v>894</v>
@@ -73065,17 +73263,17 @@
       <c r="L683" s="32">
         <v>3.3733333330000002</v>
       </c>
-      <c r="M683" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N683" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O683" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P683" s="36" t="s">
-        <v>151</v>
+      <c r="M683" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N683" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O683" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P683" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q683" s="36" t="s">
         <v>151</v>
@@ -73103,7 +73301,7 @@
       </c>
       <c r="Y683" s="48"/>
     </row>
-    <row r="684" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="684" spans="1:25" outlineLevel="1">
       <c r="A684" s="9"/>
       <c r="B684" s="32" t="s">
         <v>895</v>
@@ -73142,11 +73340,11 @@
       <c r="N684" s="32">
         <v>1.1609999999999999E-3</v>
       </c>
-      <c r="O684" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P684" s="36" t="s">
-        <v>151</v>
+      <c r="O684" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P684" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q684" s="36" t="s">
         <v>151</v>
@@ -73174,7 +73372,7 @@
       </c>
       <c r="Y684" s="25"/>
     </row>
-    <row r="685" spans="1:25" hidden="1" outlineLevel="1">
+    <row r="685" spans="1:25" outlineLevel="1">
       <c r="A685" s="9"/>
       <c r="B685" s="32" t="s">
         <v>897</v>
@@ -73213,11 +73411,11 @@
       <c r="N685" s="32">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O685" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P685" s="36" t="s">
-        <v>151</v>
+      <c r="O685" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P685" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q685" s="36" t="s">
         <v>151</v>
@@ -73245,7 +73443,7 @@
       </c>
       <c r="Y685" s="48"/>
     </row>
-    <row r="686" spans="1:25" ht="15.5" hidden="1" outlineLevel="1">
+    <row r="686" spans="1:25" ht="15.5" outlineLevel="1">
       <c r="A686" s="9"/>
       <c r="B686" s="9" t="s">
         <v>898</v>
@@ -73286,11 +73484,11 @@
       <c r="N686" s="87">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="O686" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P686" s="36" t="s">
-        <v>151</v>
+      <c r="O686" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P686" s="43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q686" s="36" t="s">
         <v>151</v>
@@ -73317,7 +73515,6 @@
         <v>151</v>
       </c>
     </row>
-    <row r="687" spans="1:25" collapsed="1"/>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="Y126:Z126"/>

--- a/AgImpacts_Raw_Data.xlsx
+++ b/AgImpacts_Raw_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anush\Documents\MIT\TerraELO\WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112FB465-6085-4436-B754-040032504616}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73984902-0668-40DE-8695-C53CE2537332}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16780" windowHeight="5300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4236,15 +4236,15 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4902,8 +4902,8 @@
   <dimension ref="A1:CZ692"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D693" sqref="D693"/>
+      <pane ySplit="2" topLeftCell="A692" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A387" sqref="A387:A391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -5945,11 +5945,11 @@
       <c r="AD6" s="65">
         <v>0.4</v>
       </c>
-      <c r="AE6" s="110">
+      <c r="AE6" s="114">
         <v>0.6</v>
       </c>
-      <c r="AF6" s="110"/>
-      <c r="AG6" s="110"/>
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
       <c r="AH6" s="67">
         <v>0.09</v>
       </c>
@@ -18769,10 +18769,10 @@
       <c r="Q53" s="103">
         <v>913</v>
       </c>
-      <c r="Y53" s="110">
+      <c r="Y53" s="114">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z53" s="110"/>
+      <c r="Z53" s="114"/>
       <c r="AA53" s="65">
         <v>0</v>
       </c>
@@ -19041,10 +19041,10 @@
       <c r="Q54" s="103">
         <v>983</v>
       </c>
-      <c r="Y54" s="110">
+      <c r="Y54" s="114">
         <v>1.2</v>
       </c>
-      <c r="Z54" s="110"/>
+      <c r="Z54" s="114"/>
       <c r="AA54" s="65">
         <v>0.1</v>
       </c>
@@ -19313,10 +19313,10 @@
       <c r="Q55" s="103">
         <v>813</v>
       </c>
-      <c r="Y55" s="110">
+      <c r="Y55" s="114">
         <v>1.4</v>
       </c>
-      <c r="Z55" s="110"/>
+      <c r="Z55" s="114"/>
       <c r="AA55" s="65">
         <v>0.1</v>
       </c>
@@ -19585,10 +19585,10 @@
       <c r="Q56" s="103">
         <v>794</v>
       </c>
-      <c r="Y56" s="110">
+      <c r="Y56" s="114">
         <v>1.4</v>
       </c>
-      <c r="Z56" s="110"/>
+      <c r="Z56" s="114"/>
       <c r="AA56" s="65">
         <v>0.2</v>
       </c>
@@ -19851,10 +19851,10 @@
       <c r="Q57" s="63">
         <v>2069</v>
       </c>
-      <c r="Y57" s="110">
+      <c r="Y57" s="114">
         <v>1.4</v>
       </c>
-      <c r="Z57" s="110"/>
+      <c r="Z57" s="114"/>
       <c r="AA57" s="65">
         <v>0.2</v>
       </c>
@@ -20117,10 +20117,10 @@
       <c r="Q58" s="63">
         <v>1385</v>
       </c>
-      <c r="Y58" s="110">
+      <c r="Y58" s="114">
         <v>1.5</v>
       </c>
-      <c r="Z58" s="110"/>
+      <c r="Z58" s="114"/>
       <c r="AA58" s="65">
         <v>0</v>
       </c>
@@ -20383,10 +20383,10 @@
       <c r="Q59" s="103">
         <v>660</v>
       </c>
-      <c r="Y59" s="110">
+      <c r="Y59" s="114">
         <v>1.5</v>
       </c>
-      <c r="Z59" s="110"/>
+      <c r="Z59" s="114"/>
       <c r="AA59" s="65">
         <v>0.5</v>
       </c>
@@ -20647,10 +20647,10 @@
       <c r="Q60" s="103">
         <v>723</v>
       </c>
-      <c r="Y60" s="110">
+      <c r="Y60" s="114">
         <v>1.4</v>
       </c>
-      <c r="Z60" s="110"/>
+      <c r="Z60" s="114"/>
       <c r="AA60" s="65">
         <v>0</v>
       </c>
@@ -20911,10 +20911,10 @@
       <c r="Q61" s="103">
         <v>0</v>
       </c>
-      <c r="Y61" s="110">
+      <c r="Y61" s="114">
         <v>1.6</v>
       </c>
-      <c r="Z61" s="110"/>
+      <c r="Z61" s="114"/>
       <c r="AA61" s="65">
         <v>0.7</v>
       </c>
@@ -21175,10 +21175,10 @@
       <c r="Q62" s="103">
         <v>0</v>
       </c>
-      <c r="Y62" s="110">
+      <c r="Y62" s="114">
         <v>1.4</v>
       </c>
-      <c r="Z62" s="110"/>
+      <c r="Z62" s="114"/>
       <c r="AA62" s="65">
         <v>0.1</v>
       </c>
@@ -29623,11 +29623,11 @@
       <c r="AD93" s="65">
         <v>0</v>
       </c>
-      <c r="AE93" s="110">
+      <c r="AE93" s="114">
         <v>0.5</v>
       </c>
-      <c r="AF93" s="110"/>
-      <c r="AG93" s="110"/>
+      <c r="AF93" s="114"/>
+      <c r="AG93" s="114"/>
       <c r="AH93" s="67">
         <v>0.09</v>
       </c>
@@ -29879,11 +29879,11 @@
       <c r="AD94" s="65">
         <v>0</v>
       </c>
-      <c r="AE94" s="110">
+      <c r="AE94" s="114">
         <v>0.6</v>
       </c>
-      <c r="AF94" s="110"/>
-      <c r="AG94" s="110"/>
+      <c r="AF94" s="114"/>
+      <c r="AG94" s="114"/>
       <c r="AH94" s="67">
         <v>0.09</v>
       </c>
@@ -30135,11 +30135,11 @@
       <c r="AD95" s="65">
         <v>0</v>
       </c>
-      <c r="AE95" s="110">
+      <c r="AE95" s="114">
         <v>0.5</v>
       </c>
-      <c r="AF95" s="110"/>
-      <c r="AG95" s="110"/>
+      <c r="AF95" s="114"/>
+      <c r="AG95" s="114"/>
       <c r="AH95" s="67">
         <v>0.09</v>
       </c>
@@ -34181,10 +34181,10 @@
       <c r="Q110" s="103">
         <v>0</v>
       </c>
-      <c r="Y110" s="110">
+      <c r="Y110" s="114">
         <v>1.4</v>
       </c>
-      <c r="Z110" s="110"/>
+      <c r="Z110" s="114"/>
       <c r="AA110" s="65">
         <v>0.1</v>
       </c>
@@ -34451,10 +34451,10 @@
       <c r="Q111" s="103">
         <v>0</v>
       </c>
-      <c r="Y111" s="110">
+      <c r="Y111" s="114">
         <v>1.6</v>
       </c>
-      <c r="Z111" s="110"/>
+      <c r="Z111" s="114"/>
       <c r="AA111" s="65">
         <v>0.1</v>
       </c>
@@ -34721,10 +34721,10 @@
       <c r="Q112" s="103">
         <v>0</v>
       </c>
-      <c r="Y112" s="110">
+      <c r="Y112" s="114">
         <v>1.7</v>
       </c>
-      <c r="Z112" s="110"/>
+      <c r="Z112" s="114"/>
       <c r="AA112" s="65">
         <v>0.1</v>
       </c>
@@ -34991,10 +34991,10 @@
       <c r="Q113" s="103">
         <v>0</v>
       </c>
-      <c r="Y113" s="110">
+      <c r="Y113" s="114">
         <v>1.3</v>
       </c>
-      <c r="Z113" s="110"/>
+      <c r="Z113" s="114"/>
       <c r="AA113" s="65">
         <v>0.1</v>
       </c>
@@ -35261,10 +35261,10 @@
       <c r="Q114" s="103">
         <v>0</v>
       </c>
-      <c r="Y114" s="110">
+      <c r="Y114" s="114">
         <v>1.6</v>
       </c>
-      <c r="Z114" s="110"/>
+      <c r="Z114" s="114"/>
       <c r="AA114" s="65">
         <v>0.1</v>
       </c>
@@ -36891,10 +36891,10 @@
       <c r="Q120" s="103">
         <v>0</v>
       </c>
-      <c r="Y120" s="110">
+      <c r="Y120" s="114">
         <v>1.6</v>
       </c>
-      <c r="Z120" s="110"/>
+      <c r="Z120" s="114"/>
       <c r="AA120" s="65">
         <v>0.2</v>
       </c>
@@ -37161,10 +37161,10 @@
       <c r="Q121" s="103">
         <v>0</v>
       </c>
-      <c r="Y121" s="110">
+      <c r="Y121" s="114">
         <v>4.5</v>
       </c>
-      <c r="Z121" s="110"/>
+      <c r="Z121" s="114"/>
       <c r="AA121" s="65">
         <v>0.5</v>
       </c>
@@ -38247,10 +38247,10 @@
       <c r="Q125" s="103">
         <v>0</v>
       </c>
-      <c r="Y125" s="110">
+      <c r="Y125" s="114">
         <v>4.8</v>
       </c>
-      <c r="Z125" s="110"/>
+      <c r="Z125" s="114"/>
       <c r="AA125" s="65">
         <v>0.5</v>
       </c>
@@ -38517,10 +38517,10 @@
       <c r="Q126" s="103">
         <v>0</v>
       </c>
-      <c r="Y126" s="110">
+      <c r="Y126" s="114">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z126" s="110"/>
+      <c r="Z126" s="114"/>
       <c r="AA126" s="65">
         <v>0.5</v>
       </c>
@@ -38787,10 +38787,10 @@
       <c r="Q127" s="103">
         <v>0</v>
       </c>
-      <c r="Y127" s="110">
+      <c r="Y127" s="114">
         <v>2.6</v>
       </c>
-      <c r="Z127" s="110"/>
+      <c r="Z127" s="114"/>
       <c r="AA127" s="65">
         <v>0.3</v>
       </c>
@@ -56036,7 +56036,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="360" spans="1:104" s="18" customFormat="1" collapsed="1">
+    <row r="360" spans="1:104" s="18" customFormat="1" ht="15" collapsed="1" thickBot="1">
       <c r="A360" s="18">
         <v>5</v>
       </c>
@@ -56045,7 +56045,7 @@
       </c>
       <c r="Q360" s="19"/>
     </row>
-    <row r="361" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="361" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B361" s="50" t="s">
         <v>487</v>
       </c>
@@ -56097,7 +56097,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="362" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="362" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B362" s="50" t="s">
         <v>492</v>
       </c>
@@ -56151,7 +56151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="363" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B363" s="50" t="s">
         <v>496</v>
       </c>
@@ -56205,7 +56205,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="364" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="364" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B364" s="50" t="s">
         <v>501</v>
       </c>
@@ -56259,7 +56259,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="365" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B365" s="50" t="s">
         <v>502</v>
       </c>
@@ -56313,7 +56313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="366" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B366" s="50" t="s">
         <v>504</v>
       </c>
@@ -56367,7 +56367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="367" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B367" s="50" t="s">
         <v>505</v>
       </c>
@@ -56421,7 +56421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="368" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="368" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B368" s="50" t="s">
         <v>505</v>
       </c>
@@ -56475,7 +56475,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="369" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="369" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B369" s="50" t="s">
         <v>505</v>
       </c>
@@ -56529,7 +56529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="370" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="370" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B370" s="50" t="s">
         <v>505</v>
       </c>
@@ -56583,7 +56583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="371" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="371" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B371" s="50" t="s">
         <v>508</v>
       </c>
@@ -56637,7 +56637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="372" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B372" s="50" t="s">
         <v>509</v>
       </c>
@@ -56691,7 +56691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="373" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B373" s="50" t="s">
         <v>509</v>
       </c>
@@ -56745,7 +56745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="374" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B374" s="50" t="s">
         <v>509</v>
       </c>
@@ -56799,7 +56799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="375" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B375" s="50" t="s">
         <v>509</v>
       </c>
@@ -56853,7 +56853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="376" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="376" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B376" s="50" t="s">
         <v>509</v>
       </c>
@@ -56909,7 +56909,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="377" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="377" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B377" s="50" t="s">
         <v>509</v>
       </c>
@@ -56963,7 +56963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="378" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="378" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B378" s="50" t="s">
         <v>511</v>
       </c>
@@ -57015,7 +57015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="379" spans="2:101" ht="24.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+    <row r="379" spans="2:101" ht="24.75" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="B379" s="50" t="s">
         <v>514</v>
       </c>
@@ -57063,7 +57063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="380" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="380" spans="2:101" outlineLevel="1">
       <c r="B380" s="50" t="s">
         <v>517</v>
       </c>
@@ -57109,7 +57109,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="381" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="381" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B381" s="50" t="s">
         <v>518</v>
       </c>
@@ -57161,7 +57161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="382" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="382" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B382" s="50" t="s">
         <v>518</v>
       </c>
@@ -57213,7 +57213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="383" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="383" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B383" s="50" t="s">
         <v>518</v>
       </c>
@@ -57265,7 +57265,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="384" spans="2:101" outlineLevel="1">
       <c r="B384" s="50" t="s">
         <v>519</v>
       </c>
@@ -57319,7 +57319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="385" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B385" s="50" t="s">
         <v>521</v>
       </c>
@@ -57357,7 +57357,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="386" spans="1:104" ht="29.5" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="386" spans="1:104" ht="29.5" outlineLevel="1" thickBot="1">
       <c r="B386" s="50" t="s">
         <v>521</v>
       </c>
@@ -57395,647 +57395,647 @@
         <v>151</v>
       </c>
     </row>
-    <row r="387" spans="1:104" hidden="1" outlineLevel="1">
-      <c r="A387" s="111"/>
-      <c r="B387" s="111" t="s">
+    <row r="387" spans="1:104" outlineLevel="1">
+      <c r="A387" s="110"/>
+      <c r="B387" s="110" t="s">
         <v>909</v>
       </c>
-      <c r="C387" s="112" t="s">
+      <c r="C387" s="111" t="s">
         <v>515</v>
       </c>
-      <c r="D387" s="112" t="s">
+      <c r="D387" s="111" t="s">
         <v>506</v>
       </c>
-      <c r="E387" s="111"/>
-      <c r="F387" s="112" t="s">
+      <c r="E387" s="110"/>
+      <c r="F387" s="111" t="s">
         <v>910</v>
       </c>
-      <c r="G387" s="111"/>
-      <c r="H387" s="111"/>
-      <c r="I387" s="112" t="s">
+      <c r="G387" s="110"/>
+      <c r="H387" s="110"/>
+      <c r="I387" s="111" t="s">
         <v>507</v>
       </c>
-      <c r="J387" s="112" t="s">
+      <c r="J387" s="111" t="s">
         <v>491</v>
       </c>
-      <c r="K387" s="111">
+      <c r="K387" s="110">
         <v>2008</v>
       </c>
-      <c r="L387" s="112">
+      <c r="L387" s="111">
         <v>16.7</v>
       </c>
-      <c r="M387" s="112">
+      <c r="M387" s="111">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="N387" s="112">
+      <c r="N387" s="111">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="O387" s="112">
+      <c r="O387" s="111">
         <v>0.14199999999999999</v>
       </c>
-      <c r="P387" s="111"/>
-      <c r="Q387" s="113"/>
-      <c r="R387" s="111"/>
-      <c r="S387" s="111"/>
-      <c r="T387" s="111"/>
-      <c r="U387" s="111"/>
-      <c r="V387" s="111"/>
-      <c r="W387" s="111"/>
-      <c r="X387" s="111"/>
-      <c r="Y387" s="111"/>
-      <c r="Z387" s="111"/>
-      <c r="AA387" s="111"/>
-      <c r="AB387" s="111"/>
-      <c r="AC387" s="111"/>
-      <c r="AD387" s="111"/>
-      <c r="AE387" s="111"/>
-      <c r="AF387" s="111"/>
-      <c r="AG387" s="111"/>
-      <c r="AH387" s="111"/>
-      <c r="AI387" s="111"/>
-      <c r="AJ387" s="111"/>
-      <c r="AK387" s="111"/>
-      <c r="AL387" s="111"/>
-      <c r="AM387" s="111"/>
-      <c r="AN387" s="111"/>
-      <c r="AO387" s="111"/>
-      <c r="AP387" s="111"/>
-      <c r="AQ387" s="111"/>
-      <c r="AR387" s="111"/>
-      <c r="AS387" s="111"/>
-      <c r="AT387" s="111"/>
-      <c r="AU387" s="111"/>
-      <c r="AV387" s="111"/>
-      <c r="AW387" s="111"/>
-      <c r="AX387" s="111"/>
-      <c r="AY387" s="111"/>
-      <c r="AZ387" s="111"/>
-      <c r="BA387" s="111"/>
-      <c r="BB387" s="111"/>
-      <c r="BC387" s="111"/>
-      <c r="BD387" s="111"/>
-      <c r="BE387" s="111"/>
-      <c r="BF387" s="111"/>
-      <c r="BG387" s="111"/>
-      <c r="BH387" s="111"/>
-      <c r="BI387" s="111"/>
-      <c r="BJ387" s="111"/>
-      <c r="BK387" s="111"/>
-      <c r="BL387" s="111"/>
-      <c r="BM387" s="111"/>
-      <c r="BN387" s="111"/>
-      <c r="BO387" s="111"/>
-      <c r="BP387" s="111"/>
-      <c r="BQ387" s="111"/>
-      <c r="BR387" s="111"/>
-      <c r="BS387" s="111"/>
-      <c r="BT387" s="111"/>
-      <c r="BU387" s="111"/>
-      <c r="BV387" s="111"/>
-      <c r="BW387" s="111"/>
-      <c r="BX387" s="111"/>
-      <c r="BY387" s="111"/>
-      <c r="BZ387" s="111"/>
-      <c r="CA387" s="111"/>
-      <c r="CB387" s="111"/>
-      <c r="CC387" s="111"/>
-      <c r="CD387" s="111"/>
-      <c r="CE387" s="111"/>
-      <c r="CF387" s="111"/>
-      <c r="CG387" s="111"/>
-      <c r="CH387" s="111"/>
-      <c r="CI387" s="111"/>
-      <c r="CJ387" s="111"/>
-      <c r="CK387" s="111"/>
-      <c r="CL387" s="111"/>
-      <c r="CM387" s="111"/>
-      <c r="CN387" s="111"/>
-      <c r="CO387" s="111"/>
-      <c r="CP387" s="111"/>
-      <c r="CQ387" s="111"/>
-      <c r="CR387" s="111"/>
-      <c r="CS387" s="111"/>
-      <c r="CT387" s="111"/>
-      <c r="CU387" s="111"/>
-      <c r="CV387" s="111"/>
-      <c r="CW387" s="111"/>
-      <c r="CX387" s="111"/>
-      <c r="CY387" s="111"/>
-      <c r="CZ387" s="111"/>
+      <c r="P387" s="110"/>
+      <c r="Q387" s="112"/>
+      <c r="R387" s="110"/>
+      <c r="S387" s="110"/>
+      <c r="T387" s="110"/>
+      <c r="U387" s="110"/>
+      <c r="V387" s="110"/>
+      <c r="W387" s="110"/>
+      <c r="X387" s="110"/>
+      <c r="Y387" s="110"/>
+      <c r="Z387" s="110"/>
+      <c r="AA387" s="110"/>
+      <c r="AB387" s="110"/>
+      <c r="AC387" s="110"/>
+      <c r="AD387" s="110"/>
+      <c r="AE387" s="110"/>
+      <c r="AF387" s="110"/>
+      <c r="AG387" s="110"/>
+      <c r="AH387" s="110"/>
+      <c r="AI387" s="110"/>
+      <c r="AJ387" s="110"/>
+      <c r="AK387" s="110"/>
+      <c r="AL387" s="110"/>
+      <c r="AM387" s="110"/>
+      <c r="AN387" s="110"/>
+      <c r="AO387" s="110"/>
+      <c r="AP387" s="110"/>
+      <c r="AQ387" s="110"/>
+      <c r="AR387" s="110"/>
+      <c r="AS387" s="110"/>
+      <c r="AT387" s="110"/>
+      <c r="AU387" s="110"/>
+      <c r="AV387" s="110"/>
+      <c r="AW387" s="110"/>
+      <c r="AX387" s="110"/>
+      <c r="AY387" s="110"/>
+      <c r="AZ387" s="110"/>
+      <c r="BA387" s="110"/>
+      <c r="BB387" s="110"/>
+      <c r="BC387" s="110"/>
+      <c r="BD387" s="110"/>
+      <c r="BE387" s="110"/>
+      <c r="BF387" s="110"/>
+      <c r="BG387" s="110"/>
+      <c r="BH387" s="110"/>
+      <c r="BI387" s="110"/>
+      <c r="BJ387" s="110"/>
+      <c r="BK387" s="110"/>
+      <c r="BL387" s="110"/>
+      <c r="BM387" s="110"/>
+      <c r="BN387" s="110"/>
+      <c r="BO387" s="110"/>
+      <c r="BP387" s="110"/>
+      <c r="BQ387" s="110"/>
+      <c r="BR387" s="110"/>
+      <c r="BS387" s="110"/>
+      <c r="BT387" s="110"/>
+      <c r="BU387" s="110"/>
+      <c r="BV387" s="110"/>
+      <c r="BW387" s="110"/>
+      <c r="BX387" s="110"/>
+      <c r="BY387" s="110"/>
+      <c r="BZ387" s="110"/>
+      <c r="CA387" s="110"/>
+      <c r="CB387" s="110"/>
+      <c r="CC387" s="110"/>
+      <c r="CD387" s="110"/>
+      <c r="CE387" s="110"/>
+      <c r="CF387" s="110"/>
+      <c r="CG387" s="110"/>
+      <c r="CH387" s="110"/>
+      <c r="CI387" s="110"/>
+      <c r="CJ387" s="110"/>
+      <c r="CK387" s="110"/>
+      <c r="CL387" s="110"/>
+      <c r="CM387" s="110"/>
+      <c r="CN387" s="110"/>
+      <c r="CO387" s="110"/>
+      <c r="CP387" s="110"/>
+      <c r="CQ387" s="110"/>
+      <c r="CR387" s="110"/>
+      <c r="CS387" s="110"/>
+      <c r="CT387" s="110"/>
+      <c r="CU387" s="110"/>
+      <c r="CV387" s="110"/>
+      <c r="CW387" s="110"/>
+      <c r="CX387" s="110"/>
+      <c r="CY387" s="110"/>
+      <c r="CZ387" s="110"/>
     </row>
-    <row r="388" spans="1:104" hidden="1" outlineLevel="1">
-      <c r="A388" s="111"/>
-      <c r="B388" s="111" t="s">
+    <row r="388" spans="1:104" outlineLevel="1">
+      <c r="A388" s="110"/>
+      <c r="B388" s="110" t="s">
         <v>909</v>
       </c>
-      <c r="C388" s="112" t="s">
+      <c r="C388" s="111" t="s">
         <v>515</v>
       </c>
-      <c r="D388" s="112" t="s">
+      <c r="D388" s="111" t="s">
         <v>506</v>
       </c>
-      <c r="E388" s="111"/>
-      <c r="F388" s="112" t="s">
+      <c r="E388" s="110"/>
+      <c r="F388" s="111" t="s">
         <v>910</v>
       </c>
-      <c r="G388" s="111"/>
-      <c r="H388" s="111"/>
-      <c r="I388" s="112" t="s">
+      <c r="G388" s="110"/>
+      <c r="H388" s="110"/>
+      <c r="I388" s="111" t="s">
         <v>490</v>
       </c>
-      <c r="J388" s="112" t="s">
+      <c r="J388" s="111" t="s">
         <v>494</v>
       </c>
-      <c r="K388" s="111">
+      <c r="K388" s="110">
         <v>2013</v>
       </c>
-      <c r="L388" s="112">
+      <c r="L388" s="111">
         <v>16</v>
       </c>
-      <c r="M388" s="112">
+      <c r="M388" s="111">
         <v>0.104</v>
       </c>
-      <c r="N388" s="112">
+      <c r="N388" s="111">
         <v>3.9E-2</v>
       </c>
-      <c r="O388" s="112">
+      <c r="O388" s="111">
         <v>7.1069999999999994E-2</v>
       </c>
-      <c r="P388" s="111"/>
-      <c r="Q388" s="113"/>
-      <c r="R388" s="111"/>
-      <c r="S388" s="111"/>
-      <c r="T388" s="111"/>
-      <c r="U388" s="111"/>
-      <c r="V388" s="111"/>
-      <c r="W388" s="111"/>
-      <c r="X388" s="111"/>
-      <c r="Y388" s="111"/>
-      <c r="Z388" s="111"/>
-      <c r="AA388" s="111"/>
-      <c r="AB388" s="111"/>
-      <c r="AC388" s="111"/>
-      <c r="AD388" s="111"/>
-      <c r="AE388" s="111"/>
-      <c r="AF388" s="111"/>
-      <c r="AG388" s="111"/>
-      <c r="AH388" s="111"/>
-      <c r="AI388" s="111"/>
-      <c r="AJ388" s="111"/>
-      <c r="AK388" s="111"/>
-      <c r="AL388" s="111"/>
-      <c r="AM388" s="111"/>
-      <c r="AN388" s="111"/>
-      <c r="AO388" s="111"/>
-      <c r="AP388" s="111"/>
-      <c r="AQ388" s="111"/>
-      <c r="AR388" s="111"/>
-      <c r="AS388" s="111"/>
-      <c r="AT388" s="111"/>
-      <c r="AU388" s="111"/>
-      <c r="AV388" s="111"/>
-      <c r="AW388" s="111"/>
-      <c r="AX388" s="111"/>
-      <c r="AY388" s="111"/>
-      <c r="AZ388" s="111"/>
-      <c r="BA388" s="111"/>
-      <c r="BB388" s="111"/>
-      <c r="BC388" s="111"/>
-      <c r="BD388" s="111"/>
-      <c r="BE388" s="111"/>
-      <c r="BF388" s="111"/>
-      <c r="BG388" s="111"/>
-      <c r="BH388" s="111"/>
-      <c r="BI388" s="111"/>
-      <c r="BJ388" s="111"/>
-      <c r="BK388" s="111"/>
-      <c r="BL388" s="111"/>
-      <c r="BM388" s="111"/>
-      <c r="BN388" s="111"/>
-      <c r="BO388" s="111"/>
-      <c r="BP388" s="111"/>
-      <c r="BQ388" s="111"/>
-      <c r="BR388" s="111"/>
-      <c r="BS388" s="111"/>
-      <c r="BT388" s="111"/>
-      <c r="BU388" s="111"/>
-      <c r="BV388" s="111"/>
-      <c r="BW388" s="111"/>
-      <c r="BX388" s="111"/>
-      <c r="BY388" s="111"/>
-      <c r="BZ388" s="111"/>
-      <c r="CA388" s="111"/>
-      <c r="CB388" s="111"/>
-      <c r="CC388" s="111"/>
-      <c r="CD388" s="111"/>
-      <c r="CE388" s="111"/>
-      <c r="CF388" s="111"/>
-      <c r="CG388" s="111"/>
-      <c r="CH388" s="111"/>
-      <c r="CI388" s="111"/>
-      <c r="CJ388" s="111"/>
-      <c r="CK388" s="111"/>
-      <c r="CL388" s="111"/>
-      <c r="CM388" s="111"/>
-      <c r="CN388" s="111"/>
-      <c r="CO388" s="111"/>
-      <c r="CP388" s="111"/>
-      <c r="CQ388" s="111"/>
-      <c r="CR388" s="111"/>
-      <c r="CS388" s="111"/>
-      <c r="CT388" s="111"/>
-      <c r="CU388" s="111"/>
-      <c r="CV388" s="111"/>
-      <c r="CW388" s="111"/>
-      <c r="CX388" s="111"/>
-      <c r="CY388" s="111"/>
-      <c r="CZ388" s="111"/>
+      <c r="P388" s="110"/>
+      <c r="Q388" s="112"/>
+      <c r="R388" s="110"/>
+      <c r="S388" s="110"/>
+      <c r="T388" s="110"/>
+      <c r="U388" s="110"/>
+      <c r="V388" s="110"/>
+      <c r="W388" s="110"/>
+      <c r="X388" s="110"/>
+      <c r="Y388" s="110"/>
+      <c r="Z388" s="110"/>
+      <c r="AA388" s="110"/>
+      <c r="AB388" s="110"/>
+      <c r="AC388" s="110"/>
+      <c r="AD388" s="110"/>
+      <c r="AE388" s="110"/>
+      <c r="AF388" s="110"/>
+      <c r="AG388" s="110"/>
+      <c r="AH388" s="110"/>
+      <c r="AI388" s="110"/>
+      <c r="AJ388" s="110"/>
+      <c r="AK388" s="110"/>
+      <c r="AL388" s="110"/>
+      <c r="AM388" s="110"/>
+      <c r="AN388" s="110"/>
+      <c r="AO388" s="110"/>
+      <c r="AP388" s="110"/>
+      <c r="AQ388" s="110"/>
+      <c r="AR388" s="110"/>
+      <c r="AS388" s="110"/>
+      <c r="AT388" s="110"/>
+      <c r="AU388" s="110"/>
+      <c r="AV388" s="110"/>
+      <c r="AW388" s="110"/>
+      <c r="AX388" s="110"/>
+      <c r="AY388" s="110"/>
+      <c r="AZ388" s="110"/>
+      <c r="BA388" s="110"/>
+      <c r="BB388" s="110"/>
+      <c r="BC388" s="110"/>
+      <c r="BD388" s="110"/>
+      <c r="BE388" s="110"/>
+      <c r="BF388" s="110"/>
+      <c r="BG388" s="110"/>
+      <c r="BH388" s="110"/>
+      <c r="BI388" s="110"/>
+      <c r="BJ388" s="110"/>
+      <c r="BK388" s="110"/>
+      <c r="BL388" s="110"/>
+      <c r="BM388" s="110"/>
+      <c r="BN388" s="110"/>
+      <c r="BO388" s="110"/>
+      <c r="BP388" s="110"/>
+      <c r="BQ388" s="110"/>
+      <c r="BR388" s="110"/>
+      <c r="BS388" s="110"/>
+      <c r="BT388" s="110"/>
+      <c r="BU388" s="110"/>
+      <c r="BV388" s="110"/>
+      <c r="BW388" s="110"/>
+      <c r="BX388" s="110"/>
+      <c r="BY388" s="110"/>
+      <c r="BZ388" s="110"/>
+      <c r="CA388" s="110"/>
+      <c r="CB388" s="110"/>
+      <c r="CC388" s="110"/>
+      <c r="CD388" s="110"/>
+      <c r="CE388" s="110"/>
+      <c r="CF388" s="110"/>
+      <c r="CG388" s="110"/>
+      <c r="CH388" s="110"/>
+      <c r="CI388" s="110"/>
+      <c r="CJ388" s="110"/>
+      <c r="CK388" s="110"/>
+      <c r="CL388" s="110"/>
+      <c r="CM388" s="110"/>
+      <c r="CN388" s="110"/>
+      <c r="CO388" s="110"/>
+      <c r="CP388" s="110"/>
+      <c r="CQ388" s="110"/>
+      <c r="CR388" s="110"/>
+      <c r="CS388" s="110"/>
+      <c r="CT388" s="110"/>
+      <c r="CU388" s="110"/>
+      <c r="CV388" s="110"/>
+      <c r="CW388" s="110"/>
+      <c r="CX388" s="110"/>
+      <c r="CY388" s="110"/>
+      <c r="CZ388" s="110"/>
     </row>
-    <row r="389" spans="1:104" hidden="1" outlineLevel="1">
-      <c r="A389" s="111"/>
-      <c r="B389" s="111" t="s">
+    <row r="389" spans="1:104" outlineLevel="1">
+      <c r="A389" s="110"/>
+      <c r="B389" s="110" t="s">
         <v>914</v>
       </c>
-      <c r="C389" s="112" t="s">
+      <c r="C389" s="111" t="s">
         <v>497</v>
       </c>
-      <c r="D389" s="112" t="s">
+      <c r="D389" s="111" t="s">
         <v>510</v>
       </c>
-      <c r="E389" s="111"/>
-      <c r="F389" s="112" t="s">
+      <c r="E389" s="110"/>
+      <c r="F389" s="111" t="s">
         <v>523</v>
       </c>
-      <c r="G389" s="111"/>
-      <c r="H389" s="111"/>
-      <c r="I389" s="112" t="s">
+      <c r="G389" s="110"/>
+      <c r="H389" s="110"/>
+      <c r="I389" s="111" t="s">
         <v>490</v>
       </c>
-      <c r="J389" s="112" t="s">
+      <c r="J389" s="111" t="s">
         <v>494</v>
       </c>
-      <c r="K389" s="111">
+      <c r="K389" s="110">
         <v>2008</v>
       </c>
-      <c r="L389" s="112">
+      <c r="L389" s="111">
         <v>19.149999999999999</v>
       </c>
-      <c r="M389" s="112">
+      <c r="M389" s="111">
         <v>0.16335</v>
       </c>
-      <c r="N389" s="112">
+      <c r="N389" s="111">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="O389" s="111"/>
-      <c r="P389" s="111"/>
-      <c r="Q389" s="113"/>
-      <c r="R389" s="114"/>
-      <c r="S389" s="112">
+      <c r="O389" s="110"/>
+      <c r="P389" s="110"/>
+      <c r="Q389" s="112"/>
+      <c r="R389" s="113"/>
+      <c r="S389" s="111">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="T389" s="112">
+      <c r="T389" s="111">
         <v>0.13730000000000001</v>
       </c>
-      <c r="U389" s="111"/>
-      <c r="V389" s="111"/>
-      <c r="W389" s="111"/>
-      <c r="X389" s="111"/>
-      <c r="Y389" s="111"/>
-      <c r="Z389" s="111"/>
-      <c r="AA389" s="111"/>
-      <c r="AB389" s="111"/>
-      <c r="AC389" s="111"/>
-      <c r="AD389" s="111"/>
-      <c r="AE389" s="111"/>
-      <c r="AF389" s="111"/>
-      <c r="AG389" s="111"/>
-      <c r="AH389" s="111"/>
-      <c r="AI389" s="111"/>
-      <c r="AJ389" s="111"/>
-      <c r="AK389" s="111"/>
-      <c r="AL389" s="111"/>
-      <c r="AM389" s="111"/>
-      <c r="AN389" s="111"/>
-      <c r="AO389" s="111"/>
-      <c r="AP389" s="111"/>
-      <c r="AQ389" s="111"/>
-      <c r="AR389" s="111"/>
-      <c r="AS389" s="111"/>
-      <c r="AT389" s="111"/>
-      <c r="AU389" s="111"/>
-      <c r="AV389" s="111"/>
-      <c r="AW389" s="111"/>
-      <c r="AX389" s="111"/>
-      <c r="AY389" s="111"/>
-      <c r="AZ389" s="111"/>
-      <c r="BA389" s="111"/>
-      <c r="BB389" s="111"/>
-      <c r="BC389" s="111"/>
-      <c r="BD389" s="111"/>
-      <c r="BE389" s="111"/>
-      <c r="BF389" s="111"/>
-      <c r="BG389" s="111"/>
-      <c r="BH389" s="111"/>
-      <c r="BI389" s="111"/>
-      <c r="BJ389" s="111"/>
-      <c r="BK389" s="111"/>
-      <c r="BL389" s="111"/>
-      <c r="BM389" s="111"/>
-      <c r="BN389" s="111"/>
-      <c r="BO389" s="111"/>
-      <c r="BP389" s="111"/>
-      <c r="BQ389" s="111"/>
-      <c r="BR389" s="111"/>
-      <c r="BS389" s="111"/>
-      <c r="BT389" s="111"/>
-      <c r="BU389" s="111"/>
-      <c r="BV389" s="111"/>
-      <c r="BW389" s="111"/>
-      <c r="BX389" s="111"/>
-      <c r="BY389" s="111"/>
-      <c r="BZ389" s="111"/>
-      <c r="CA389" s="111"/>
-      <c r="CB389" s="111"/>
-      <c r="CC389" s="111"/>
-      <c r="CD389" s="111"/>
-      <c r="CE389" s="111"/>
-      <c r="CF389" s="111"/>
-      <c r="CG389" s="111"/>
-      <c r="CH389" s="111"/>
-      <c r="CI389" s="111"/>
-      <c r="CJ389" s="111"/>
-      <c r="CK389" s="111"/>
-      <c r="CL389" s="111"/>
-      <c r="CM389" s="111"/>
-      <c r="CN389" s="111"/>
-      <c r="CO389" s="111"/>
-      <c r="CP389" s="111"/>
-      <c r="CQ389" s="111"/>
-      <c r="CR389" s="111"/>
-      <c r="CS389" s="111"/>
-      <c r="CT389" s="111"/>
-      <c r="CU389" s="111"/>
-      <c r="CV389" s="111"/>
-      <c r="CW389" s="111"/>
-      <c r="CX389" s="111"/>
-      <c r="CY389" s="111"/>
-      <c r="CZ389" s="111"/>
+      <c r="U389" s="110"/>
+      <c r="V389" s="110"/>
+      <c r="W389" s="110"/>
+      <c r="X389" s="110"/>
+      <c r="Y389" s="110"/>
+      <c r="Z389" s="110"/>
+      <c r="AA389" s="110"/>
+      <c r="AB389" s="110"/>
+      <c r="AC389" s="110"/>
+      <c r="AD389" s="110"/>
+      <c r="AE389" s="110"/>
+      <c r="AF389" s="110"/>
+      <c r="AG389" s="110"/>
+      <c r="AH389" s="110"/>
+      <c r="AI389" s="110"/>
+      <c r="AJ389" s="110"/>
+      <c r="AK389" s="110"/>
+      <c r="AL389" s="110"/>
+      <c r="AM389" s="110"/>
+      <c r="AN389" s="110"/>
+      <c r="AO389" s="110"/>
+      <c r="AP389" s="110"/>
+      <c r="AQ389" s="110"/>
+      <c r="AR389" s="110"/>
+      <c r="AS389" s="110"/>
+      <c r="AT389" s="110"/>
+      <c r="AU389" s="110"/>
+      <c r="AV389" s="110"/>
+      <c r="AW389" s="110"/>
+      <c r="AX389" s="110"/>
+      <c r="AY389" s="110"/>
+      <c r="AZ389" s="110"/>
+      <c r="BA389" s="110"/>
+      <c r="BB389" s="110"/>
+      <c r="BC389" s="110"/>
+      <c r="BD389" s="110"/>
+      <c r="BE389" s="110"/>
+      <c r="BF389" s="110"/>
+      <c r="BG389" s="110"/>
+      <c r="BH389" s="110"/>
+      <c r="BI389" s="110"/>
+      <c r="BJ389" s="110"/>
+      <c r="BK389" s="110"/>
+      <c r="BL389" s="110"/>
+      <c r="BM389" s="110"/>
+      <c r="BN389" s="110"/>
+      <c r="BO389" s="110"/>
+      <c r="BP389" s="110"/>
+      <c r="BQ389" s="110"/>
+      <c r="BR389" s="110"/>
+      <c r="BS389" s="110"/>
+      <c r="BT389" s="110"/>
+      <c r="BU389" s="110"/>
+      <c r="BV389" s="110"/>
+      <c r="BW389" s="110"/>
+      <c r="BX389" s="110"/>
+      <c r="BY389" s="110"/>
+      <c r="BZ389" s="110"/>
+      <c r="CA389" s="110"/>
+      <c r="CB389" s="110"/>
+      <c r="CC389" s="110"/>
+      <c r="CD389" s="110"/>
+      <c r="CE389" s="110"/>
+      <c r="CF389" s="110"/>
+      <c r="CG389" s="110"/>
+      <c r="CH389" s="110"/>
+      <c r="CI389" s="110"/>
+      <c r="CJ389" s="110"/>
+      <c r="CK389" s="110"/>
+      <c r="CL389" s="110"/>
+      <c r="CM389" s="110"/>
+      <c r="CN389" s="110"/>
+      <c r="CO389" s="110"/>
+      <c r="CP389" s="110"/>
+      <c r="CQ389" s="110"/>
+      <c r="CR389" s="110"/>
+      <c r="CS389" s="110"/>
+      <c r="CT389" s="110"/>
+      <c r="CU389" s="110"/>
+      <c r="CV389" s="110"/>
+      <c r="CW389" s="110"/>
+      <c r="CX389" s="110"/>
+      <c r="CY389" s="110"/>
+      <c r="CZ389" s="110"/>
     </row>
-    <row r="390" spans="1:104" hidden="1" outlineLevel="1">
-      <c r="A390" s="111"/>
-      <c r="B390" s="111" t="s">
+    <row r="390" spans="1:104" outlineLevel="1">
+      <c r="A390" s="110"/>
+      <c r="B390" s="110" t="s">
         <v>913</v>
       </c>
-      <c r="C390" s="112" t="s">
+      <c r="C390" s="111" t="s">
         <v>497</v>
       </c>
-      <c r="D390" s="112" t="s">
+      <c r="D390" s="111" t="s">
         <v>510</v>
       </c>
-      <c r="E390" s="111"/>
-      <c r="F390" s="112" t="s">
+      <c r="E390" s="110"/>
+      <c r="F390" s="111" t="s">
         <v>172</v>
       </c>
-      <c r="G390" s="111"/>
-      <c r="H390" s="111"/>
-      <c r="I390" s="112" t="s">
+      <c r="G390" s="110"/>
+      <c r="H390" s="110"/>
+      <c r="I390" s="111" t="s">
         <v>911</v>
       </c>
-      <c r="J390" s="112" t="s">
+      <c r="J390" s="111" t="s">
         <v>494</v>
       </c>
-      <c r="K390" s="111">
+      <c r="K390" s="110">
         <v>2019</v>
       </c>
-      <c r="L390" s="112">
+      <c r="L390" s="111">
         <v>17.29</v>
       </c>
-      <c r="M390" s="112">
+      <c r="M390" s="111">
         <v>0.21809999999999999</v>
       </c>
-      <c r="N390" s="112">
+      <c r="N390" s="111">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="O390" s="112">
+      <c r="O390" s="111">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="P390" s="111"/>
-      <c r="Q390" s="113"/>
-      <c r="R390" s="114"/>
-      <c r="S390" s="111"/>
-      <c r="T390" s="111"/>
-      <c r="U390" s="111"/>
-      <c r="V390" s="111"/>
-      <c r="W390" s="111"/>
-      <c r="X390" s="111"/>
-      <c r="Y390" s="111"/>
-      <c r="Z390" s="111"/>
-      <c r="AA390" s="111"/>
-      <c r="AB390" s="111"/>
-      <c r="AC390" s="111"/>
-      <c r="AD390" s="111"/>
-      <c r="AE390" s="111"/>
-      <c r="AF390" s="111"/>
-      <c r="AG390" s="111"/>
-      <c r="AH390" s="111"/>
-      <c r="AI390" s="111"/>
-      <c r="AJ390" s="111"/>
-      <c r="AK390" s="111"/>
-      <c r="AL390" s="111"/>
-      <c r="AM390" s="111"/>
-      <c r="AN390" s="111"/>
-      <c r="AO390" s="111"/>
-      <c r="AP390" s="111"/>
-      <c r="AQ390" s="111"/>
-      <c r="AR390" s="111"/>
-      <c r="AS390" s="111"/>
-      <c r="AT390" s="111"/>
-      <c r="AU390" s="111"/>
-      <c r="AV390" s="111"/>
-      <c r="AW390" s="111"/>
-      <c r="AX390" s="111"/>
-      <c r="AY390" s="111"/>
-      <c r="AZ390" s="111"/>
-      <c r="BA390" s="111"/>
-      <c r="BB390" s="111"/>
-      <c r="BC390" s="111"/>
-      <c r="BD390" s="111"/>
-      <c r="BE390" s="111"/>
-      <c r="BF390" s="111"/>
-      <c r="BG390" s="111"/>
-      <c r="BH390" s="111"/>
-      <c r="BI390" s="111"/>
-      <c r="BJ390" s="111"/>
-      <c r="BK390" s="111"/>
-      <c r="BL390" s="111"/>
-      <c r="BM390" s="111"/>
-      <c r="BN390" s="111"/>
-      <c r="BO390" s="111"/>
-      <c r="BP390" s="111"/>
-      <c r="BQ390" s="111"/>
-      <c r="BR390" s="111"/>
-      <c r="BS390" s="111"/>
-      <c r="BT390" s="111"/>
-      <c r="BU390" s="111"/>
-      <c r="BV390" s="111"/>
-      <c r="BW390" s="111"/>
-      <c r="BX390" s="111"/>
-      <c r="BY390" s="111"/>
-      <c r="BZ390" s="111"/>
-      <c r="CA390" s="111"/>
-      <c r="CB390" s="111"/>
-      <c r="CC390" s="111"/>
-      <c r="CD390" s="111"/>
-      <c r="CE390" s="111"/>
-      <c r="CF390" s="111"/>
-      <c r="CG390" s="111"/>
-      <c r="CH390" s="111"/>
-      <c r="CI390" s="111"/>
-      <c r="CJ390" s="111"/>
-      <c r="CK390" s="111"/>
-      <c r="CL390" s="111"/>
-      <c r="CM390" s="111"/>
-      <c r="CN390" s="111"/>
-      <c r="CO390" s="111"/>
-      <c r="CP390" s="111"/>
-      <c r="CQ390" s="111"/>
-      <c r="CR390" s="111"/>
-      <c r="CS390" s="111"/>
-      <c r="CT390" s="111"/>
-      <c r="CU390" s="111"/>
-      <c r="CV390" s="111"/>
-      <c r="CW390" s="111"/>
-      <c r="CX390" s="111"/>
-      <c r="CY390" s="111"/>
-      <c r="CZ390" s="111"/>
+      <c r="P390" s="110"/>
+      <c r="Q390" s="112"/>
+      <c r="R390" s="113"/>
+      <c r="S390" s="110"/>
+      <c r="T390" s="110"/>
+      <c r="U390" s="110"/>
+      <c r="V390" s="110"/>
+      <c r="W390" s="110"/>
+      <c r="X390" s="110"/>
+      <c r="Y390" s="110"/>
+      <c r="Z390" s="110"/>
+      <c r="AA390" s="110"/>
+      <c r="AB390" s="110"/>
+      <c r="AC390" s="110"/>
+      <c r="AD390" s="110"/>
+      <c r="AE390" s="110"/>
+      <c r="AF390" s="110"/>
+      <c r="AG390" s="110"/>
+      <c r="AH390" s="110"/>
+      <c r="AI390" s="110"/>
+      <c r="AJ390" s="110"/>
+      <c r="AK390" s="110"/>
+      <c r="AL390" s="110"/>
+      <c r="AM390" s="110"/>
+      <c r="AN390" s="110"/>
+      <c r="AO390" s="110"/>
+      <c r="AP390" s="110"/>
+      <c r="AQ390" s="110"/>
+      <c r="AR390" s="110"/>
+      <c r="AS390" s="110"/>
+      <c r="AT390" s="110"/>
+      <c r="AU390" s="110"/>
+      <c r="AV390" s="110"/>
+      <c r="AW390" s="110"/>
+      <c r="AX390" s="110"/>
+      <c r="AY390" s="110"/>
+      <c r="AZ390" s="110"/>
+      <c r="BA390" s="110"/>
+      <c r="BB390" s="110"/>
+      <c r="BC390" s="110"/>
+      <c r="BD390" s="110"/>
+      <c r="BE390" s="110"/>
+      <c r="BF390" s="110"/>
+      <c r="BG390" s="110"/>
+      <c r="BH390" s="110"/>
+      <c r="BI390" s="110"/>
+      <c r="BJ390" s="110"/>
+      <c r="BK390" s="110"/>
+      <c r="BL390" s="110"/>
+      <c r="BM390" s="110"/>
+      <c r="BN390" s="110"/>
+      <c r="BO390" s="110"/>
+      <c r="BP390" s="110"/>
+      <c r="BQ390" s="110"/>
+      <c r="BR390" s="110"/>
+      <c r="BS390" s="110"/>
+      <c r="BT390" s="110"/>
+      <c r="BU390" s="110"/>
+      <c r="BV390" s="110"/>
+      <c r="BW390" s="110"/>
+      <c r="BX390" s="110"/>
+      <c r="BY390" s="110"/>
+      <c r="BZ390" s="110"/>
+      <c r="CA390" s="110"/>
+      <c r="CB390" s="110"/>
+      <c r="CC390" s="110"/>
+      <c r="CD390" s="110"/>
+      <c r="CE390" s="110"/>
+      <c r="CF390" s="110"/>
+      <c r="CG390" s="110"/>
+      <c r="CH390" s="110"/>
+      <c r="CI390" s="110"/>
+      <c r="CJ390" s="110"/>
+      <c r="CK390" s="110"/>
+      <c r="CL390" s="110"/>
+      <c r="CM390" s="110"/>
+      <c r="CN390" s="110"/>
+      <c r="CO390" s="110"/>
+      <c r="CP390" s="110"/>
+      <c r="CQ390" s="110"/>
+      <c r="CR390" s="110"/>
+      <c r="CS390" s="110"/>
+      <c r="CT390" s="110"/>
+      <c r="CU390" s="110"/>
+      <c r="CV390" s="110"/>
+      <c r="CW390" s="110"/>
+      <c r="CX390" s="110"/>
+      <c r="CY390" s="110"/>
+      <c r="CZ390" s="110"/>
     </row>
-    <row r="391" spans="1:104" hidden="1" outlineLevel="1">
-      <c r="A391" s="111"/>
-      <c r="B391" s="111" t="s">
+    <row r="391" spans="1:104" outlineLevel="1">
+      <c r="A391" s="110"/>
+      <c r="B391" s="110" t="s">
         <v>912</v>
       </c>
-      <c r="C391" s="112" t="s">
+      <c r="C391" s="111" t="s">
         <v>497</v>
       </c>
-      <c r="D391" s="112" t="s">
+      <c r="D391" s="111" t="s">
         <v>510</v>
       </c>
-      <c r="E391" s="111"/>
-      <c r="F391" s="112" t="s">
+      <c r="E391" s="110"/>
+      <c r="F391" s="111" t="s">
         <v>172</v>
       </c>
-      <c r="G391" s="111"/>
-      <c r="H391" s="111"/>
-      <c r="I391" s="112" t="s">
+      <c r="G391" s="110"/>
+      <c r="H391" s="110"/>
+      <c r="I391" s="111" t="s">
         <v>490</v>
       </c>
-      <c r="J391" s="112" t="s">
+      <c r="J391" s="111" t="s">
         <v>494</v>
       </c>
-      <c r="K391" s="111">
+      <c r="K391" s="110">
         <v>2015</v>
       </c>
-      <c r="L391" s="112">
+      <c r="L391" s="111">
         <v>42.29</v>
       </c>
-      <c r="M391" s="112">
+      <c r="M391" s="111">
         <v>8.0549999999999997E-2</v>
       </c>
-      <c r="N391" s="111"/>
-      <c r="O391" s="112">
+      <c r="N391" s="110"/>
+      <c r="O391" s="111">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="P391" s="111"/>
-      <c r="Q391" s="113"/>
-      <c r="R391" s="111"/>
-      <c r="S391" s="111"/>
-      <c r="T391" s="111"/>
-      <c r="U391" s="111"/>
-      <c r="V391" s="111"/>
-      <c r="W391" s="111"/>
-      <c r="X391" s="111"/>
-      <c r="Y391" s="111"/>
-      <c r="Z391" s="111"/>
-      <c r="AA391" s="111"/>
-      <c r="AB391" s="111"/>
-      <c r="AC391" s="111"/>
-      <c r="AD391" s="111"/>
-      <c r="AE391" s="111"/>
-      <c r="AF391" s="111"/>
-      <c r="AG391" s="111"/>
-      <c r="AH391" s="111"/>
-      <c r="AI391" s="111"/>
-      <c r="AJ391" s="111"/>
-      <c r="AK391" s="111"/>
-      <c r="AL391" s="111"/>
-      <c r="AM391" s="111"/>
-      <c r="AN391" s="111"/>
-      <c r="AO391" s="111"/>
-      <c r="AP391" s="111"/>
-      <c r="AQ391" s="111"/>
-      <c r="AR391" s="111"/>
-      <c r="AS391" s="111"/>
-      <c r="AT391" s="111"/>
-      <c r="AU391" s="111"/>
-      <c r="AV391" s="111"/>
-      <c r="AW391" s="111"/>
-      <c r="AX391" s="111"/>
-      <c r="AY391" s="111"/>
-      <c r="AZ391" s="111"/>
-      <c r="BA391" s="111"/>
-      <c r="BB391" s="111"/>
-      <c r="BC391" s="111"/>
-      <c r="BD391" s="111"/>
-      <c r="BE391" s="111"/>
-      <c r="BF391" s="111"/>
-      <c r="BG391" s="111"/>
-      <c r="BH391" s="111"/>
-      <c r="BI391" s="111"/>
-      <c r="BJ391" s="111"/>
-      <c r="BK391" s="111"/>
-      <c r="BL391" s="111"/>
-      <c r="BM391" s="111"/>
-      <c r="BN391" s="111"/>
-      <c r="BO391" s="111"/>
-      <c r="BP391" s="111"/>
-      <c r="BQ391" s="111"/>
-      <c r="BR391" s="111"/>
-      <c r="BS391" s="111"/>
-      <c r="BT391" s="111"/>
-      <c r="BU391" s="111"/>
-      <c r="BV391" s="111"/>
-      <c r="BW391" s="111"/>
-      <c r="BX391" s="111"/>
-      <c r="BY391" s="111"/>
-      <c r="BZ391" s="111"/>
-      <c r="CA391" s="111"/>
-      <c r="CB391" s="111"/>
-      <c r="CC391" s="111"/>
-      <c r="CD391" s="111"/>
-      <c r="CE391" s="111"/>
-      <c r="CF391" s="111"/>
-      <c r="CG391" s="111"/>
-      <c r="CH391" s="111"/>
-      <c r="CI391" s="111"/>
-      <c r="CJ391" s="111"/>
-      <c r="CK391" s="111"/>
-      <c r="CL391" s="111"/>
-      <c r="CM391" s="111"/>
-      <c r="CN391" s="111"/>
-      <c r="CO391" s="111"/>
-      <c r="CP391" s="111"/>
-      <c r="CQ391" s="111"/>
-      <c r="CR391" s="111"/>
-      <c r="CS391" s="111"/>
-      <c r="CT391" s="111"/>
-      <c r="CU391" s="111"/>
-      <c r="CV391" s="111"/>
-      <c r="CW391" s="111"/>
-      <c r="CX391" s="111"/>
-      <c r="CY391" s="111"/>
-      <c r="CZ391" s="111"/>
+      <c r="P391" s="110"/>
+      <c r="Q391" s="112"/>
+      <c r="R391" s="110"/>
+      <c r="S391" s="110"/>
+      <c r="T391" s="110"/>
+      <c r="U391" s="110"/>
+      <c r="V391" s="110"/>
+      <c r="W391" s="110"/>
+      <c r="X391" s="110"/>
+      <c r="Y391" s="110"/>
+      <c r="Z391" s="110"/>
+      <c r="AA391" s="110"/>
+      <c r="AB391" s="110"/>
+      <c r="AC391" s="110"/>
+      <c r="AD391" s="110"/>
+      <c r="AE391" s="110"/>
+      <c r="AF391" s="110"/>
+      <c r="AG391" s="110"/>
+      <c r="AH391" s="110"/>
+      <c r="AI391" s="110"/>
+      <c r="AJ391" s="110"/>
+      <c r="AK391" s="110"/>
+      <c r="AL391" s="110"/>
+      <c r="AM391" s="110"/>
+      <c r="AN391" s="110"/>
+      <c r="AO391" s="110"/>
+      <c r="AP391" s="110"/>
+      <c r="AQ391" s="110"/>
+      <c r="AR391" s="110"/>
+      <c r="AS391" s="110"/>
+      <c r="AT391" s="110"/>
+      <c r="AU391" s="110"/>
+      <c r="AV391" s="110"/>
+      <c r="AW391" s="110"/>
+      <c r="AX391" s="110"/>
+      <c r="AY391" s="110"/>
+      <c r="AZ391" s="110"/>
+      <c r="BA391" s="110"/>
+      <c r="BB391" s="110"/>
+      <c r="BC391" s="110"/>
+      <c r="BD391" s="110"/>
+      <c r="BE391" s="110"/>
+      <c r="BF391" s="110"/>
+      <c r="BG391" s="110"/>
+      <c r="BH391" s="110"/>
+      <c r="BI391" s="110"/>
+      <c r="BJ391" s="110"/>
+      <c r="BK391" s="110"/>
+      <c r="BL391" s="110"/>
+      <c r="BM391" s="110"/>
+      <c r="BN391" s="110"/>
+      <c r="BO391" s="110"/>
+      <c r="BP391" s="110"/>
+      <c r="BQ391" s="110"/>
+      <c r="BR391" s="110"/>
+      <c r="BS391" s="110"/>
+      <c r="BT391" s="110"/>
+      <c r="BU391" s="110"/>
+      <c r="BV391" s="110"/>
+      <c r="BW391" s="110"/>
+      <c r="BX391" s="110"/>
+      <c r="BY391" s="110"/>
+      <c r="BZ391" s="110"/>
+      <c r="CA391" s="110"/>
+      <c r="CB391" s="110"/>
+      <c r="CC391" s="110"/>
+      <c r="CD391" s="110"/>
+      <c r="CE391" s="110"/>
+      <c r="CF391" s="110"/>
+      <c r="CG391" s="110"/>
+      <c r="CH391" s="110"/>
+      <c r="CI391" s="110"/>
+      <c r="CJ391" s="110"/>
+      <c r="CK391" s="110"/>
+      <c r="CL391" s="110"/>
+      <c r="CM391" s="110"/>
+      <c r="CN391" s="110"/>
+      <c r="CO391" s="110"/>
+      <c r="CP391" s="110"/>
+      <c r="CQ391" s="110"/>
+      <c r="CR391" s="110"/>
+      <c r="CS391" s="110"/>
+      <c r="CT391" s="110"/>
+      <c r="CU391" s="110"/>
+      <c r="CV391" s="110"/>
+      <c r="CW391" s="110"/>
+      <c r="CX391" s="110"/>
+      <c r="CY391" s="110"/>
+      <c r="CZ391" s="110"/>
     </row>
-    <row r="392" spans="1:104" s="18" customFormat="1" collapsed="1">
+    <row r="392" spans="1:104" s="18" customFormat="1">
       <c r="A392" s="18">
         <v>6</v>
       </c>
@@ -74182,14 +74182,6 @@
     <row r="692" spans="1:25" collapsed="1"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Y110:Z110"/>
-    <mergeCell ref="Y111:Z111"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="Y55:Z55"/>
-    <mergeCell ref="Y56:Z56"/>
-    <mergeCell ref="Y57:Z57"/>
-    <mergeCell ref="Y58:Z58"/>
     <mergeCell ref="Y126:Z126"/>
     <mergeCell ref="Y127:Z127"/>
     <mergeCell ref="AE6:AG6"/>
@@ -74206,6 +74198,14 @@
     <mergeCell ref="Y60:Z60"/>
     <mergeCell ref="Y61:Z61"/>
     <mergeCell ref="Y62:Z62"/>
+    <mergeCell ref="Y110:Z110"/>
+    <mergeCell ref="Y111:Z111"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="Y55:Z55"/>
+    <mergeCell ref="Y56:Z56"/>
+    <mergeCell ref="Y57:Z57"/>
+    <mergeCell ref="Y58:Z58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AgImpacts_Raw_Data.xlsx
+++ b/AgImpacts_Raw_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anush\Documents\MIT\TerraELO\WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CE1981-31CB-4464-9EB0-C23ABC52BCEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52BB761-9734-42D5-BF3E-DC51BBF6A435}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16780" windowHeight="5300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4899,8 +4899,8 @@
   <dimension ref="A1:CZ692"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B156" sqref="B156"/>
+      <pane ySplit="2" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L364" sqref="L364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7265625" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -56033,7 +56033,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="360" spans="1:104" s="18" customFormat="1" collapsed="1">
+    <row r="360" spans="1:104" s="18" customFormat="1" ht="15" collapsed="1" thickBot="1">
       <c r="A360" s="18">
         <v>5</v>
       </c>
@@ -56042,7 +56042,7 @@
       </c>
       <c r="Q360" s="19"/>
     </row>
-    <row r="361" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="361" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B361" s="50" t="s">
         <v>486</v>
       </c>
@@ -56094,7 +56094,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="362" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="362" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B362" s="50" t="s">
         <v>491</v>
       </c>
@@ -56148,7 +56148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="363" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B363" s="50" t="s">
         <v>495</v>
       </c>
@@ -56170,9 +56170,7 @@
       <c r="K363">
         <v>2019</v>
       </c>
-      <c r="L363" s="16">
-        <v>7.9</v>
-      </c>
+      <c r="L363" s="16"/>
       <c r="M363" s="74" t="s">
         <v>150</v>
       </c>
@@ -56202,7 +56200,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="364" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="364" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B364" s="50" t="s">
         <v>500</v>
       </c>
@@ -56224,9 +56222,7 @@
       <c r="K364">
         <v>2019</v>
       </c>
-      <c r="L364" s="16">
-        <v>7.4</v>
-      </c>
+      <c r="L364" s="16"/>
       <c r="M364" s="74" t="s">
         <v>150</v>
       </c>
@@ -56256,7 +56252,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="365" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B365" s="50" t="s">
         <v>501</v>
       </c>
@@ -56310,7 +56306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="366" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B366" s="50" t="s">
         <v>503</v>
       </c>
@@ -56364,7 +56360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="367" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B367" s="50" t="s">
         <v>504</v>
       </c>
@@ -56418,7 +56414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="368" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="368" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B368" s="50" t="s">
         <v>504</v>
       </c>
@@ -56472,7 +56468,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="369" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="369" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B369" s="50" t="s">
         <v>504</v>
       </c>
@@ -56526,7 +56522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="370" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="370" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B370" s="50" t="s">
         <v>504</v>
       </c>
@@ -56580,7 +56576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="371" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="371" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B371" s="50" t="s">
         <v>507</v>
       </c>
@@ -56634,7 +56630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="372" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B372" s="50" t="s">
         <v>508</v>
       </c>
@@ -56688,7 +56684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="373" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B373" s="50" t="s">
         <v>508</v>
       </c>
@@ -56742,7 +56738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="374" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B374" s="50" t="s">
         <v>508</v>
       </c>
@@ -56796,7 +56792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="375" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B375" s="50" t="s">
         <v>508</v>
       </c>
@@ -56850,7 +56846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="376" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="376" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B376" s="50" t="s">
         <v>508</v>
       </c>
@@ -56906,7 +56902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="377" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="377" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B377" s="50" t="s">
         <v>508</v>
       </c>
@@ -56960,7 +56956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="378" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="378" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B378" s="50" t="s">
         <v>510</v>
       </c>
@@ -57012,7 +57008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="379" spans="2:101" ht="24.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+    <row r="379" spans="2:101" ht="24.75" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="B379" s="50" t="s">
         <v>513</v>
       </c>
@@ -57060,7 +57056,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="380" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="380" spans="2:101" outlineLevel="1">
       <c r="B380" s="50" t="s">
         <v>516</v>
       </c>
@@ -57106,7 +57102,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="381" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="381" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B381" s="50" t="s">
         <v>517</v>
       </c>
@@ -57158,7 +57154,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="382" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="382" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B382" s="50" t="s">
         <v>517</v>
       </c>
@@ -57210,7 +57206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="383" spans="2:101" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="383" spans="2:101" ht="15" outlineLevel="1" thickBot="1">
       <c r="B383" s="50" t="s">
         <v>517</v>
       </c>
@@ -57262,7 +57258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="2:101" hidden="1" outlineLevel="1">
+    <row r="384" spans="2:101" outlineLevel="1">
       <c r="B384" s="50" t="s">
         <v>518</v>
       </c>
@@ -57316,7 +57312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:104" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="385" spans="1:104" ht="15" outlineLevel="1" thickBot="1">
       <c r="B385" s="50" t="s">
         <v>520</v>
       </c>
@@ -57354,7 +57350,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="386" spans="1:104" ht="29.5" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="386" spans="1:104" ht="29.5" outlineLevel="1" thickBot="1">
       <c r="B386" s="50" t="s">
         <v>520</v>
       </c>
@@ -57392,7 +57388,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="387" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="387" spans="1:104" outlineLevel="1">
       <c r="A387" s="110"/>
       <c r="B387" s="110" t="s">
         <v>908</v>
@@ -57520,7 +57516,7 @@
       <c r="CY387" s="110"/>
       <c r="CZ387" s="110"/>
     </row>
-    <row r="388" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="388" spans="1:104" outlineLevel="1">
       <c r="A388" s="110"/>
       <c r="B388" s="110" t="s">
         <v>908</v>
@@ -57648,7 +57644,7 @@
       <c r="CY388" s="110"/>
       <c r="CZ388" s="110"/>
     </row>
-    <row r="389" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="389" spans="1:104" outlineLevel="1">
       <c r="A389" s="110"/>
       <c r="B389" s="110" t="s">
         <v>913</v>
@@ -57778,7 +57774,7 @@
       <c r="CY389" s="110"/>
       <c r="CZ389" s="110"/>
     </row>
-    <row r="390" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="390" spans="1:104" outlineLevel="1">
       <c r="A390" s="110"/>
       <c r="B390" s="110" t="s">
         <v>912</v>
@@ -57906,7 +57902,7 @@
       <c r="CY390" s="110"/>
       <c r="CZ390" s="110"/>
     </row>
-    <row r="391" spans="1:104" hidden="1" outlineLevel="1">
+    <row r="391" spans="1:104" outlineLevel="1">
       <c r="A391" s="110"/>
       <c r="B391" s="110" t="s">
         <v>911</v>
@@ -58032,7 +58028,7 @@
       <c r="CY391" s="110"/>
       <c r="CZ391" s="110"/>
     </row>
-    <row r="392" spans="1:104" s="18" customFormat="1" collapsed="1">
+    <row r="392" spans="1:104" s="18" customFormat="1">
       <c r="A392" s="18">
         <v>6</v>
       </c>
@@ -74179,14 +74175,6 @@
     <row r="692" spans="1:25" collapsed="1"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Y110:Z110"/>
-    <mergeCell ref="Y111:Z111"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="Y55:Z55"/>
-    <mergeCell ref="Y56:Z56"/>
-    <mergeCell ref="Y57:Z57"/>
-    <mergeCell ref="Y58:Z58"/>
     <mergeCell ref="Y126:Z126"/>
     <mergeCell ref="Y127:Z127"/>
     <mergeCell ref="AE6:AG6"/>
@@ -74203,6 +74191,14 @@
     <mergeCell ref="Y60:Z60"/>
     <mergeCell ref="Y61:Z61"/>
     <mergeCell ref="Y62:Z62"/>
+    <mergeCell ref="Y110:Z110"/>
+    <mergeCell ref="Y111:Z111"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="Y55:Z55"/>
+    <mergeCell ref="Y56:Z56"/>
+    <mergeCell ref="Y57:Z57"/>
+    <mergeCell ref="Y58:Z58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
